--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T08:33:50-06:00</t>
+    <t>2022-12-23T15:55:29-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -268,7 +268,7 @@
     <t>Mapping: CDA (R2)</t>
   </si>
   <si>
-    <t>Mapping: VIA/VDIF to MHV-PHR</t>
+    <t>Mapping: VDIF to MHV-PHR</t>
   </si>
   <si>
     <t/>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T15:55:29-06:00</t>
+    <t>2023-01-04T18:59:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -92,7 +92,7 @@
 * must have status of completed 
 * must have identifier as cross reference to original source
 * must have a code.text or code.coding from a valueset
-  * code.coding may should be a CVX but we don't have such.
+  * code.coding should be a CVX but we don't have such.
   * Might have a CPT code
 * must have a date (occuranceDateTime) the vaccine was administered from the UI
   * will also be used for recorded date
@@ -100,7 +100,16 @@
 * any reaction is recorded as a contained observation
 * may have a comment note
 * once created will have an id, versionId, lastUpdated.
-* Not sure if text will be populated</t>
+* Not sure if text will be populated
+Mapping from [ImmunizationTO](StructureDefinition-VA.MHV.PHR.immunization-mappings.html#mappings-for-vdif-to-mhv-phr-immunizationto)
+TODO Questions: 
+- The given mock example aligns with both VIA_v4.0.7_uat.wsdl and mockey-mdws3-service.wsdl. The VIA schema has more elements. The mapping is only for elements that were in both and for which I had an example. Better mapping can be done if specific schema can be identifed, and more rich mock example.
+- reaction appears to be a controlled vocabulary (e.g. FEVER), or is it a number (1-11 - convertReactionCode())?
+- contraindicated -- appears to be a number (e.g. 0). No idea what the values might be or what they might mean
+- id - presuming this is a persisted identifier we can cross-reference with
+- series - this appears to be a controlled vocabulary (e.g. COMPLETE). What are the possible values and what do they mean?
+- encounter - should we convert these to instances of FHIR Encounter?
+- could have function that converts a defined set of ImmunizationTO.name values to proper codes. This might be an advanced feature.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1198,7 +1207,7 @@
     <t>Immunization.site.text</t>
   </si>
   <si>
-    <t>ImmunizationTO.anatomicSurvace</t>
+    <t>ImmunizationTO.anatomicSurface</t>
   </si>
   <si>
     <t>Immunization.route</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-beta</t>
+    <t>0.1.1-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-04T18:59:45-06:00</t>
+    <t>2023-01-05T09:18:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -292,7 +292,7 @@
     <t>Immunization event information</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>The US Core Immunization Profile is based upon the core FHIR Immunization Resource and created to meet the 2015 Edition Common Clinical Data Set 'Immunizations' requirements.</t>
   </si>
   <si>
     <t>Event</t>
@@ -595,8 +595,12 @@
     <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1010.6</t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-5
+    <t xml:space="preserve">us-core-1
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-1:SHOULD have a translation to the NDC value set {coding.where(system='http://hl7.org/fhir/sid/ndc').empty()}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2315,9 +2319,7 @@
       <c r="M2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>79</v>
@@ -3808,22 +3810,22 @@
         <v>179</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -3831,10 +3833,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3857,13 +3859,13 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3914,7 +3916,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3935,7 +3937,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3949,10 +3951,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3981,7 +3983,7 @@
         <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>138</v>
@@ -4022,19 +4024,19 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4055,7 +4057,7 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4069,10 +4071,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4095,19 +4097,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -4156,7 +4158,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4174,10 +4176,10 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4191,10 +4193,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4217,13 +4219,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4274,7 +4276,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4295,7 +4297,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4309,10 +4311,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4341,7 +4343,7 @@
         <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>138</v>
@@ -4382,19 +4384,19 @@
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4415,7 +4417,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4429,10 +4431,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4458,16 +4460,16 @@
         <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4516,7 +4518,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4534,10 +4536,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4551,10 +4553,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4577,16 +4579,16 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4636,7 +4638,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4654,10 +4656,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4671,10 +4673,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4700,14 +4702,14 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4756,7 +4758,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4774,10 +4776,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4786,15 +4788,15 @@
         <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4817,17 +4819,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4876,7 +4878,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4894,10 +4896,10 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4906,15 +4908,15 @@
         <v>79</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4937,19 +4939,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4998,7 +5000,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5016,10 +5018,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5033,10 +5035,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5059,19 +5061,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5120,7 +5122,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5138,10 +5140,10 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5150,19 +5152,19 @@
         <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5181,13 +5183,13 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5238,7 +5240,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>89</v>
@@ -5253,16 +5255,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5273,10 +5275,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5299,13 +5301,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5356,7 +5358,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5371,30 +5373,30 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5417,16 +5419,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5464,17 +5466,17 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
@@ -5489,19 +5491,19 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5509,13 +5511,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>79</v>
@@ -5537,16 +5539,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5596,7 +5598,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>89</v>
@@ -5611,30 +5613,30 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5657,13 +5659,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5714,7 +5716,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5735,24 +5737,24 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5775,16 +5777,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5834,7 +5836,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5852,13 +5854,13 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5869,10 +5871,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5898,13 +5900,13 @@
         <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5933,10 +5935,10 @@
         <v>170</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5954,7 +5956,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5972,13 +5974,13 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5989,10 +5991,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6015,13 +6017,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6072,7 +6074,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6087,16 +6089,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6107,10 +6109,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6133,13 +6135,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6190,7 +6192,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6211,7 +6213,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6225,10 +6227,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6257,7 +6259,7 @@
         <v>136</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>138</v>
@@ -6298,19 +6300,19 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6331,7 +6333,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6345,10 +6347,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6371,16 +6373,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6430,7 +6432,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6439,7 +6441,7 @@
         <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>101</v>
@@ -6465,10 +6467,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6494,13 +6496,13 @@
         <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6529,10 +6531,10 @@
         <v>177</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6550,7 +6552,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6585,10 +6587,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6614,13 +6616,13 @@
         <v>147</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6670,7 +6672,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6691,7 +6693,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6705,10 +6707,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6731,16 +6733,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6790,7 +6792,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6820,15 +6822,15 @@
         <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6851,13 +6853,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6908,7 +6910,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6926,27 +6928,27 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6969,13 +6971,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7026,7 +7028,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7044,27 +7046,27 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7087,13 +7089,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7144,7 +7146,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7162,10 +7164,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7179,10 +7181,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7208,10 +7210,10 @@
         <v>166</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7241,10 +7243,10 @@
         <v>170</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -7262,7 +7264,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7280,16 +7282,16 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7297,10 +7299,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7323,13 +7325,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7380,7 +7382,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7401,7 +7403,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7415,10 +7417,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7447,7 +7449,7 @@
         <v>136</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>138</v>
@@ -7488,19 +7490,19 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7521,7 +7523,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7535,10 +7537,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7561,19 +7563,19 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7622,7 +7624,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7640,10 +7642,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7657,10 +7659,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7683,19 +7685,19 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7744,7 +7746,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7762,10 +7764,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7774,15 +7776,15 @@
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7808,10 +7810,10 @@
         <v>166</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7841,10 +7843,10 @@
         <v>170</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7862,7 +7864,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7880,16 +7882,16 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -7897,10 +7899,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7923,13 +7925,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7980,7 +7982,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7998,10 +8000,10 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8015,10 +8017,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8041,13 +8043,13 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8098,7 +8100,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8113,13 +8115,13 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8133,10 +8135,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8159,13 +8161,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8216,7 +8218,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8237,7 +8239,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8251,10 +8253,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8283,7 +8285,7 @@
         <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>138</v>
@@ -8336,7 +8338,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8357,7 +8359,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8371,14 +8373,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8400,10 +8402,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -8458,7 +8460,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8493,10 +8495,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8522,10 +8524,10 @@
         <v>166</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8555,10 +8557,10 @@
         <v>177</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8576,7 +8578,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8591,13 +8593,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8611,10 +8613,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8637,16 +8639,16 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8696,7 +8698,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8711,16 +8713,16 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8731,10 +8733,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8757,13 +8759,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8814,7 +8816,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8835,7 +8837,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8849,10 +8851,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8881,7 +8883,7 @@
         <v>136</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>138</v>
@@ -8922,19 +8924,19 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8955,7 +8957,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8969,10 +8971,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8995,16 +8997,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9054,7 +9056,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9063,7 +9065,7 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
@@ -9089,10 +9091,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9118,13 +9120,13 @@
         <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9153,10 +9155,10 @@
         <v>177</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9174,7 +9176,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9209,10 +9211,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9238,13 +9240,13 @@
         <v>147</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9294,7 +9296,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9315,7 +9317,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9329,10 +9331,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9355,16 +9357,16 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9414,7 +9416,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9444,15 +9446,15 @@
         <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9475,13 +9477,13 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9532,7 +9534,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9547,13 +9549,13 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9567,10 +9569,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9593,13 +9595,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9650,7 +9652,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9671,7 +9673,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9685,10 +9687,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9717,7 +9719,7 @@
         <v>136</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>138</v>
@@ -9758,19 +9760,19 @@
         <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9791,7 +9793,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9805,10 +9807,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9831,16 +9833,16 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9890,7 +9892,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9911,7 +9913,7 @@
         <v>132</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9925,10 +9927,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9951,13 +9953,13 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10008,7 +10010,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10029,7 +10031,7 @@
         <v>132</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10043,10 +10045,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10069,13 +10071,13 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10126,7 +10128,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>89</v>
@@ -10147,7 +10149,7 @@
         <v>132</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10156,15 +10158,15 @@
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10190,10 +10192,10 @@
         <v>166</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10223,10 +10225,10 @@
         <v>170</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10244,7 +10246,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10259,13 +10261,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10279,10 +10281,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10305,13 +10307,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10362,7 +10364,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10377,7 +10379,7 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
@@ -10397,10 +10399,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10423,23 +10425,23 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>79</v>
@@ -10484,7 +10486,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10502,7 +10504,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>132</v>
@@ -10519,10 +10521,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10548,10 +10550,10 @@
         <v>166</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10581,10 +10583,10 @@
         <v>170</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10602,7 +10604,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10637,10 +10639,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10663,13 +10665,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10720,7 +10722,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10732,7 +10734,7 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10755,10 +10757,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10781,13 +10783,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10838,7 +10840,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10859,7 +10861,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10873,10 +10875,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10905,7 +10907,7 @@
         <v>136</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>138</v>
@@ -10958,7 +10960,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10979,7 +10981,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10993,14 +10995,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11022,10 +11024,10 @@
         <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>138</v>
@@ -11080,7 +11082,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11115,10 +11117,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11141,13 +11143,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11198,7 +11200,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11216,7 +11218,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>132</v>
@@ -11233,10 +11235,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11262,10 +11264,10 @@
         <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11316,7 +11318,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11351,10 +11353,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11377,13 +11379,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11434,7 +11436,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11452,7 +11454,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>132</v>
@@ -11469,10 +11471,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11495,13 +11497,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11552,7 +11554,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11570,7 +11572,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>132</v>
@@ -11587,10 +11589,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11616,10 +11618,10 @@
         <v>166</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11649,10 +11651,10 @@
         <v>170</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11670,7 +11672,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11688,7 +11690,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>132</v>
@@ -11705,10 +11707,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11734,10 +11736,10 @@
         <v>166</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11767,10 +11769,10 @@
         <v>170</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11788,7 +11790,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11823,10 +11825,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11849,16 +11851,16 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11908,7 +11910,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11926,10 +11928,10 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11943,10 +11945,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11969,13 +11971,13 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12026,7 +12028,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12047,7 +12049,7 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12061,10 +12063,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12093,7 +12095,7 @@
         <v>136</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>138</v>
@@ -12146,7 +12148,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12167,7 +12169,7 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12181,14 +12183,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12210,10 +12212,10 @@
         <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>138</v>
@@ -12268,7 +12270,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12303,10 +12305,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12329,13 +12331,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12386,7 +12388,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12404,10 +12406,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12421,10 +12423,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12447,13 +12449,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12504,7 +12506,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12522,10 +12524,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12534,15 +12536,15 @@
         <v>79</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12565,13 +12567,13 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12622,7 +12624,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12640,10 +12642,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12657,10 +12659,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12683,13 +12685,13 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12740,7 +12742,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12775,10 +12777,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12801,13 +12803,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12858,7 +12860,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12879,7 +12881,7 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12893,10 +12895,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12925,7 +12927,7 @@
         <v>136</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>138</v>
@@ -12978,7 +12980,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12999,7 +13001,7 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13013,14 +13015,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13042,10 +13044,10 @@
         <v>135</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>138</v>
@@ -13100,7 +13102,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13135,10 +13137,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13161,13 +13163,13 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13218,7 +13220,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13248,15 +13250,15 @@
         <v>79</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13279,13 +13281,13 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13336,7 +13338,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13371,10 +13373,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13400,10 +13402,10 @@
         <v>166</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13433,10 +13435,10 @@
         <v>170</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>79</v>
@@ -13454,7 +13456,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13489,10 +13491,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13515,16 +13517,16 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13574,7 +13576,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>89</v>
@@ -13609,10 +13611,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13635,16 +13637,16 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13694,7 +13696,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="567">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1-beta</t>
+    <t>0.1.2-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T09:18:04-06:00</t>
+    <t>2023-01-10T07:11:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -289,6 +289,10 @@
     <t>*</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>Immunization event information</t>
   </si>
   <si>
@@ -552,6 +556,9 @@
     <t>FiveWs.status</t>
   </si>
   <si>
+    <t>`completed`</t>
+  </si>
+  <si>
     <t>Immunization.statusReason</t>
   </si>
   <si>
@@ -867,6 +874,9 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Immunization.encounter</t>
   </si>
   <si>
@@ -892,7 +902,7 @@
     <t>FiveWs.context</t>
   </si>
   <si>
-    <t>ImmunizationTO.encounter.[VisitTO]</t>
+    <t>GetEncounter(ImmunizationTO.encounter.[VisitTO])</t>
   </si>
   <si>
     <t>Immunization.occurrence[x]</t>
@@ -976,6 +986,9 @@
   </si>
   <si>
     <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>`false`</t>
   </si>
   <si>
     <t>Immunization.reportOrigin</t>
@@ -1366,7 +1379,7 @@
     <t>Immunization.performer.actor.display</t>
   </si>
   <si>
-    <t>ImmunizationTO.orderedBy.[UserTO]</t>
+    <t>GetPractitioner(ImmunizationTO.orderedBy.[UserTO])</t>
   </si>
   <si>
     <t>Immunization.note</t>
@@ -2311,13 +2324,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2383,13 +2396,13 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2398,15 +2411,15 @@
         <v>79</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2417,7 +2430,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2426,19 +2439,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2488,13 +2501,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2523,10 +2536,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2537,7 +2550,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2546,16 +2559,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2606,19 +2619,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2641,10 +2654,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2655,28 +2668,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2726,19 +2739,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2761,10 +2774,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2775,7 +2788,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2787,16 +2800,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2822,13 +2835,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -2846,19 +2859,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2881,21 +2894,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2907,16 +2920,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2966,19 +2979,19 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2987,7 +3000,7 @@
         <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3001,14 +3014,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3027,16 +3040,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3086,7 +3099,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3107,7 +3120,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3121,14 +3134,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3147,16 +3160,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3206,7 +3219,7 @@
         <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3218,7 +3231,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3227,7 +3240,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -3241,14 +3254,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3261,25 +3274,25 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>79</v>
@@ -3328,7 +3341,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3340,7 +3353,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3349,7 +3362,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3363,10 +3376,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3374,7 +3387,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>81</v>
@@ -3389,13 +3402,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3446,7 +3459,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3458,33 +3471,33 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3492,31 +3505,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3527,7 +3540,7 @@
         <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>79</v>
@@ -3542,11 +3555,11 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3564,45 +3577,45 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3616,7 +3629,7 @@
         <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
@@ -3625,16 +3638,16 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3660,11 +3673,11 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3682,28 +3695,28 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3717,10 +3730,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3728,28 +3741,28 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3776,11 +3789,11 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3798,34 +3811,34 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -3833,10 +3846,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3847,7 +3860,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3859,13 +3872,13 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3916,13 +3929,13 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
@@ -3937,7 +3950,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3951,14 +3964,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3977,16 +3990,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4024,19 +4037,19 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4048,7 +4061,7 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -4057,7 +4070,7 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4071,10 +4084,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4094,22 +4107,22 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -4158,7 +4171,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4170,16 +4183,16 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4193,10 +4206,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4207,7 +4220,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -4219,13 +4232,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4276,13 +4289,13 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -4297,7 +4310,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4311,14 +4324,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4337,16 +4350,16 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4384,19 +4397,19 @@
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4408,7 +4421,7 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4417,7 +4430,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4431,10 +4444,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4445,7 +4458,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4454,22 +4467,22 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4518,28 +4531,28 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4553,10 +4566,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4567,7 +4580,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4576,19 +4589,19 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4638,28 +4651,28 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4673,10 +4686,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4687,7 +4700,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4696,20 +4709,20 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4758,28 +4771,28 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4788,15 +4801,15 @@
         <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4807,7 +4820,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4816,20 +4829,20 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4878,28 +4891,28 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4908,15 +4921,15 @@
         <v>79</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4927,7 +4940,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4936,22 +4949,22 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -5000,28 +5013,28 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5035,10 +5048,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5049,7 +5062,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -5058,22 +5071,22 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5122,28 +5135,28 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5152,44 +5165,44 @@
         <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5240,45 +5253,45 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5301,13 +5314,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5358,45 +5371,45 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5404,31 +5417,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5466,44 +5479,44 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5511,44 +5524,44 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5598,45 +5611,45 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5644,10 +5657,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5659,13 +5672,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5716,19 +5729,19 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5737,24 +5750,24 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5762,31 +5775,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5836,45 +5849,45 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5897,16 +5910,16 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5932,55 +5945,55 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5991,10 +6004,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6017,13 +6030,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6074,31 +6087,31 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6109,10 +6122,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6123,7 +6136,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6135,13 +6148,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6192,13 +6205,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -6213,7 +6226,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6227,14 +6240,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6253,16 +6266,16 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6300,19 +6313,19 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6324,7 +6337,7 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6333,7 +6346,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6347,10 +6360,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6361,7 +6374,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6370,19 +6383,19 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6432,19 +6445,19 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6453,7 +6466,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6467,10 +6480,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6481,7 +6494,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6490,19 +6503,19 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6528,13 +6541,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6552,19 +6565,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6573,7 +6586,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6587,10 +6600,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6601,7 +6614,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6610,19 +6623,19 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6672,19 +6685,19 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6693,7 +6706,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6707,10 +6720,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6721,7 +6734,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6730,19 +6743,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6792,19 +6805,19 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6813,7 +6826,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6822,15 +6835,15 @@
         <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6853,13 +6866,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6910,45 +6923,45 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6971,13 +6984,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7028,45 +7041,45 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7089,13 +7102,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7146,28 +7159,28 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7181,10 +7194,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7207,13 +7220,13 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7240,58 +7253,58 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Z43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7299,10 +7312,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7313,7 +7326,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7325,13 +7338,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7382,13 +7395,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7403,7 +7416,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7417,14 +7430,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7443,16 +7456,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7490,19 +7503,19 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7514,7 +7527,7 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7523,7 +7536,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7537,10 +7550,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7560,22 +7573,22 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7624,7 +7637,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7636,16 +7649,16 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7659,10 +7672,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7673,7 +7686,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7682,22 +7695,22 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7746,28 +7759,28 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7776,15 +7789,15 @@
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7807,13 +7820,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7840,58 +7853,58 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Z48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AA48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -7899,10 +7912,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7925,13 +7938,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7982,28 +7995,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8017,10 +8030,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8040,16 +8053,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8100,7 +8113,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8112,16 +8125,16 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8135,10 +8148,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8149,7 +8162,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8161,13 +8174,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8218,13 +8231,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -8239,7 +8252,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8253,14 +8266,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8279,16 +8292,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8338,7 +8351,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8350,7 +8363,7 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8359,7 +8372,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8373,14 +8386,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8393,25 +8406,25 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8460,7 +8473,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8472,7 +8485,7 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8481,7 +8494,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8495,10 +8508,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8509,7 +8522,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8518,16 +8531,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8554,52 +8567,52 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Z54" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8613,10 +8626,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8624,10 +8637,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8636,19 +8649,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8698,31 +8711,31 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8733,10 +8746,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8747,7 +8760,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8759,13 +8772,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8816,13 +8829,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8837,7 +8850,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8851,14 +8864,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8877,16 +8890,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8924,19 +8937,19 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8948,7 +8961,7 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8957,7 +8970,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8971,10 +8984,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8985,7 +8998,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8994,19 +9007,19 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9056,19 +9069,19 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -9077,7 +9090,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9091,10 +9104,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9105,7 +9118,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9114,19 +9127,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9152,13 +9165,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9176,19 +9189,19 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9197,7 +9210,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9211,10 +9224,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9225,7 +9238,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9234,19 +9247,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9296,19 +9309,19 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9317,7 +9330,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9331,10 +9344,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9345,7 +9358,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9354,19 +9367,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9416,19 +9429,19 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9437,7 +9450,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9446,15 +9459,15 @@
         <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9465,7 +9478,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9474,16 +9487,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9534,7 +9547,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9546,16 +9559,16 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9569,10 +9582,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9583,7 +9596,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9595,13 +9608,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9652,13 +9665,13 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
@@ -9673,7 +9686,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9687,14 +9700,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9713,16 +9726,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9760,19 +9773,19 @@
         <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9784,7 +9797,7 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9793,7 +9806,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9807,10 +9820,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9821,7 +9834,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9830,19 +9843,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9892,28 +9905,28 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9927,10 +9940,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9941,7 +9954,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9950,16 +9963,16 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10010,28 +10023,28 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10045,10 +10058,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10056,10 +10069,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -10068,16 +10081,16 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10128,28 +10141,28 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10158,15 +10171,15 @@
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10189,13 +10202,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10222,31 +10235,31 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Z68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10258,16 +10271,16 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10281,10 +10294,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10307,13 +10320,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10364,7 +10377,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10376,16 +10389,16 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10399,10 +10412,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10419,95 +10432,95 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="R70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10521,10 +10534,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10547,13 +10560,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10580,31 +10593,31 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Z71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10616,7 +10629,7 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10625,7 +10638,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10639,10 +10652,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10665,13 +10678,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10722,7 +10735,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10734,7 +10747,7 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10743,7 +10756,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10757,10 +10770,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10771,7 +10784,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10783,13 +10796,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10840,13 +10853,13 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -10861,7 +10874,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10875,14 +10888,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10901,16 +10914,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10960,7 +10973,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10972,7 +10985,7 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -10981,7 +10994,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10995,14 +11008,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11015,25 +11028,25 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11082,7 +11095,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11094,7 +11107,7 @@
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11103,7 +11116,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11117,10 +11130,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11131,7 +11144,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11143,13 +11156,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11200,28 +11213,28 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11235,10 +11248,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11249,7 +11262,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11261,13 +11274,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11318,19 +11331,19 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11339,7 +11352,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11353,10 +11366,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11367,7 +11380,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11379,13 +11392,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11436,28 +11449,28 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11471,10 +11484,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11485,7 +11498,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11497,13 +11510,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11554,28 +11567,28 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11589,10 +11602,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11615,13 +11628,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11648,31 +11661,31 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="Z80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11684,16 +11697,16 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11707,10 +11720,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11733,13 +11746,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11766,43 +11779,43 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Z81" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF81" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AA81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11811,7 +11824,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11825,10 +11838,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11851,16 +11864,16 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11910,7 +11923,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11922,16 +11935,16 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11945,10 +11958,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11959,7 +11972,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11971,13 +11984,13 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12028,13 +12041,13 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
@@ -12049,7 +12062,7 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12063,14 +12076,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12089,16 +12102,16 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12148,7 +12161,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12160,7 +12173,7 @@
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -12169,7 +12182,7 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12183,14 +12196,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12203,25 +12216,25 @@
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12270,7 +12283,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12282,7 +12295,7 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -12291,7 +12304,7 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12305,10 +12318,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12319,7 +12332,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12331,13 +12344,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12388,28 +12401,28 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12423,10 +12436,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12437,7 +12450,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12449,13 +12462,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12506,28 +12519,28 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12536,15 +12549,15 @@
         <v>79</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12555,7 +12568,7 @@
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12567,13 +12580,13 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12624,28 +12637,28 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12659,10 +12672,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12685,13 +12698,13 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12742,7 +12755,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12754,7 +12767,7 @@
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
@@ -12763,7 +12776,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12777,10 +12790,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12791,7 +12804,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12803,13 +12816,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12860,13 +12873,13 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>79</v>
@@ -12881,7 +12894,7 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12895,14 +12908,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12921,16 +12934,16 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12980,7 +12993,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12992,7 +13005,7 @@
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -13001,7 +13014,7 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13015,14 +13028,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13035,25 +13048,25 @@
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13102,7 +13115,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13114,7 +13127,7 @@
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
@@ -13123,7 +13136,7 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13137,10 +13150,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13151,7 +13164,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -13163,13 +13176,13 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13220,19 +13233,19 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
@@ -13241,7 +13254,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13250,15 +13263,15 @@
         <v>79</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13269,7 +13282,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
@@ -13281,13 +13294,13 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13338,19 +13351,19 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13359,7 +13372,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13373,10 +13386,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13399,13 +13412,13 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13432,31 +13445,31 @@
         <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="Z95" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF95" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13468,7 +13481,7 @@
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
@@ -13477,7 +13490,7 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13491,10 +13504,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13502,10 +13515,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13517,16 +13530,16 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13576,19 +13589,19 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
@@ -13597,7 +13610,7 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13611,10 +13624,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13625,7 +13638,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13637,16 +13650,16 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13696,19 +13709,19 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
@@ -13717,7 +13730,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="566">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2-beta</t>
+    <t>0.1.3-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T08:15:50-06:00</t>
+    <t>2023-01-11T06:10:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Immunization event information</t>
   </si>
   <si>
-    <t>The US Core Immunization Profile is based upon the core FHIR Immunization Resource and created to meet the 2015 Edition Common Clinical Data Set 'Immunizations' requirements.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>Event</t>
@@ -602,12 +602,8 @@
     <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1010.6</t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-1
+    <t xml:space="preserve">us-core-5
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:SHOULD have a translation to the NDC value set {coding.where(system='http://hl7.org/fhir/sid/ndc').empty()}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2332,7 +2328,9 @@
       <c r="M2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>79</v>
@@ -3823,22 +3821,22 @@
         <v>181</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -3846,10 +3844,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3872,13 +3870,13 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3929,7 +3927,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3950,7 +3948,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3964,10 +3962,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3996,7 +3994,7 @@
         <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>139</v>
@@ -4037,19 +4035,19 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AC16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4070,7 +4068,7 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4084,10 +4082,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4110,19 +4108,19 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -4171,7 +4169,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4189,10 +4187,10 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4206,10 +4204,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4232,13 +4230,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4289,7 +4287,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4310,7 +4308,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4324,10 +4322,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4356,7 +4354,7 @@
         <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>139</v>
@@ -4397,19 +4395,19 @@
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AC19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AC19" t="s" s="2">
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4430,7 +4428,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4444,10 +4442,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4473,16 +4471,16 @@
         <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4531,7 +4529,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4549,10 +4547,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4566,10 +4564,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4592,16 +4590,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4651,7 +4649,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4669,10 +4667,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4686,10 +4684,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4715,14 +4713,14 @@
         <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4771,7 +4769,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4789,27 +4787,27 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4832,17 +4830,17 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4891,7 +4889,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4909,27 +4907,27 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4952,19 +4950,19 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -5013,7 +5011,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5031,10 +5029,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5048,10 +5046,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5074,19 +5072,19 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5135,7 +5133,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5153,31 +5151,31 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5196,13 +5194,13 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5253,7 +5251,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -5268,30 +5266,30 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5314,13 +5312,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5371,7 +5369,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5386,30 +5384,30 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5432,16 +5430,16 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5479,17 +5477,17 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>90</v>
@@ -5504,19 +5502,19 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5524,13 +5522,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>79</v>
@@ -5552,16 +5550,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5611,7 +5609,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>90</v>
@@ -5626,30 +5624,30 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AO29" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AP29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5672,13 +5670,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5729,7 +5727,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5750,24 +5748,24 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AN30" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5790,16 +5788,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5849,7 +5847,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5867,27 +5865,27 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5913,13 +5911,13 @@
         <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5948,11 +5946,11 @@
         <v>172</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5969,7 +5967,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5987,13 +5985,13 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6004,10 +6002,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6030,13 +6028,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6087,7 +6085,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6102,16 +6100,16 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6122,10 +6120,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6148,13 +6146,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6205,7 +6203,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6226,7 +6224,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6240,10 +6238,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6272,7 +6270,7 @@
         <v>137</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>139</v>
@@ -6313,19 +6311,19 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AC35" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AC35" t="s" s="2">
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6346,7 +6344,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6360,10 +6358,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6386,16 +6384,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6445,7 +6443,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6454,7 +6452,7 @@
         <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>102</v>
@@ -6480,10 +6478,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6509,13 +6507,13 @@
         <v>104</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6544,28 +6542,28 @@
         <v>179</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6600,10 +6598,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6629,13 +6627,13 @@
         <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6685,7 +6683,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6706,7 +6704,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6720,10 +6718,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6746,16 +6744,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6805,7 +6803,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6835,15 +6833,15 @@
         <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6866,13 +6864,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6923,7 +6921,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6941,27 +6939,27 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6984,13 +6982,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7041,7 +7039,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7059,27 +7057,27 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AN41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7102,13 +7100,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7159,7 +7157,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7177,10 +7175,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7194,10 +7192,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7223,10 +7221,10 @@
         <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7256,11 +7254,11 @@
         <v>172</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7277,7 +7275,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7295,16 +7293,16 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7312,10 +7310,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7338,13 +7336,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7395,7 +7393,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7416,7 +7414,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7430,10 +7428,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7462,7 +7460,7 @@
         <v>137</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>139</v>
@@ -7503,19 +7501,19 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AC45" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AC45" t="s" s="2">
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
+      <c r="AF45" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7536,7 +7534,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7550,10 +7548,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7576,19 +7574,19 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7637,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7655,10 +7653,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7672,10 +7670,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7698,19 +7696,19 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7759,7 +7757,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7777,11 +7775,11 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7789,15 +7787,15 @@
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7823,10 +7821,10 @@
         <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7856,11 +7854,11 @@
         <v>172</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7877,7 +7875,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7895,16 +7893,16 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -7912,10 +7910,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7938,13 +7936,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7995,7 +7993,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8013,10 +8011,10 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8030,10 +8028,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8056,13 +8054,13 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8113,7 +8111,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8128,13 +8126,13 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8148,10 +8146,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8174,13 +8172,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8231,7 +8229,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8252,7 +8250,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8266,10 +8264,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8298,7 +8296,7 @@
         <v>137</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>139</v>
@@ -8351,7 +8349,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8372,7 +8370,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8386,14 +8384,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8415,10 +8413,10 @@
         <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>139</v>
@@ -8473,7 +8471,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8508,10 +8506,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8537,10 +8535,10 @@
         <v>168</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8570,11 +8568,11 @@
         <v>179</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8591,7 +8589,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8606,13 +8604,13 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8626,10 +8624,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8652,16 +8650,16 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8711,7 +8709,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>90</v>
@@ -8726,16 +8724,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8746,10 +8744,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8772,13 +8770,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8829,7 +8827,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8850,7 +8848,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8864,10 +8862,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8896,7 +8894,7 @@
         <v>137</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>139</v>
@@ -8937,19 +8935,19 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AC57" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AC57" t="s" s="2">
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8970,7 +8968,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8984,10 +8982,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9010,16 +9008,16 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9069,7 +9067,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9078,7 +9076,7 @@
         <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
@@ -9104,10 +9102,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9133,13 +9131,13 @@
         <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9168,28 +9166,28 @@
         <v>179</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9224,10 +9222,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9253,13 +9251,13 @@
         <v>148</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9309,7 +9307,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9330,7 +9328,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9344,10 +9342,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9370,16 +9368,16 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9429,7 +9427,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9459,15 +9457,15 @@
         <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9490,13 +9488,13 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9547,7 +9545,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9562,13 +9560,13 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9582,10 +9580,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9608,13 +9606,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9665,7 +9663,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9686,7 +9684,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9700,10 +9698,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9732,7 +9730,7 @@
         <v>137</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>139</v>
@@ -9773,19 +9771,19 @@
         <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AC64" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AC64" t="s" s="2">
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
+      <c r="AF64" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9806,7 +9804,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9820,10 +9818,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9846,16 +9844,16 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9905,7 +9903,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9926,7 +9924,7 @@
         <v>133</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9940,10 +9938,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9966,13 +9964,13 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10023,7 +10021,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10044,7 +10042,7 @@
         <v>133</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10058,10 +10056,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10084,13 +10082,13 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10141,7 +10139,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>90</v>
@@ -10162,24 +10160,24 @@
         <v>133</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP67" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10205,10 +10203,10 @@
         <v>168</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10238,11 +10236,11 @@
         <v>172</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10259,7 +10257,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10274,13 +10272,13 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10294,10 +10292,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10320,13 +10318,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10377,7 +10375,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10392,7 +10390,7 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
@@ -10412,10 +10410,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10438,23 +10436,23 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q70" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>79</v>
@@ -10499,7 +10497,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10517,7 +10515,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>133</v>
@@ -10534,10 +10532,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10563,10 +10561,10 @@
         <v>168</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10596,11 +10594,11 @@
         <v>172</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10617,7 +10615,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10652,10 +10650,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10678,13 +10676,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10735,7 +10733,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10747,7 +10745,7 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10770,10 +10768,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10796,13 +10794,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10853,7 +10851,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10874,7 +10872,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10888,10 +10886,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10920,7 +10918,7 @@
         <v>137</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>139</v>
@@ -10973,7 +10971,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10994,7 +10992,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11008,14 +11006,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11037,10 +11035,10 @@
         <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>139</v>
@@ -11095,7 +11093,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11130,10 +11128,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11156,13 +11154,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11213,7 +11211,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11231,7 +11229,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>133</v>
@@ -11248,10 +11246,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11277,10 +11275,10 @@
         <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11331,7 +11329,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11366,10 +11364,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11392,13 +11390,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11449,7 +11447,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11467,7 +11465,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>133</v>
@@ -11484,10 +11482,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11510,13 +11508,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11567,7 +11565,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11585,7 +11583,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>133</v>
@@ -11602,10 +11600,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11631,10 +11629,10 @@
         <v>168</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11664,11 +11662,11 @@
         <v>172</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11685,7 +11683,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11703,7 +11701,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>133</v>
@@ -11720,10 +11718,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11749,10 +11747,10 @@
         <v>168</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11782,11 +11780,11 @@
         <v>172</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11803,7 +11801,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11838,10 +11836,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11864,16 +11862,16 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11923,7 +11921,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11941,10 +11939,10 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11958,10 +11956,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11984,13 +11982,13 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12041,7 +12039,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12062,7 +12060,7 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12076,10 +12074,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12108,7 +12106,7 @@
         <v>137</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>139</v>
@@ -12161,7 +12159,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12182,7 +12180,7 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12196,14 +12194,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12225,10 +12223,10 @@
         <v>136</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>139</v>
@@ -12283,7 +12281,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12318,10 +12316,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12344,13 +12342,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12401,7 +12399,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12419,10 +12417,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12436,10 +12434,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12462,13 +12460,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12519,7 +12517,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12537,27 +12535,27 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP87" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12580,13 +12578,13 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12637,7 +12635,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12655,10 +12653,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12672,10 +12670,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12698,13 +12696,13 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12755,7 +12753,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12790,10 +12788,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12816,13 +12814,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12873,7 +12871,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12894,7 +12892,7 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12908,10 +12906,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12940,7 +12938,7 @@
         <v>137</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>139</v>
@@ -12993,7 +12991,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13014,7 +13012,7 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13028,14 +13026,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13057,10 +13055,10 @@
         <v>136</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>139</v>
@@ -13115,7 +13113,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13150,10 +13148,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13176,13 +13174,13 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13233,7 +13231,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13263,15 +13261,15 @@
         <v>79</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13294,13 +13292,13 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13351,7 +13349,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13386,10 +13384,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13415,10 +13413,10 @@
         <v>168</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13448,11 +13446,11 @@
         <v>172</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13469,7 +13467,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13504,10 +13502,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13530,16 +13528,16 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13589,7 +13587,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>90</v>
@@ -13624,10 +13622,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13650,16 +13648,16 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>566</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13709,7 +13707,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$106</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="628">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T06:10:13-06:00</t>
+    <t>2023-02-02T16:50:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -511,6 +511,13 @@
     <t>A unique identifier assigned to this immunization record.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -526,46 +533,266 @@
     <t>ImmunizationTO.id</t>
   </si>
   <si>
-    <t>Immunization.status</t>
-  </si>
-  <si>
-    <t>completed | entered-in-error | not-done</t>
-  </si>
-  <si>
-    <t>Indicates the current status of the immunization event.</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>completed</t>
+    <t>Immunization.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>Immunization.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>Immunization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Immunization.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>Immunization.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>Immunization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`completed`</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Immunization.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>Immunization.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Immunization.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>Immunization.identifier.system</t>
+  </si>
+  <si>
+    <t>system for given Vista site and ImmunizationTO.id</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Immunization.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>Immunization.identifier.value</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Immunization.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>Immunization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Immunization.identifier:TOid.assigner</t>
+  </si>
+  <si>
+    <t>Immunization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>Immunization.status</t>
+  </si>
+  <si>
+    <t>completed | entered-in-error | not-done</t>
+  </si>
+  <si>
+    <t>Indicates the current status of the immunization event.</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>`completed`</t>
+  </si>
+  <si>
+    <t>Immunization.statusReason</t>
+  </si>
+  <si>
     <t>Reason not done</t>
   </si>
   <si>
@@ -594,9 +821,6 @@
   </si>
   <si>
     <t>Vaccine that was administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1010.6</t>
@@ -624,39 +848,7 @@
     <t>Immunization.vaccineCode.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Immunization.vaccineCode.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.coding</t>
@@ -1120,10 +1312,6 @@
   </si>
   <si>
     <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Vaccine manufacturer</t>
@@ -2112,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP97"/>
+  <dimension ref="A1:AP106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2140,12 +2328,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="61.01953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -3445,16 +3633,14 @@
         <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>147</v>
@@ -3472,32 +3658,34 @@
         <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3509,26 +3697,24 @@
         <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -3538,7 +3724,7 @@
         <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>79</v>
@@ -3553,11 +3739,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3575,13 +3763,13 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -3590,30 +3778,30 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3624,10 +3812,10 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
@@ -3636,17 +3824,15 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3671,11 +3857,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3693,7 +3881,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3705,16 +3893,16 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3728,41 +3916,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3787,56 +3977,58 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -3844,10 +4036,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3855,7 +4047,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>90</v>
@@ -3864,22 +4056,26 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3888,7 +4084,7 @@
         <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>79</v>
@@ -3903,13 +4099,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3927,7 +4123,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3939,16 +4135,16 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3962,21 +4158,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3985,21 +4181,23 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4023,52 +4221,52 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4082,10 +4280,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4096,7 +4294,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4108,19 +4306,19 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -4133,7 +4331,7 @@
         <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>79</v>
@@ -4169,13 +4367,13 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
@@ -4187,10 +4385,10 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4204,7 +4402,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>208</v>
@@ -4227,18 +4425,20 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4251,7 +4451,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -4287,7 +4487,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4299,16 +4499,16 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4322,21 +4522,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4345,20 +4545,18 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4395,40 +4593,40 @@
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4442,10 +4640,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4468,20 +4666,18 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4529,7 +4725,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4547,10 +4743,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4564,10 +4760,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4575,31 +4771,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4610,7 +4806,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4625,13 +4821,11 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4649,10 +4843,10 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>90</v>
@@ -4664,30 +4858,30 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4698,30 +4892,30 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4745,13 +4939,11 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4769,7 +4961,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4784,13 +4976,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4799,15 +4991,15 @@
         <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4815,13 +5007,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>79</v>
@@ -4830,18 +5022,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4865,13 +5055,11 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4889,45 +5077,45 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4947,23 +5135,19 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5011,7 +5195,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5023,16 +5207,16 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5046,21 +5230,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -5069,23 +5253,21 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5121,40 +5303,40 @@
         <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5163,29 +5345,29 @@
         <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
@@ -5194,16 +5376,20 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5251,13 +5437,13 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -5266,30 +5452,30 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5300,7 +5486,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5312,13 +5498,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5369,7 +5555,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5381,65 +5567,65 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5477,44 +5663,46 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5522,26 +5710,24 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
@@ -5550,18 +5736,20 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5612,7 +5800,7 @@
         <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>90</v>
@@ -5624,30 +5812,30 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5655,7 +5843,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -5667,18 +5855,20 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5727,7 +5917,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5745,27 +5935,27 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5773,13 +5963,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
@@ -5788,18 +5978,18 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5808,7 +5998,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5847,7 +6037,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5865,27 +6055,27 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5896,7 +6086,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5905,21 +6095,21 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5943,13 +6133,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5967,7 +6157,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5985,27 +6175,27 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM32" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6016,7 +6206,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6025,19 +6215,23 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6085,7 +6279,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6100,16 +6294,16 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6120,10 +6314,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6143,19 +6337,23 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6203,7 +6401,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6215,16 +6413,16 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6233,7 +6431,7 @@
         <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -6245,36 +6443,34 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6311,57 +6507,57 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>192</v>
+        <v>329</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6372,7 +6568,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6381,20 +6577,18 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6443,7 +6637,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6452,36 +6646,36 @@
         <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6489,13 +6683,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6504,16 +6698,16 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6539,34 +6733,32 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>90</v>
@@ -6578,19 +6770,19 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6598,24 +6790,26 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>79</v>
@@ -6624,16 +6818,16 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>148</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6683,10 +6877,10 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
@@ -6698,30 +6892,30 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6729,7 +6923,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6741,20 +6935,18 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>188</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6803,7 +6995,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6824,24 +7016,24 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6849,30 +7041,32 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6882,7 +7076,7 @@
         <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>79</v>
@@ -6921,7 +7115,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6939,27 +7133,27 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6982,15 +7176,17 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7015,13 +7211,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7039,7 +7235,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7057,27 +7253,27 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7100,13 +7296,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7157,7 +7353,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7172,16 +7368,16 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7192,10 +7388,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7206,7 +7402,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7218,13 +7414,13 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
+        <v>164</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7251,13 +7447,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7471,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>369</v>
+        <v>165</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7287,22 +7483,22 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>375</v>
+        <v>166</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7310,21 +7506,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7336,15 +7532,17 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7381,31 +7579,31 @@
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7414,7 +7612,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7428,21 +7626,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7451,19 +7649,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>139</v>
+        <v>389</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7501,31 +7699,31 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>198</v>
+        <v>390</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7534,7 +7732,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7548,10 +7746,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7562,7 +7760,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7574,20 +7772,18 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>201</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>202</v>
+        <v>394</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7611,13 +7807,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7635,13 +7831,13 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>205</v>
+        <v>398</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
@@ -7653,10 +7849,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7670,10 +7866,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7696,20 +7892,18 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7757,7 +7951,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>255</v>
+        <v>403</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7775,10 +7969,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7787,15 +7981,15 @@
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7806,7 +8000,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7815,18 +8009,20 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7851,13 +8047,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7875,7 +8071,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7893,27 +8089,27 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>388</v>
+        <v>133</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7936,13 +8132,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>391</v>
+        <v>225</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7993,7 +8189,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8011,27 +8207,27 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8051,16 +8247,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>162</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8111,13 +8307,13 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
@@ -8126,30 +8322,30 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8160,7 +8356,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8172,13 +8368,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>188</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>189</v>
+        <v>427</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>190</v>
+        <v>428</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8229,7 +8425,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>191</v>
+        <v>425</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8241,16 +8437,16 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>192</v>
+        <v>430</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8264,21 +8460,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8290,17 +8486,15 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>137</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8325,13 +8519,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8349,34 +8543,34 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>192</v>
+        <v>437</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8384,46 +8578,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
+        <v>163</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8471,19 +8661,19 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>409</v>
+        <v>165</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8492,7 +8682,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8506,21 +8696,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8529,18 +8719,20 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>137</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8565,52 +8757,52 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>416</v>
+        <v>166</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8624,10 +8816,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8635,10 +8827,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8650,18 +8842,20 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>264</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>265</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8709,13 +8903,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>417</v>
+        <v>268</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8724,16 +8918,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>423</v>
+        <v>270</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8744,10 +8938,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8767,19 +8961,23 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8827,7 +9025,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8839,16 +9037,16 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8857,26 +9055,26 @@
         <v>79</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8888,17 +9086,15 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>137</v>
+        <v>445</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8923,58 +9119,58 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>198</v>
+        <v>444</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>192</v>
+        <v>450</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -8982,10 +9178,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8996,7 +9192,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9005,20 +9201,18 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>453</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>324</v>
+        <v>454</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9067,7 +9261,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>327</v>
+        <v>452</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9076,7 +9270,7 @@
         <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
@@ -9085,10 +9279,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9102,10 +9296,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9116,7 +9310,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9128,17 +9322,15 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>104</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9163,13 +9355,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9187,13 +9379,13 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>335</v>
+        <v>458</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -9202,13 +9394,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>133</v>
+        <v>464</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9222,10 +9414,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9245,20 +9437,18 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9307,7 +9497,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9319,7 +9509,7 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9328,7 +9518,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9342,21 +9532,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9365,19 +9555,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>343</v>
+        <v>137</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9427,19 +9617,19 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9448,7 +9638,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9457,47 +9647,51 @@
         <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>433</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9545,7 +9739,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9557,16 +9751,16 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>438</v>
+        <v>133</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9580,10 +9774,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9603,16 +9797,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>189</v>
+        <v>473</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>190</v>
+        <v>474</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9639,13 +9833,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9663,7 +9857,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>191</v>
+        <v>472</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9675,16 +9869,16 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>192</v>
+        <v>478</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9698,21 +9892,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9721,19 +9915,19 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>136</v>
+        <v>480</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>137</v>
+        <v>481</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>194</v>
+        <v>482</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>139</v>
+        <v>483</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9771,43 +9965,43 @@
         <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>198</v>
+        <v>479</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9818,10 +10012,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9841,20 +10035,18 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>442</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9903,7 +10095,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>446</v>
+        <v>165</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9915,16 +10107,16 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>447</v>
+        <v>166</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9938,21 +10130,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9961,18 +10153,20 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>449</v>
+        <v>137</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10009,40 +10203,40 @@
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>451</v>
+        <v>172</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>452</v>
+        <v>166</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10056,10 +10250,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10067,7 +10261,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -10082,15 +10276,17 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>454</v>
+        <v>162</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10139,16 +10335,16 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
@@ -10157,11 +10353,11 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM67" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10169,15 +10365,15 @@
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10188,7 +10384,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10197,18 +10393,20 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10233,13 +10431,13 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>463</v>
+        <v>396</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10257,13 +10455,13 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
@@ -10272,13 +10470,13 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>466</v>
+        <v>133</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10292,10 +10490,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10306,7 +10504,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10315,18 +10513,20 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>468</v>
+        <v>148</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10375,13 +10575,13 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
@@ -10390,13 +10590,13 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>133</v>
+        <v>404</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10410,10 +10610,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10424,36 +10624,34 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>472</v>
+        <v>406</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q70" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10497,7 +10695,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10515,7 +10713,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>133</v>
@@ -10527,15 +10725,15 @@
         <v>79</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10546,7 +10744,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10555,16 +10753,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>168</v>
+        <v>495</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10591,13 +10789,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10615,7 +10813,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10630,13 +10828,13 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>133</v>
+        <v>500</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10650,10 +10848,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10664,7 +10862,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10676,13 +10874,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>397</v>
+        <v>162</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>483</v>
+        <v>163</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>484</v>
+        <v>164</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10733,19 +10931,19 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>482</v>
+        <v>165</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10754,7 +10952,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10768,21 +10966,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10794,15 +10992,17 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10839,31 +11039,31 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10872,7 +11072,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10886,21 +11086,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10909,19 +11109,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>194</v>
+        <v>506</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>139</v>
+        <v>507</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10971,28 +11171,28 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>192</v>
+        <v>509</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11006,46 +11206,42 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>136</v>
+        <v>342</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>407</v>
+        <v>511</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11093,28 +11289,28 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>409</v>
+        <v>513</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>133</v>
+        <v>514</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11128,10 +11324,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11139,7 +11335,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>90</v>
@@ -11151,16 +11347,16 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>188</v>
+        <v>516</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11211,10 +11407,10 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>90</v>
@@ -11229,10 +11425,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>492</v>
+        <v>133</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>133</v>
+        <v>520</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11241,15 +11437,15 @@
         <v>79</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11260,7 +11456,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11272,13 +11468,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11305,13 +11501,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11329,13 +11525,13 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
@@ -11344,13 +11540,13 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>133</v>
+        <v>528</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11364,10 +11560,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11378,7 +11574,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11390,13 +11586,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>279</v>
+        <v>530</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11447,13 +11643,13 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
@@ -11462,10 +11658,10 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>133</v>
@@ -11482,10 +11678,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11496,32 +11692,36 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="R79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11565,7 +11765,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11583,7 +11783,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>133</v>
@@ -11600,10 +11800,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11614,7 +11814,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11626,13 +11826,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11659,13 +11859,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11683,7 +11883,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11701,7 +11901,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>133</v>
@@ -11718,10 +11918,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11744,13 +11944,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>168</v>
+        <v>459</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11777,13 +11977,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11801,19 +12001,19 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>547</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11836,10 +12036,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11850,7 +12050,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11862,17 +12062,15 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>397</v>
+        <v>162</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>516</v>
+        <v>163</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11921,28 +12119,28 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>515</v>
+        <v>165</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>520</v>
+        <v>166</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11956,21 +12154,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11982,15 +12180,17 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12039,19 +12239,19 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -12060,7 +12260,7 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12074,14 +12274,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>135</v>
+        <v>468</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12094,24 +12294,26 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>137</v>
+        <v>469</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>194</v>
+        <v>470</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12159,7 +12361,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>198</v>
+        <v>471</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12180,7 +12382,7 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12194,46 +12396,42 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>407</v>
+        <v>552</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12281,25 +12479,25 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>409</v>
+        <v>551</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>133</v>
@@ -12316,10 +12514,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12342,13 +12540,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12399,7 +12597,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12417,10 +12615,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12434,10 +12632,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12460,13 +12658,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>529</v>
+        <v>342</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12517,7 +12715,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12535,10 +12733,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>533</v>
+        <v>133</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12547,15 +12745,15 @@
         <v>79</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12578,13 +12776,13 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12635,7 +12833,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12653,10 +12851,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>539</v>
+        <v>133</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12670,10 +12868,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12696,13 +12894,13 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>397</v>
+        <v>187</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12729,13 +12927,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12753,7 +12951,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12771,7 +12969,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>133</v>
@@ -12788,10 +12986,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12802,7 +13000,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12814,13 +13012,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>189</v>
+        <v>573</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>190</v>
+        <v>574</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12847,13 +13045,13 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -12871,7 +13069,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>191</v>
+        <v>572</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12883,7 +13081,7 @@
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
@@ -12892,7 +13090,7 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12906,14 +13104,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12932,16 +13130,16 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>136</v>
+        <v>459</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>137</v>
+        <v>578</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>194</v>
+        <v>579</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>139</v>
+        <v>580</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12991,7 +13189,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>198</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13003,16 +13201,16 @@
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>79</v>
+        <v>581</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>192</v>
+        <v>582</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13026,46 +13224,42 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>407</v>
+        <v>163</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13113,19 +13307,19 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>409</v>
+        <v>165</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
@@ -13134,7 +13328,7 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13148,21 +13342,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -13174,15 +13368,17 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>547</v>
+        <v>137</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13231,19 +13427,19 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>546</v>
+        <v>172</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
@@ -13252,7 +13448,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13261,47 +13457,51 @@
         <v>79</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>551</v>
+        <v>469</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13349,19 +13549,19 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>550</v>
+        <v>471</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13384,10 +13584,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13398,7 +13598,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13410,13 +13610,13 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>168</v>
+        <v>342</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13443,13 +13643,13 @@
         <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>79</v>
@@ -13467,13 +13667,13 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>79</v>
@@ -13485,10 +13685,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13502,10 +13702,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13513,7 +13713,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>90</v>
@@ -13528,17 +13728,15 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -13587,10 +13785,10 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>90</v>
@@ -13605,10 +13803,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>133</v>
+        <v>595</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13617,15 +13815,15 @@
         <v>79</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13648,17 +13846,15 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>79</v>
@@ -13707,7 +13903,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13725,23 +13921,1095 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AN97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP97" t="s" s="2">
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP97">
+  <autoFilter ref="A1:AP106">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13751,7 +15019,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI105">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="629">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -530,7 +530,7 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
   </si>
   <si>
-    <t>ImmunizationTO.id</t>
+    <t>{StationNbr} | `;` | {ImmunizationTO.id}</t>
   </si>
   <si>
     <t>Immunization.identifier:TOid</t>
@@ -659,7 +659,7 @@
     <t>Immunization.identifier.system</t>
   </si>
   <si>
-    <t>system for given Vista site and ImmunizationTO.id</t>
+    <t>The namespace for the identifier value</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -4328,10 +4331,10 @@
         <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>79</v>
@@ -4367,7 +4370,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4385,10 +4388,10 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4402,10 +4405,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4434,10 +4437,10 @@
         <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4451,7 +4454,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -4487,7 +4490,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4505,10 +4508,10 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4522,10 +4525,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4548,13 +4551,13 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4605,7 +4608,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4623,10 +4626,10 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4640,10 +4643,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4666,16 +4669,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4725,7 +4728,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4743,10 +4746,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4760,10 +4763,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4789,13 +4792,13 @@
         <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4806,7 +4809,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4825,7 +4828,7 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4843,7 +4846,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>90</v>
@@ -4858,30 +4861,30 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4907,13 +4910,13 @@
         <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4939,11 +4942,11 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4961,7 +4964,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4976,13 +4979,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4996,10 +4999,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5025,10 +5028,10 @@
         <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5059,7 +5062,7 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -5077,7 +5080,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>90</v>
@@ -5086,25 +5089,25 @@
         <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -5112,10 +5115,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5230,10 +5233,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5350,10 +5353,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5376,19 +5379,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5437,7 +5440,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5455,10 +5458,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5472,10 +5475,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5590,10 +5593,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5710,10 +5713,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5739,16 +5742,16 @@
         <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5797,7 +5800,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5815,10 +5818,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5832,10 +5835,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5861,13 +5864,13 @@
         <v>162</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5917,7 +5920,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5935,10 +5938,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5952,10 +5955,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5981,14 +5984,14 @@
         <v>110</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -6037,7 +6040,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6055,10 +6058,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6067,15 +6070,15 @@
         <v>79</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6101,14 +6104,14 @@
         <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6157,7 +6160,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6175,10 +6178,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6187,15 +6190,15 @@
         <v>79</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6218,19 +6221,19 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -6279,7 +6282,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6297,10 +6300,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6314,10 +6317,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6343,16 +6346,16 @@
         <v>162</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6401,7 +6404,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6419,10 +6422,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6431,19 +6434,19 @@
         <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6462,13 +6465,13 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6519,7 +6522,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>90</v>
@@ -6534,30 +6537,30 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6580,13 +6583,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6637,7 +6640,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6652,30 +6655,30 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6698,16 +6701,16 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6745,17 +6748,17 @@
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>90</v>
@@ -6770,19 +6773,19 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6790,13 +6793,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>79</v>
@@ -6818,16 +6821,16 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6877,7 +6880,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>90</v>
@@ -6892,30 +6895,30 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6938,13 +6941,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6995,7 +6998,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7016,24 +7019,24 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7056,16 +7059,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7115,7 +7118,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7133,27 +7136,27 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7179,13 +7182,13 @@
         <v>187</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7211,13 +7214,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7235,7 +7238,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7253,13 +7256,13 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7270,10 +7273,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7296,13 +7299,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7353,7 +7356,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7368,16 +7371,16 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7388,10 +7391,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7506,10 +7509,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7626,10 +7629,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7655,13 +7658,13 @@
         <v>162</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7711,7 +7714,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7720,7 +7723,7 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>102</v>
@@ -7746,10 +7749,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7775,13 +7778,13 @@
         <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7810,10 +7813,10 @@
         <v>192</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7831,7 +7834,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7866,10 +7869,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7895,13 +7898,13 @@
         <v>148</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7951,7 +7954,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7972,7 +7975,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7986,10 +7989,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8015,13 +8018,13 @@
         <v>162</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8071,7 +8074,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8101,15 +8104,15 @@
         <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8132,13 +8135,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8189,7 +8192,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8207,27 +8210,27 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8253,10 +8256,10 @@
         <v>162</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8307,7 +8310,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8325,27 +8328,27 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8368,13 +8371,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8425,7 +8428,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8443,10 +8446,10 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8460,10 +8463,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8489,10 +8492,10 @@
         <v>187</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8519,13 +8522,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8543,7 +8546,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8561,16 +8564,16 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8578,10 +8581,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8696,10 +8699,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8816,10 +8819,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8842,19 +8845,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8903,7 +8906,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8921,10 +8924,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8938,10 +8941,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8967,16 +8970,16 @@
         <v>162</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -9025,7 +9028,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9043,10 +9046,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9055,15 +9058,15 @@
         <v>79</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9089,10 +9092,10 @@
         <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9119,13 +9122,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -9143,7 +9146,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9161,16 +9164,16 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -9178,10 +9181,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9204,13 +9207,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9261,7 +9264,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9279,10 +9282,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9296,10 +9299,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9322,13 +9325,13 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9379,7 +9382,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9394,13 +9397,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9414,10 +9417,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9532,10 +9535,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9652,14 +9655,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9681,10 +9684,10 @@
         <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>139</v>
@@ -9739,7 +9742,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9774,10 +9777,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9803,10 +9806,10 @@
         <v>187</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9836,10 +9839,10 @@
         <v>192</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9857,7 +9860,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9872,13 +9875,13 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9892,10 +9895,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9918,16 +9921,16 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9977,7 +9980,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>90</v>
@@ -9992,16 +9995,16 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10012,10 +10015,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10130,10 +10133,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10250,10 +10253,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10279,13 +10282,13 @@
         <v>162</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10335,7 +10338,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10344,7 +10347,7 @@
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
@@ -10370,10 +10373,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10399,13 +10402,13 @@
         <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10434,10 +10437,10 @@
         <v>192</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10455,7 +10458,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10490,10 +10493,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10519,13 +10522,13 @@
         <v>148</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10575,7 +10578,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10596,7 +10599,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10610,10 +10613,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10639,13 +10642,13 @@
         <v>162</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10695,7 +10698,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10725,15 +10728,15 @@
         <v>79</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10756,13 +10759,13 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10813,7 +10816,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10828,13 +10831,13 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10848,10 +10851,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10966,10 +10969,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11086,10 +11089,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11112,16 +11115,16 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11171,7 +11174,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11192,7 +11195,7 @@
         <v>133</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11206,10 +11209,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11232,13 +11235,13 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11289,7 +11292,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11310,7 +11313,7 @@
         <v>133</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11324,10 +11327,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11350,13 +11353,13 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11407,7 +11410,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>90</v>
@@ -11428,7 +11431,7 @@
         <v>133</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11437,15 +11440,15 @@
         <v>79</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11471,10 +11474,10 @@
         <v>187</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11501,13 +11504,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11525,7 +11528,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11540,13 +11543,13 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11560,10 +11563,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11586,13 +11589,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11643,7 +11646,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11658,7 +11661,7 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>
@@ -11678,10 +11681,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11704,23 +11707,23 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q79" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>79</v>
@@ -11765,7 +11768,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11783,7 +11786,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>133</v>
@@ -11800,10 +11803,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11829,10 +11832,10 @@
         <v>187</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11859,13 +11862,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11883,7 +11886,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11918,10 +11921,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11944,13 +11947,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12001,7 +12004,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12013,7 +12016,7 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -12036,10 +12039,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12154,10 +12157,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12274,14 +12277,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12303,10 +12306,10 @@
         <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>139</v>
@@ -12361,7 +12364,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12396,10 +12399,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12425,10 +12428,10 @@
         <v>162</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12479,7 +12482,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12497,7 +12500,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>133</v>
@@ -12514,10 +12517,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12543,10 +12546,10 @@
         <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12597,7 +12600,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12632,10 +12635,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12658,13 +12661,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12715,7 +12718,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12733,7 +12736,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>133</v>
@@ -12750,10 +12753,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12776,13 +12779,13 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12833,7 +12836,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12851,7 +12854,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>133</v>
@@ -12868,10 +12871,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12897,10 +12900,10 @@
         <v>187</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12927,13 +12930,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12951,7 +12954,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12969,7 +12972,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>133</v>
@@ -12986,10 +12989,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13015,10 +13018,10 @@
         <v>187</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13045,13 +13048,13 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13069,7 +13072,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13104,10 +13107,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13130,16 +13133,16 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13189,7 +13192,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13207,10 +13210,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13224,10 +13227,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13342,10 +13345,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13462,14 +13465,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13491,10 +13494,10 @@
         <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>139</v>
@@ -13549,7 +13552,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13584,10 +13587,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13610,13 +13613,13 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13667,7 +13670,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13685,10 +13688,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13702,10 +13705,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13728,13 +13731,13 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13785,7 +13788,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13803,10 +13806,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13815,15 +13818,15 @@
         <v>79</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13846,13 +13849,13 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13903,7 +13906,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13921,10 +13924,10 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13938,10 +13941,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13964,13 +13967,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14021,7 +14024,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14056,10 +14059,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14174,10 +14177,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14294,14 +14297,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14323,10 +14326,10 @@
         <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>139</v>
@@ -14381,7 +14384,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14416,10 +14419,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14445,10 +14448,10 @@
         <v>162</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14499,7 +14502,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14529,15 +14532,15 @@
         <v>79</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14560,13 +14563,13 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14617,7 +14620,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14652,10 +14655,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14681,10 +14684,10 @@
         <v>187</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14711,13 +14714,13 @@
         <v>79</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>79</v>
@@ -14735,7 +14738,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14770,10 +14773,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14796,16 +14799,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14855,7 +14858,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>90</v>
@@ -14890,10 +14893,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14916,16 +14919,16 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14975,7 +14978,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -530,7 +530,7 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
   </si>
   <si>
-    <t>{StationNbr} | `;` | {ImmunizationTO.id}</t>
+    <t>{StationNbr} and {ImmunizationTO.id}</t>
   </si>
   <si>
     <t>Immunization.identifier:TOid</t>
@@ -659,7 +659,7 @@
     <t>Immunization.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -671,9 +671,6 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>urn:oid:2.16.840.1.113883.4.349</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -690,6 +687,9 @@
   </si>
   <si>
     <t>Immunization.identifier.value</t>
+  </si>
+  <si>
+    <t>`ImmunizationTO` | `.` | {ImmunizationTO.id}</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -4331,46 +4331,46 @@
         <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="T17" t="s" s="2">
+      <c r="U17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4388,10 +4388,10 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4434,7 +4434,7 @@
         <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>210</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -675,6 +675,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>CX.4 / EI-2-4</t>
@@ -4382,16 +4386,16 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4405,10 +4409,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4434,13 +4438,13 @@
         <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4454,7 +4458,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -4490,7 +4494,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4508,10 +4512,10 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4525,10 +4529,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4551,13 +4555,13 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4608,7 +4612,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4626,10 +4630,10 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4643,10 +4647,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4669,16 +4673,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4728,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4746,10 +4750,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4763,10 +4767,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4792,13 +4796,13 @@
         <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4809,7 +4813,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4828,7 +4832,7 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4846,7 +4850,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>90</v>
@@ -4861,30 +4865,30 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4910,13 +4914,13 @@
         <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4942,11 +4946,11 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4964,7 +4968,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4979,13 +4983,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4999,10 +5003,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5028,10 +5032,10 @@
         <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5062,7 +5066,7 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -5080,7 +5084,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>90</v>
@@ -5089,25 +5093,25 @@
         <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -5115,10 +5119,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5233,10 +5237,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5353,10 +5357,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5379,19 +5383,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5440,7 +5444,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5458,10 +5462,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5475,10 +5479,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5593,10 +5597,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5713,10 +5717,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5742,16 +5746,16 @@
         <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5800,7 +5804,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5818,10 +5822,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5835,10 +5839,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5864,13 +5868,13 @@
         <v>162</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5920,7 +5924,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5938,10 +5942,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5955,10 +5959,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5984,14 +5988,14 @@
         <v>110</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -6040,7 +6044,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6058,10 +6062,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6070,15 +6074,15 @@
         <v>79</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6104,14 +6108,14 @@
         <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6160,7 +6164,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6178,10 +6182,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6190,15 +6194,15 @@
         <v>79</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6221,19 +6225,19 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -6282,7 +6286,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6300,10 +6304,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6317,10 +6321,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6346,16 +6350,16 @@
         <v>162</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6404,7 +6408,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6422,10 +6426,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6434,19 +6438,19 @@
         <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6465,13 +6469,13 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6522,7 +6526,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>90</v>
@@ -6537,30 +6541,30 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6583,13 +6587,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6640,7 +6644,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6655,30 +6659,30 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6701,16 +6705,16 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6748,17 +6752,17 @@
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>90</v>
@@ -6773,19 +6777,19 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6793,13 +6797,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>79</v>
@@ -6821,16 +6825,16 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6880,7 +6884,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>90</v>
@@ -6895,30 +6899,30 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6941,13 +6945,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6998,7 +7002,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7019,24 +7023,24 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7059,16 +7063,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7118,7 +7122,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7136,27 +7140,27 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7182,13 +7186,13 @@
         <v>187</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7214,13 +7218,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7238,7 +7242,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7256,13 +7260,13 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7273,10 +7277,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7299,13 +7303,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7356,7 +7360,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7371,16 +7375,16 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7391,10 +7395,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7509,10 +7513,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7629,10 +7633,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7658,13 +7662,13 @@
         <v>162</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7714,7 +7718,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7723,7 +7727,7 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>102</v>
@@ -7749,10 +7753,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7778,13 +7782,13 @@
         <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7813,10 +7817,10 @@
         <v>192</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7834,7 +7838,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7869,10 +7873,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7898,13 +7902,13 @@
         <v>148</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7954,7 +7958,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7975,7 +7979,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7989,10 +7993,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8018,13 +8022,13 @@
         <v>162</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8074,7 +8078,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8104,15 +8108,15 @@
         <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8135,13 +8139,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8192,7 +8196,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8210,27 +8214,27 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8256,10 +8260,10 @@
         <v>162</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8310,7 +8314,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8328,27 +8332,27 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8371,13 +8375,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8428,7 +8432,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8446,10 +8450,10 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8463,10 +8467,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8492,10 +8496,10 @@
         <v>187</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8522,13 +8526,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8546,7 +8550,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8564,16 +8568,16 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8581,10 +8585,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8699,10 +8703,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8819,10 +8823,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8845,19 +8849,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8906,7 +8910,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8924,10 +8928,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8941,10 +8945,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8970,16 +8974,16 @@
         <v>162</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -9028,7 +9032,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9046,10 +9050,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9058,15 +9062,15 @@
         <v>79</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9092,10 +9096,10 @@
         <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9122,13 +9126,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -9146,7 +9150,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9164,16 +9168,16 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -9181,10 +9185,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9207,13 +9211,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9264,7 +9268,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9282,10 +9286,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9299,10 +9303,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9325,13 +9329,13 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9382,7 +9386,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9397,13 +9401,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9417,10 +9421,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9535,10 +9539,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9655,14 +9659,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9684,10 +9688,10 @@
         <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>139</v>
@@ -9742,7 +9746,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9777,10 +9781,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9806,10 +9810,10 @@
         <v>187</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9839,10 +9843,10 @@
         <v>192</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9860,7 +9864,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9875,13 +9879,13 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9895,10 +9899,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9921,16 +9925,16 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9980,7 +9984,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>90</v>
@@ -9995,16 +9999,16 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10015,10 +10019,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10133,10 +10137,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10253,10 +10257,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10282,13 +10286,13 @@
         <v>162</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10338,7 +10342,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10347,7 +10351,7 @@
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
@@ -10373,10 +10377,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10402,13 +10406,13 @@
         <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10437,10 +10441,10 @@
         <v>192</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10458,7 +10462,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10493,10 +10497,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10522,13 +10526,13 @@
         <v>148</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10578,7 +10582,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10599,7 +10603,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10613,10 +10617,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10642,13 +10646,13 @@
         <v>162</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10698,7 +10702,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10728,15 +10732,15 @@
         <v>79</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10759,13 +10763,13 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10816,7 +10820,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10831,13 +10835,13 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10851,10 +10855,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10969,10 +10973,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11089,10 +11093,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11115,16 +11119,16 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11174,7 +11178,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11195,7 +11199,7 @@
         <v>133</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11209,10 +11213,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11235,13 +11239,13 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11292,7 +11296,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11313,7 +11317,7 @@
         <v>133</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11327,10 +11331,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11353,13 +11357,13 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11410,7 +11414,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>90</v>
@@ -11431,7 +11435,7 @@
         <v>133</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11440,15 +11444,15 @@
         <v>79</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11474,10 +11478,10 @@
         <v>187</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11504,13 +11508,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11528,7 +11532,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11543,13 +11547,13 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11563,10 +11567,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11589,13 +11593,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11646,7 +11650,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11661,7 +11665,7 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>
@@ -11681,10 +11685,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11707,23 +11711,23 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q79" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>79</v>
@@ -11768,7 +11772,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11786,7 +11790,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>133</v>
@@ -11803,10 +11807,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11832,10 +11836,10 @@
         <v>187</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11862,13 +11866,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11886,7 +11890,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11921,10 +11925,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11947,13 +11951,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12004,7 +12008,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12016,7 +12020,7 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -12039,10 +12043,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12157,10 +12161,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12277,14 +12281,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12306,10 +12310,10 @@
         <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>139</v>
@@ -12364,7 +12368,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12399,10 +12403,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12428,10 +12432,10 @@
         <v>162</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12482,7 +12486,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12500,7 +12504,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>133</v>
@@ -12517,10 +12521,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12546,10 +12550,10 @@
         <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12600,7 +12604,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12635,10 +12639,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12661,13 +12665,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12718,7 +12722,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12736,7 +12740,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>133</v>
@@ -12753,10 +12757,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12779,13 +12783,13 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12836,7 +12840,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12854,7 +12858,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>133</v>
@@ -12871,10 +12875,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12900,10 +12904,10 @@
         <v>187</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12930,13 +12934,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12954,7 +12958,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12972,7 +12976,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>133</v>
@@ -12989,10 +12993,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13018,10 +13022,10 @@
         <v>187</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13048,13 +13052,13 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13072,7 +13076,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13107,10 +13111,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13133,16 +13137,16 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13192,7 +13196,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13210,10 +13214,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13227,10 +13231,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13345,10 +13349,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13465,14 +13469,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13494,10 +13498,10 @@
         <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>139</v>
@@ -13552,7 +13556,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13587,10 +13591,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13613,13 +13617,13 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13670,7 +13674,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13688,10 +13692,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13705,10 +13709,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13731,13 +13735,13 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13788,7 +13792,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13806,10 +13810,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13818,15 +13822,15 @@
         <v>79</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13849,13 +13853,13 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13906,7 +13910,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13924,10 +13928,10 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13941,10 +13945,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13967,13 +13971,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14024,7 +14028,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14059,10 +14063,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14177,10 +14181,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14297,14 +14301,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14326,10 +14330,10 @@
         <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>139</v>
@@ -14384,7 +14388,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14419,10 +14423,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14448,10 +14452,10 @@
         <v>162</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14502,7 +14506,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14532,15 +14536,15 @@
         <v>79</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14563,13 +14567,13 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14620,7 +14624,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14655,10 +14659,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14684,10 +14688,10 @@
         <v>187</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14714,13 +14718,13 @@
         <v>79</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>79</v>
@@ -14738,7 +14742,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14773,10 +14777,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14799,16 +14803,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14858,7 +14862,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>90</v>
@@ -14893,10 +14897,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14919,16 +14923,16 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14978,7 +14982,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1116,13 +1116,6 @@
     <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1136,12 +1129,6 @@
   </si>
   <si>
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]:occurrenceDateTime</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
   </si>
   <si>
     <t>ImmunizationTO.administeredDate</t>
@@ -2307,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP106"/>
+  <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2316,9 +2303,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.48828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.24609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -6752,14 +6739,16 @@
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>343</v>
@@ -6777,34 +6766,32 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6816,26 +6803,24 @@
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>344</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6884,10 +6869,10 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
@@ -6899,30 +6884,30 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6936,24 +6921,26 @@
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6963,7 +6950,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -7002,7 +6989,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7020,27 +7007,27 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7048,31 +7035,31 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7083,7 +7070,7 @@
         <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>79</v>
@@ -7098,13 +7085,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -7122,7 +7109,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7140,27 +7127,27 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7183,17 +7170,15 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7218,13 +7203,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7242,7 +7227,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7257,16 +7242,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7277,10 +7262,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7291,7 +7276,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7303,13 +7288,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>162</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>163</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7360,7 +7345,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>165</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7372,19 +7357,19 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>384</v>
+        <v>166</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7395,21 +7380,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7421,15 +7406,17 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7466,31 +7453,31 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7513,21 +7500,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7536,19 +7523,19 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>169</v>
+        <v>386</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>139</v>
+        <v>387</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7586,31 +7573,31 @@
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>172</v>
+        <v>388</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7619,7 +7606,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7633,10 +7620,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7659,16 +7646,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7694,13 +7681,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7718,7 +7705,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7727,7 +7714,7 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>102</v>
@@ -7753,10 +7740,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7779,16 +7766,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7814,13 +7801,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7838,7 +7825,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7859,7 +7846,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>133</v>
+        <v>402</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7873,10 +7860,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7899,16 +7886,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7958,7 +7945,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7979,7 +7966,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7988,15 +7975,15 @@
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8007,7 +7994,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -8016,20 +8003,18 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -8078,7 +8063,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8096,27 +8081,27 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8139,13 +8124,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8196,7 +8181,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8214,27 +8199,27 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8257,13 +8242,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>162</v>
+        <v>424</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8314,7 +8299,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8332,27 +8317,27 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8375,13 +8360,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>428</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8408,13 +8393,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8432,7 +8417,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8450,16 +8435,16 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>79</v>
@@ -8467,10 +8452,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8481,7 +8466,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8493,13 +8478,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>435</v>
+        <v>164</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8526,13 +8511,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8550,7 +8535,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>433</v>
+        <v>165</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8562,22 +8547,22 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>439</v>
+        <v>166</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8585,21 +8570,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8611,15 +8596,17 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8656,31 +8643,31 @@
         <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8703,14 +8690,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8726,21 +8713,23 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8776,19 +8765,19 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8800,16 +8789,16 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8823,10 +8812,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8837,7 +8826,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8849,19 +8838,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8910,13 +8899,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8928,10 +8917,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8940,15 +8929,15 @@
         <v>79</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8959,7 +8948,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8968,23 +8957,19 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>316</v>
+        <v>443</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -9008,13 +8993,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -9032,7 +9017,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>320</v>
+        <v>442</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9050,27 +9035,27 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9093,13 +9078,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>451</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9126,31 +9111,31 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9168,16 +9153,16 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -9185,10 +9170,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9208,16 +9193,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9268,13 +9253,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -9283,13 +9268,13 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9303,10 +9288,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9317,7 +9302,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9326,16 +9311,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>461</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>462</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>463</v>
+        <v>164</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9386,28 +9371,28 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>460</v>
+        <v>165</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>466</v>
+        <v>166</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9421,21 +9406,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9447,15 +9432,17 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9504,19 +9491,19 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9539,14 +9526,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>135</v>
+        <v>466</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9559,24 +9546,26 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>137</v>
+        <v>467</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>169</v>
+        <v>468</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9624,7 +9613,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9645,7 +9634,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9659,33 +9648,33 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>471</v>
@@ -9693,12 +9682,8 @@
       <c r="M62" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9722,13 +9707,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9746,28 +9731,28 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9781,10 +9766,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9792,7 +9777,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>90</v>
@@ -9807,15 +9792,17 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>187</v>
+        <v>478</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9840,34 +9827,34 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>90</v>
@@ -9879,16 +9866,16 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9899,10 +9886,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9910,7 +9897,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>90</v>
@@ -9922,20 +9909,18 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>482</v>
+        <v>162</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>163</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9984,10 +9969,10 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>481</v>
+        <v>165</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>90</v>
@@ -9996,19 +9981,19 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>487</v>
+        <v>166</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10019,21 +10004,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -10045,15 +10030,17 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10090,31 +10077,31 @@
         <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -10137,21 +10124,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10160,19 +10147,19 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>169</v>
+        <v>386</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>139</v>
+        <v>387</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10210,31 +10197,31 @@
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>172</v>
+        <v>388</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10243,7 +10230,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10257,10 +10244,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10283,16 +10270,16 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10318,13 +10305,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10342,7 +10329,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10351,7 +10338,7 @@
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
@@ -10377,10 +10364,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10403,16 +10390,16 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10438,13 +10425,13 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10462,7 +10449,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10483,7 +10470,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>133</v>
+        <v>402</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10497,10 +10484,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10523,16 +10510,16 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10582,7 +10569,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10603,7 +10590,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>406</v>
+        <v>133</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10612,15 +10599,15 @@
         <v>79</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10643,17 +10630,15 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>162</v>
+        <v>493</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10702,13 +10687,13 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
@@ -10717,13 +10702,13 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>133</v>
+        <v>498</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10732,15 +10717,15 @@
         <v>79</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10760,16 +10745,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>162</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>163</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
+        <v>164</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10820,28 +10805,28 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>496</v>
+        <v>165</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>502</v>
+        <v>166</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10855,21 +10840,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10881,15 +10866,17 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10926,31 +10913,31 @@
         <v>79</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10973,21 +10960,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10996,19 +10983,19 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>136</v>
+        <v>502</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>137</v>
+        <v>503</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>169</v>
+        <v>504</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>139</v>
+        <v>505</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11046,40 +11033,40 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>172</v>
+        <v>506</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>166</v>
+        <v>507</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -11093,10 +11080,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11119,17 +11106,15 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>506</v>
+        <v>344</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11178,7 +11163,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11199,7 +11184,7 @@
         <v>133</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11213,10 +11198,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11224,7 +11209,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>90</v>
@@ -11239,13 +11224,13 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>344</v>
+        <v>514</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11296,10 +11281,10 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>90</v>
@@ -11317,7 +11302,7 @@
         <v>133</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11326,15 +11311,15 @@
         <v>79</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11342,10 +11327,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11354,16 +11339,16 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>518</v>
+        <v>187</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11390,13 +11375,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11414,13 +11399,13 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
@@ -11429,13 +11414,13 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11444,15 +11429,15 @@
         <v>79</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11475,13 +11460,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>187</v>
+        <v>528</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11508,31 +11493,31 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF77" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11547,13 +11532,13 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>530</v>
+        <v>133</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11587,26 +11572,30 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="N78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="R78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11656,7 +11645,7 @@
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
@@ -11665,10 +11654,10 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>133</v>
@@ -11685,10 +11674,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11699,36 +11688,32 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q79" t="s" s="2">
-        <v>539</v>
-      </c>
+      <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11748,13 +11733,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -11772,13 +11757,13 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
@@ -11790,7 +11775,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>133</v>
@@ -11807,10 +11792,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11821,7 +11806,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11833,13 +11818,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>187</v>
+        <v>457</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11866,13 +11851,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11890,7 +11875,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11902,7 +11887,7 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>545</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11939,7 +11924,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11951,13 +11936,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>461</v>
+        <v>162</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>547</v>
+        <v>163</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>548</v>
+        <v>164</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12008,19 +11993,19 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>546</v>
+        <v>165</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -12029,7 +12014,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -12043,21 +12028,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -12069,15 +12054,17 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -12126,19 +12113,19 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -12161,14 +12148,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>135</v>
+        <v>466</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12181,24 +12168,26 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>137</v>
+        <v>467</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>169</v>
+        <v>468</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
       </c>
@@ -12246,7 +12235,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12267,7 +12256,7 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12281,46 +12270,42 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>471</v>
+        <v>550</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12368,25 +12353,25 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>133</v>
@@ -12429,7 +12414,7 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>554</v>
@@ -12504,7 +12489,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>133</v>
@@ -12521,10 +12506,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12547,13 +12532,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>104</v>
+        <v>344</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12604,7 +12589,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12622,7 +12607,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>133</v>
@@ -12771,7 +12756,7 @@
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12783,7 +12768,7 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>344</v>
+        <v>187</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>565</v>
@@ -12816,13 +12801,13 @@
         <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>79</v>
@@ -12846,7 +12831,7 @@
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
@@ -12858,7 +12843,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>133</v>
@@ -12875,10 +12860,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12904,10 +12889,10 @@
         <v>187</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12937,10 +12922,10 @@
         <v>248</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12958,13 +12943,13 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>79</v>
@@ -12976,7 +12961,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>133</v>
@@ -12993,10 +12978,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13007,7 +12992,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -13019,15 +13004,17 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>187</v>
+        <v>457</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -13052,13 +13039,13 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13076,13 +13063,13 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>79</v>
@@ -13094,10 +13081,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>133</v>
+        <v>580</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13111,10 +13098,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13125,7 +13112,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -13137,17 +13124,15 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>461</v>
+        <v>162</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>580</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13196,28 +13181,28 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>579</v>
+        <v>165</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>584</v>
+        <v>166</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13231,21 +13216,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -13257,15 +13242,17 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13314,19 +13301,19 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
@@ -13349,14 +13336,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>135</v>
+        <v>466</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13369,24 +13356,26 @@
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>137</v>
+        <v>467</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>169</v>
+        <v>468</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13434,7 +13423,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13455,7 +13444,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13469,46 +13458,42 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>471</v>
+        <v>585</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13556,28 +13541,28 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>473</v>
+        <v>584</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13617,13 +13602,13 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>344</v>
+        <v>589</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13692,10 +13677,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>352</v>
+        <v>593</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13704,15 +13689,15 @@
         <v>79</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13735,13 +13720,13 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>593</v>
+        <v>307</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13792,7 +13777,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13810,10 +13795,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13822,15 +13807,15 @@
         <v>79</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13841,7 +13826,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13853,13 +13838,13 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13910,13 +13895,13 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>79</v>
@@ -13928,10 +13913,10 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>603</v>
+        <v>133</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13945,10 +13930,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13959,7 +13944,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>79</v>
@@ -13971,13 +13956,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>461</v>
+        <v>162</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>605</v>
+        <v>163</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>606</v>
+        <v>164</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14028,19 +14013,19 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>604</v>
+        <v>165</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>79</v>
@@ -14049,7 +14034,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -14063,21 +14048,21 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>79</v>
@@ -14089,15 +14074,17 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -14146,19 +14133,19 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>79</v>
@@ -14181,14 +14168,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>135</v>
+        <v>466</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14201,24 +14188,26 @@
         <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>137</v>
+        <v>467</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>169</v>
+        <v>468</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
       </c>
@@ -14266,7 +14255,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14287,7 +14276,7 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -14301,46 +14290,42 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>79</v>
       </c>
@@ -14388,19 +14373,19 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>473</v>
+        <v>606</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
@@ -14418,7 +14403,7 @@
         <v>79</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>79</v>
+        <v>609</v>
       </c>
     </row>
     <row r="102" hidden="true">
@@ -14449,7 +14434,7 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>611</v>
@@ -14536,15 +14521,15 @@
         <v>79</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>613</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14555,7 +14540,7 @@
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>79</v>
@@ -14567,13 +14552,13 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14600,13 +14585,13 @@
         <v>79</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
@@ -14624,13 +14609,13 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>79</v>
@@ -14659,10 +14644,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14670,10 +14655,10 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>79</v>
@@ -14685,15 +14670,17 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>187</v>
+        <v>619</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>79</v>
@@ -14718,13 +14705,13 @@
         <v>79</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>79</v>
@@ -14742,13 +14729,13 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>79</v>
@@ -14777,10 +14764,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14788,7 +14775,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>90</v>
@@ -14803,7 +14790,7 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>624</v>
@@ -14812,7 +14799,7 @@
         <v>625</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14862,10 +14849,10 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>90</v>
@@ -14895,128 +14882,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AP106">
+  <autoFilter ref="A1:AP105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15026,7 +14893,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,32 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Immunization that declares how MHV will expose PHR immunization.
-**Proposed mapping not yet approved for implementation**
-* Derived off of US-Core Immunization
-  * US-Core already requires: status, vaccineCode, patient, occurance[x], primarySource
-* must point at the patient
-* must have status of completed 
-* must have identifier as cross reference to original source
-* must have a code.text or code.coding from a valueset
-  * code.coding should be a CVX but we don't have such.
-  * Might have a CPT code
-* must have a date (occuranceDateTime) the vaccine was administered from the UI
-  * will also be used for recorded date
-* must be indicated this data are not official record (primarySource=false)
-* any reaction is recorded as a contained observation
-* may have a comment note
-* once created will have an id, versionId, lastUpdated.
-* Not sure if text will be populated
-Mapping from [ImmunizationTO](StructureDefinition-VA.MHV.PHR.immunization-mappings.html#mappings-for-vdif-to-mhv-phr-immunizationto)
-TODO Questions: 
-- The given mock example aligns with both VIA_v4.0.7_uat.wsdl and mockey-mdws3-service.wsdl. The VIA schema has more elements. The mapping is only for elements that were in both and for which I had an example. Better mapping can be done if specific schema can be identifed, and more rich mock example.
-- reaction appears to be a controlled vocabulary (e.g. FEVER), or is it a number (1-11 - convertReactionCode())?
-- contraindicated -- appears to be a number (e.g. 0). No idea what the values might be or what they might mean
-- id - presuming this is a persisted identifier we can cross-reference with
-- series - this appears to be a controlled vocabulary (e.g. COMPLETE). What are the possible values and what do they mean?
-- encounter - should we convert these to instances of FHIR Encounter?
-- could have function that converts a defined set of ImmunizationTO.name values to proper codes. This might be an advanced feature.</t>
+    <t>A profile on the Immunization that declares how MHV will expose PHR immunization.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -969,9 +944,6 @@
   </si>
   <si>
     <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>GetEncounter(ImmunizationTO.encounter.[VisitTO])</t>
   </si>
   <si>
     <t>Immunization.occurrence[x]</t>
@@ -1431,7 +1403,7 @@
     <t>Immunization.performer.actor.display</t>
   </si>
   <si>
-    <t>GetPractitioner(ImmunizationTO.orderedBy.[UserTO])</t>
+    <t>GetPractitioner(ImmunizationTO.orderedBy.[UserTO]) | `OP`</t>
   </si>
   <si>
     <t>Immunization.note</t>
@@ -1791,9 +1763,6 @@
     <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
   </si>
   <si>
-    <t>ImmunizationTO.series</t>
-  </si>
-  <si>
     <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
@@ -1832,6 +1801,19 @@
   </si>
   <si>
     <t>The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.doseNumber[x]:doseNumberString</t>
+  </si>
+  <si>
+    <t>doseNumberString</t>
+  </si>
+  <si>
+    <t>ImmunizationTO.series</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.seriesDoses[x]</t>
@@ -2168,7 +2150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP104"/>
+  <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2177,9 +2159,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.28125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.24609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.87109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -3318,7 +3300,7 @@
         <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>37</v>
@@ -6406,15 +6388,15 @@
         <v>37</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>300</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6437,16 +6419,16 @@
         <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6496,7 +6478,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>48</v>
@@ -6511,30 +6493,30 @@
         <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6548,7 +6530,7 @@
         <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>37</v>
@@ -6557,13 +6539,13 @@
         <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6614,7 +6596,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6635,24 +6617,24 @@
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AO37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6678,13 +6660,13 @@
         <v>265</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6734,7 +6716,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6752,27 +6734,27 @@
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6798,13 +6780,13 @@
         <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6833,11 +6815,11 @@
         <v>206</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
       </c>
@@ -6854,7 +6836,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6872,13 +6854,13 @@
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6889,10 +6871,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6903,7 +6885,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -6915,13 +6897,13 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6972,7 +6954,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6984,19 +6966,19 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -7007,10 +6989,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7125,10 +7107,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7245,10 +7227,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7274,13 +7256,13 @@
         <v>120</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7330,16 +7312,16 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI43" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>60</v>
@@ -7365,10 +7347,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7394,13 +7376,13 @@
         <v>62</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7429,28 +7411,28 @@
         <v>150</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z44" t="s" s="2">
+      <c r="AA44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7485,10 +7467,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7514,13 +7496,13 @@
         <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7570,7 +7552,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7591,7 +7573,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7605,10 +7587,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7622,7 +7604,7 @@
         <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>37</v>
@@ -7634,13 +7616,13 @@
         <v>120</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7690,7 +7672,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7720,15 +7702,15 @@
         <v>37</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7739,10 +7721,10 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>37</v>
@@ -7754,10 +7736,10 @@
         <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7808,7 +7790,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7826,27 +7808,27 @@
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO47" t="s" s="2">
+      <c r="AP47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7857,10 +7839,10 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
@@ -7872,10 +7854,10 @@
         <v>120</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7926,7 +7908,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7944,27 +7926,27 @@
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AN48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO48" t="s" s="2">
+      <c r="AP48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7987,13 +7969,13 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8044,7 +8026,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8062,10 +8044,10 @@
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -8079,10 +8061,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8108,10 +8090,10 @@
         <v>145</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8141,11 +8123,11 @@
         <v>206</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
       </c>
@@ -8162,7 +8144,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8180,16 +8162,16 @@
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>37</v>
@@ -8197,10 +8179,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8315,10 +8297,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8435,10 +8417,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8557,10 +8539,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8674,15 +8656,15 @@
         <v>37</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8708,10 +8690,10 @@
         <v>145</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8741,11 +8723,11 @@
         <v>206</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
       </c>
@@ -8762,7 +8744,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8780,16 +8762,16 @@
         <v>37</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>37</v>
@@ -8797,10 +8779,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8823,13 +8805,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8880,7 +8862,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8898,10 +8880,10 @@
         <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>37</v>
@@ -8915,10 +8897,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8929,10 +8911,10 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
@@ -8941,13 +8923,13 @@
         <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8998,7 +8980,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9013,13 +8995,13 @@
         <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -9033,10 +9015,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9151,10 +9133,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9271,14 +9253,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9300,10 +9282,10 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>97</v>
@@ -9358,7 +9340,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9393,10 +9375,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9422,10 +9404,10 @@
         <v>145</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9455,11 +9437,11 @@
         <v>150</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
       </c>
@@ -9476,7 +9458,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9491,13 +9473,13 @@
         <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9511,10 +9493,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9537,16 +9519,16 @@
         <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9596,7 +9578,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>48</v>
@@ -9611,16 +9593,16 @@
         <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
@@ -9631,10 +9613,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9749,10 +9731,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9869,10 +9851,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9898,13 +9880,13 @@
         <v>120</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9954,16 +9936,16 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>60</v>
@@ -9989,10 +9971,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10018,13 +10000,13 @@
         <v>62</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10053,28 +10035,28 @@
         <v>150</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AA66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10109,10 +10091,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10138,13 +10120,13 @@
         <v>106</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10194,7 +10176,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10215,7 +10197,7 @@
         <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>37</v>
@@ -10229,10 +10211,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10258,13 +10240,13 @@
         <v>120</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10314,7 +10296,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10344,15 +10326,15 @@
         <v>37</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10366,7 +10348,7 @@
         <v>48</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>37</v>
@@ -10375,13 +10357,13 @@
         <v>49</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10432,7 +10414,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10447,13 +10429,13 @@
         <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10467,10 +10449,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10585,10 +10567,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10705,10 +10687,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10731,16 +10713,16 @@
         <v>49</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10790,7 +10772,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -10811,7 +10793,7 @@
         <v>91</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10825,10 +10807,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10851,13 +10833,13 @@
         <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10908,7 +10890,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -10929,7 +10911,7 @@
         <v>91</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>37</v>
@@ -10943,10 +10925,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10969,13 +10951,13 @@
         <v>49</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11026,7 +11008,7 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>48</v>
@@ -11047,24 +11029,24 @@
         <v>91</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>477</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11090,10 +11072,10 @@
         <v>145</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11123,11 +11105,11 @@
         <v>206</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z75" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AA75" t="s" s="2">
         <v>37</v>
       </c>
@@ -11144,7 +11126,7 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11159,13 +11141,13 @@
         <v>60</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>37</v>
@@ -11179,10 +11161,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11205,13 +11187,13 @@
         <v>37</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11262,7 +11244,7 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11277,7 +11259,7 @@
         <v>60</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>37</v>
@@ -11297,10 +11279,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11326,20 +11308,20 @@
         <v>265</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q77" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>37</v>
@@ -11384,7 +11366,7 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11402,7 +11384,7 @@
         <v>37</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>91</v>
@@ -11419,10 +11401,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11448,10 +11430,10 @@
         <v>145</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11481,11 +11463,11 @@
         <v>206</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>499</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>37</v>
       </c>
@@ -11502,7 +11484,7 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -11537,10 +11519,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11563,13 +11545,13 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11620,7 +11602,7 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -11632,7 +11614,7 @@
         <v>37</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>37</v>
@@ -11655,10 +11637,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11773,10 +11755,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11893,14 +11875,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11922,10 +11904,10 @@
         <v>94</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>97</v>
@@ -11980,7 +11962,7 @@
         <v>37</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -12015,10 +11997,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12044,10 +12026,10 @@
         <v>120</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12098,7 +12080,7 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12116,7 +12098,7 @@
         <v>37</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>91</v>
@@ -12133,10 +12115,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12162,10 +12144,10 @@
         <v>62</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12216,7 +12198,7 @@
         <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -12251,10 +12233,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12277,13 +12259,13 @@
         <v>37</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12334,7 +12316,7 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -12352,7 +12334,7 @@
         <v>37</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>91</v>
@@ -12369,10 +12351,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12395,13 +12377,13 @@
         <v>37</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12452,7 +12434,7 @@
         <v>37</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
@@ -12470,7 +12452,7 @@
         <v>37</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>91</v>
@@ -12487,10 +12469,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12516,10 +12498,10 @@
         <v>145</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12549,11 +12531,11 @@
         <v>206</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>526</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>37</v>
       </c>
@@ -12570,7 +12552,7 @@
         <v>37</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -12588,7 +12570,7 @@
         <v>37</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>91</v>
@@ -12605,10 +12587,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12634,10 +12616,10 @@
         <v>145</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12667,11 +12649,11 @@
         <v>206</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>37</v>
       </c>
@@ -12688,7 +12670,7 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -12723,10 +12705,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12749,16 +12731,16 @@
         <v>37</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12808,7 +12790,7 @@
         <v>37</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
@@ -12826,10 +12808,10 @@
         <v>37</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>37</v>
@@ -12843,10 +12825,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12961,10 +12943,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13081,14 +13063,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13110,10 +13092,10 @@
         <v>94</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>97</v>
@@ -13168,7 +13150,7 @@
         <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
@@ -13203,10 +13185,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13217,7 +13199,7 @@
         <v>38</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>37</v>
@@ -13229,13 +13211,13 @@
         <v>37</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13286,7 +13268,7 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
@@ -13304,10 +13286,10 @@
         <v>37</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>37</v>
@@ -13321,10 +13303,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13347,13 +13329,13 @@
         <v>37</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13404,7 +13386,7 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -13422,27 +13404,27 @@
         <v>37</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13453,7 +13435,7 @@
         <v>38</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>37</v>
@@ -13468,10 +13450,10 @@
         <v>265</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13522,7 +13504,7 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
@@ -13540,10 +13522,10 @@
         <v>37</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>37</v>
@@ -13557,10 +13539,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13571,10 +13553,10 @@
         <v>38</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>37</v>
@@ -13583,13 +13565,13 @@
         <v>37</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13640,7 +13622,7 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -13675,10 +13657,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13793,10 +13775,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13913,14 +13895,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13942,10 +13924,10 @@
         <v>94</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>97</v>
@@ -14000,7 +13982,7 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>38</v>
@@ -14035,10 +14017,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14049,7 +14031,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>37</v>
@@ -14064,10 +14046,10 @@
         <v>120</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14118,7 +14100,7 @@
         <v>37</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>38</v>
@@ -14148,15 +14130,15 @@
         <v>37</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>567</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14167,7 +14149,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>37</v>
@@ -14182,10 +14164,10 @@
         <v>185</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14236,7 +14218,7 @@
         <v>37</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>38</v>
@@ -14271,10 +14253,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14285,7 +14267,7 @@
         <v>38</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>37</v>
@@ -14300,10 +14282,10 @@
         <v>145</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14333,10 +14315,10 @@
         <v>206</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>37</v>
@@ -14354,7 +14336,7 @@
         <v>37</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>38</v>
@@ -14389,10 +14371,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14415,16 +14397,16 @@
         <v>37</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14462,19 +14444,17 @@
         <v>37</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>48</v>
@@ -14509,12 +14489,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C104" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="B104" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
         <v>37</v>
       </c>
@@ -14526,7 +14508,7 @@
         <v>48</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>37</v>
@@ -14535,16 +14517,16 @@
         <v>37</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L104" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="N104" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14594,10 +14576,10 @@
         <v>37</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>48</v>
@@ -14624,11 +14606,131 @@
         <v>37</v>
       </c>
       <c r="AP104" t="s" s="2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP105" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP104">
+  <autoFilter ref="A1:AP105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14638,7 +14740,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1702,7 +1702,7 @@
     <t>Immunization.reaction.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.immunizationReaction) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -2168,7 +2168,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="113.94140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1148,7 +1148,7 @@
     <t>Reference.display</t>
   </si>
   <si>
-    <t>ImmunizationTO.encounter.location.name or ImmunizationTO.encounter.facility.name</t>
+    <t>GetLocation(ImmunizationTO.encounter.location.name)</t>
   </si>
   <si>
     <t>Immunization.manufacturer</t>
@@ -1385,25 +1385,7 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>Immunization.performer.actor.id</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.reference</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.type</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.display</t>
-  </si>
-  <si>
-    <t>GetPractitioner(ImmunizationTO.orderedBy.[UserTO]) | `OP`</t>
+    <t>GetOrganization(ImmunizationTO.encounter.facility.name)</t>
   </si>
   <si>
     <t>Immunization.note</t>
@@ -2150,7 +2132,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP105"/>
+  <dimension ref="A1:AP99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2198,7 +2180,7 @@
     <col min="39" max="39" width="227.0390625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="158.01171875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="78.81640625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="53.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6888,7 +6870,7 @@
         <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>37</v>
@@ -6966,7 +6948,7 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>335</v>
@@ -7604,7 +7586,7 @@
         <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>37</v>
@@ -9608,15 +9590,15 @@
         <v>37</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>37</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9630,22 +9612,22 @@
         <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>121</v>
+        <v>445</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>122</v>
+        <v>446</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9696,28 +9678,28 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>123</v>
+        <v>443</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>37</v>
+        <v>447</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9731,21 +9713,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
@@ -9757,17 +9739,15 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -9804,31 +9784,31 @@
         <v>37</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
@@ -9851,21 +9831,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>37</v>
@@ -9874,19 +9854,19 @@
         <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>343</v>
+        <v>127</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9924,31 +9904,31 @@
         <v>37</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>346</v>
+        <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>37</v>
@@ -9957,7 +9937,7 @@
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>37</v>
@@ -9971,10 +9951,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9997,16 +9977,16 @@
         <v>49</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>62</v>
+        <v>453</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>348</v>
+        <v>454</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>350</v>
+        <v>456</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10032,13 +10012,13 @@
         <v>37</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>352</v>
+        <v>37</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>37</v>
@@ -10056,7 +10036,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>353</v>
+        <v>457</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10074,10 +10054,10 @@
         <v>37</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>91</v>
+        <v>458</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>37</v>
@@ -10091,10 +10071,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10117,17 +10097,15 @@
         <v>49</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>37</v>
@@ -10176,7 +10154,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>358</v>
+        <v>462</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10194,10 +10172,10 @@
         <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>359</v>
+        <v>463</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>37</v>
@@ -10211,10 +10189,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10222,7 +10200,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>48</v>
@@ -10237,17 +10215,15 @@
         <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>120</v>
+        <v>465</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -10296,10 +10272,10 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>364</v>
+        <v>468</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>48</v>
@@ -10314,10 +10290,10 @@
         <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>91</v>
+        <v>469</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10326,15 +10302,15 @@
         <v>37</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>448</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10345,25 +10321,25 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>450</v>
+        <v>145</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10390,13 +10366,13 @@
         <v>37</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>37</v>
+        <v>474</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>37</v>
+        <v>475</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>37</v>
@@ -10414,7 +10390,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10429,13 +10405,13 @@
         <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>454</v>
+        <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10449,10 +10425,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10463,7 +10439,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>37</v>
@@ -10475,13 +10451,13 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>120</v>
+        <v>479</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>121</v>
+        <v>472</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10532,28 +10508,28 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>123</v>
+        <v>478</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>37</v>
+        <v>481</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>37</v>
@@ -10567,48 +10543,50 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>95</v>
+        <v>483</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>127</v>
+        <v>484</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>97</v>
+        <v>485</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="R71" t="s" s="2">
         <v>37</v>
       </c>
@@ -10640,40 +10618,40 @@
         <v>37</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>130</v>
+        <v>482</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>37</v>
+        <v>487</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -10687,10 +10665,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10701,7 +10679,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>37</v>
@@ -10710,20 +10688,18 @@
         <v>37</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>459</v>
+        <v>145</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>37</v>
@@ -10748,13 +10724,13 @@
         <v>37</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>37</v>
+        <v>491</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>37</v>
+        <v>492</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>37</v>
@@ -10772,13 +10748,13 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>37</v>
@@ -10790,10 +10766,10 @@
         <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10807,10 +10783,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10821,7 +10797,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -10830,16 +10806,16 @@
         <v>37</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10890,28 +10866,28 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>496</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>37</v>
@@ -10925,10 +10901,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10936,7 +10912,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>48</v>
@@ -10948,16 +10924,16 @@
         <v>37</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>471</v>
+        <v>120</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>472</v>
+        <v>121</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>473</v>
+        <v>122</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11008,10 +10984,10 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>474</v>
+        <v>123</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>48</v>
@@ -11020,16 +10996,16 @@
         <v>37</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>475</v>
+        <v>124</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>37</v>
@@ -11038,26 +11014,26 @@
         <v>37</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>476</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>37</v>
@@ -11069,15 +11045,17 @@
         <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>478</v>
+        <v>95</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>37</v>
@@ -11102,13 +11080,13 @@
         <v>37</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>480</v>
+        <v>37</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>37</v>
@@ -11126,7 +11104,7 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>477</v>
+        <v>130</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11138,16 +11116,16 @@
         <v>37</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>483</v>
+        <v>124</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>37</v>
@@ -11161,42 +11139,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>485</v>
+        <v>94</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>37</v>
       </c>
@@ -11244,7 +11226,7 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11256,10 +11238,10 @@
         <v>37</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>487</v>
+        <v>37</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>37</v>
@@ -11279,10 +11261,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11293,36 +11275,32 @@
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q77" t="s" s="2">
-        <v>492</v>
-      </c>
+      <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
         <v>37</v>
       </c>
@@ -11366,7 +11344,7 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11384,7 +11362,7 @@
         <v>37</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>91</v>
@@ -11401,10 +11379,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11415,7 +11393,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>37</v>
@@ -11427,13 +11405,13 @@
         <v>37</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11460,13 +11438,13 @@
         <v>37</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>497</v>
+        <v>37</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>498</v>
+        <v>37</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>37</v>
@@ -11484,13 +11462,13 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>37</v>
@@ -11519,10 +11497,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11533,7 +11511,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>37</v>
@@ -11545,13 +11523,13 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11602,25 +11580,25 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>502</v>
+        <v>60</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>37</v>
+        <v>510</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>91</v>
@@ -11637,10 +11615,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11663,13 +11641,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>121</v>
+        <v>512</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>122</v>
+        <v>513</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11720,7 +11698,7 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>123</v>
+        <v>511</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -11732,16 +11710,16 @@
         <v>37</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>37</v>
+        <v>514</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>37</v>
@@ -11755,21 +11733,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>37</v>
@@ -11781,17 +11759,15 @@
         <v>37</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>95</v>
+        <v>516</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>37</v>
@@ -11816,13 +11792,13 @@
         <v>37</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>37</v>
+        <v>518</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>37</v>
+        <v>519</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>37</v>
@@ -11840,7 +11816,7 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>130</v>
+        <v>515</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -11852,16 +11828,16 @@
         <v>37</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>37</v>
+        <v>520</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>37</v>
@@ -11875,46 +11851,42 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>37</v>
       </c>
@@ -11938,13 +11910,13 @@
         <v>37</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>37</v>
+        <v>524</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>37</v>
+        <v>525</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>37</v>
@@ -11962,19 +11934,19 @@
         <v>37</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>426</v>
+        <v>521</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>37</v>
@@ -11997,10 +11969,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12011,7 +11983,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>37</v>
@@ -12023,15 +11995,17 @@
         <v>37</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>37</v>
@@ -12080,13 +12054,13 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>37</v>
@@ -12098,10 +12072,10 @@
         <v>37</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>91</v>
+        <v>531</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>37</v>
@@ -12115,10 +12089,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12141,13 +12115,13 @@
         <v>37</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>511</v>
+        <v>121</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>512</v>
+        <v>122</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12198,7 +12172,7 @@
         <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>510</v>
+        <v>123</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -12210,7 +12184,7 @@
         <v>37</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>37</v>
@@ -12219,7 +12193,7 @@
         <v>37</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>37</v>
@@ -12233,21 +12207,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>37</v>
@@ -12259,15 +12233,17 @@
         <v>37</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>514</v>
+        <v>95</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>37</v>
@@ -12316,28 +12292,28 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>513</v>
+        <v>130</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>516</v>
+        <v>37</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>37</v>
@@ -12351,42 +12327,46 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>518</v>
+        <v>424</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>37</v>
       </c>
@@ -12434,25 +12414,25 @@
         <v>37</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>520</v>
+        <v>37</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>91</v>
@@ -12469,10 +12449,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12495,13 +12475,13 @@
         <v>37</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12528,13 +12508,13 @@
         <v>37</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>524</v>
+        <v>37</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>525</v>
+        <v>37</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>37</v>
@@ -12552,13 +12532,13 @@
         <v>37</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>37</v>
@@ -12570,10 +12550,10 @@
         <v>37</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>37</v>
@@ -12587,10 +12567,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12601,7 +12581,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>37</v>
@@ -12613,13 +12593,13 @@
         <v>37</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>145</v>
+        <v>540</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12646,13 +12626,13 @@
         <v>37</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>530</v>
+        <v>37</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>531</v>
+        <v>37</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>37</v>
@@ -12670,7 +12650,7 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -12688,10 +12668,10 @@
         <v>37</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>37</v>
+        <v>543</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>91</v>
+        <v>544</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>37</v>
@@ -12700,15 +12680,15 @@
         <v>37</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>37</v>
+        <v>545</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12719,7 +12699,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>37</v>
@@ -12731,17 +12711,15 @@
         <v>37</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>414</v>
+        <v>265</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>37</v>
@@ -12790,13 +12768,13 @@
         <v>37</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>37</v>
@@ -12808,10 +12786,10 @@
         <v>37</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>37</v>
@@ -12825,10 +12803,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12839,10 +12817,10 @@
         <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>37</v>
@@ -12851,13 +12829,13 @@
         <v>37</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>121</v>
+        <v>552</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>122</v>
+        <v>553</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12908,19 +12886,19 @@
         <v>37</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>123</v>
+        <v>551</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>37</v>
@@ -12929,7 +12907,7 @@
         <v>37</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>37</v>
@@ -12943,21 +12921,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>37</v>
@@ -12969,17 +12947,15 @@
         <v>37</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>37</v>
@@ -13028,19 +13004,19 @@
         <v>37</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>37</v>
@@ -13063,14 +13039,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>423</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13083,26 +13059,24 @@
         <v>37</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>424</v>
+        <v>95</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>425</v>
+        <v>127</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="O92" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>37</v>
       </c>
@@ -13150,7 +13124,7 @@
         <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>426</v>
+        <v>130</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
@@ -13171,7 +13145,7 @@
         <v>37</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>37</v>
@@ -13185,42 +13159,46 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>542</v>
+        <v>424</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>37</v>
       </c>
@@ -13268,28 +13246,28 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>541</v>
+        <v>426</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>544</v>
+        <v>37</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>37</v>
@@ -13303,10 +13281,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13317,7 +13295,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>37</v>
@@ -13329,13 +13307,13 @@
         <v>37</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>546</v>
+        <v>120</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13386,7 +13364,7 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -13404,10 +13382,10 @@
         <v>37</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>550</v>
+        <v>91</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>37</v>
@@ -13416,15 +13394,15 @@
         <v>37</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>551</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13447,13 +13425,13 @@
         <v>37</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13504,7 +13482,7 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
@@ -13522,10 +13500,10 @@
         <v>37</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>555</v>
+        <v>37</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>556</v>
+        <v>91</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>37</v>
@@ -13539,10 +13517,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13553,10 +13531,10 @@
         <v>38</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>37</v>
@@ -13565,13 +13543,13 @@
         <v>37</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>414</v>
+        <v>145</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13598,13 +13576,13 @@
         <v>37</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>37</v>
+        <v>566</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>37</v>
+        <v>567</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>37</v>
@@ -13622,7 +13600,7 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -13657,10 +13635,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13668,7 +13646,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>48</v>
@@ -13683,15 +13661,17 @@
         <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>120</v>
+        <v>569</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>121</v>
+        <v>570</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>37</v>
@@ -13728,22 +13708,20 @@
         <v>37</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="AC97" s="2"/>
       <c r="AD97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>123</v>
+        <v>568</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>48</v>
@@ -13752,7 +13730,7 @@
         <v>37</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>37</v>
@@ -13761,7 +13739,7 @@
         <v>37</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>37</v>
@@ -13775,24 +13753,26 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="D98" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>37</v>
@@ -13801,16 +13781,16 @@
         <v>37</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>95</v>
+        <v>570</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>127</v>
+        <v>571</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>97</v>
+        <v>572</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13860,19 +13840,19 @@
         <v>37</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>130</v>
+        <v>568</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>37</v>
@@ -13881,7 +13861,7 @@
         <v>37</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>37</v>
@@ -13890,51 +13870,49 @@
         <v>37</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>37</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>94</v>
+        <v>569</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>424</v>
+        <v>578</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>425</v>
+        <v>579</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>37</v>
       </c>
@@ -13982,19 +13960,19 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>426</v>
+        <v>577</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>37</v>
@@ -14015,722 +13993,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AC103" s="2"/>
-      <c r="AD103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP103" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="D104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AP105">
+  <autoFilter ref="A1:AP99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14740,7 +14004,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1148,7 +1148,7 @@
     <t>Reference.display</t>
   </si>
   <si>
-    <t>GetLocation(ImmunizationTO.encounter.location.name)</t>
+    <t>ImmunizationTO.encounter.location.name</t>
   </si>
   <si>
     <t>Immunization.manufacturer</t>
@@ -6870,7 +6870,7 @@
         <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>37</v>
@@ -6948,7 +6948,7 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>335</v>
@@ -7586,7 +7586,7 @@
         <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>37</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$106</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="593">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1700,7 +1700,31 @@
     <t>.value</t>
   </si>
   <si>
-    <t>ImmunizationTO.reaction</t>
+    <t>Immunization.reaction.detail.id</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.reference</t>
+  </si>
+  <si>
+    <t>contained Observation with ImmunizationTO.reaction</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.type</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.identifier</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.display</t>
+  </si>
+  <si>
+    <t>may be `YES (DO NOT REPEAT THIS VACCINE)`</t>
+  </si>
+  <si>
+    <t>if a ImmunizationTO.contraindicated=1 and no ImmunizationTo.reaction, then `YES (DO NOT REPEAT THIS VACCINE)`</t>
   </si>
   <si>
     <t>Immunization.reaction.reported</t>
@@ -1743,6 +1767,9 @@
   </si>
   <si>
     <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
+  </si>
+  <si>
+    <t>translation of ImmunizationTO.series</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.authority</t>
@@ -1789,6 +1816,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Immunization.protocolApplied.doseNumber[x]:doseNumberString</t>
   </si>
   <si>
@@ -1796,6 +1826,16 @@
   </si>
   <si>
     <t>ImmunizationTO.series</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.doseNumber[x]:doseNumberPositiveInt</t>
+  </si>
+  <si>
+    <t>doseNumberPositiveInt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.seriesDoses[x]</t>
@@ -2132,7 +2172,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP99"/>
+  <dimension ref="A1:AP106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2141,9 +2181,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.28125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.5078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.24609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.87109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -2170,7 +2210,7 @@
     <col min="28" max="28" width="12.12890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.7421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -2180,7 +2220,7 @@
     <col min="39" max="39" width="227.0390625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="158.01171875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="53.82421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="105.203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8057,7 +8097,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -12066,7 +12106,7 @@
         <v>37</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>37</v>
@@ -12662,7 +12702,7 @@
         <v>37</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>37</v>
@@ -12680,15 +12720,15 @@
         <v>37</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>545</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12699,7 +12739,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>37</v>
@@ -12711,13 +12751,13 @@
         <v>37</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>547</v>
+        <v>121</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>548</v>
+        <v>122</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12768,7 +12808,7 @@
         <v>37</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>546</v>
+        <v>123</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
@@ -12780,16 +12820,16 @@
         <v>37</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>550</v>
+        <v>124</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>37</v>
@@ -12803,14 +12843,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12820,7 +12860,7 @@
         <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>37</v>
@@ -12829,15 +12869,17 @@
         <v>37</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>414</v>
+        <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>552</v>
+        <v>95</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>37</v>
@@ -12874,19 +12916,19 @@
         <v>37</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>551</v>
+        <v>130</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
@@ -12898,7 +12940,7 @@
         <v>37</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>37</v>
@@ -12907,7 +12949,7 @@
         <v>37</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>37</v>
@@ -12921,10 +12963,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12944,18 +12986,20 @@
         <v>37</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>120</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>121</v>
+        <v>342</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>37</v>
@@ -13004,7 +13048,7 @@
         <v>37</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
@@ -13013,10 +13057,10 @@
         <v>48</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>37</v>
@@ -13025,7 +13069,7 @@
         <v>37</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>37</v>
@@ -13034,26 +13078,26 @@
         <v>37</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>37</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>37</v>
@@ -13062,19 +13106,19 @@
         <v>37</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>127</v>
+        <v>349</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13100,13 +13144,13 @@
         <v>37</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>37</v>
@@ -13124,19 +13168,19 @@
         <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>130</v>
+        <v>353</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>37</v>
@@ -13145,7 +13189,7 @@
         <v>37</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>37</v>
@@ -13159,46 +13203,44 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>37</v>
       </c>
@@ -13246,19 +13288,19 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>37</v>
@@ -13267,7 +13309,7 @@
         <v>37</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>91</v>
+        <v>359</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>37</v>
@@ -13281,10 +13323,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13295,27 +13337,29 @@
         <v>38</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>120</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>37</v>
@@ -13364,7 +13408,7 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>557</v>
+        <v>364</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -13394,15 +13438,15 @@
         <v>37</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>37</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13425,13 +13469,13 @@
         <v>37</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13482,7 +13526,7 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
@@ -13500,10 +13544,10 @@
         <v>37</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>37</v>
+        <v>557</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>91</v>
+        <v>558</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>37</v>
@@ -13517,10 +13561,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13531,10 +13575,10 @@
         <v>38</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>37</v>
@@ -13543,13 +13587,13 @@
         <v>37</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>145</v>
+        <v>414</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13576,13 +13620,13 @@
         <v>37</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>566</v>
+        <v>37</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>567</v>
+        <v>37</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>37</v>
@@ -13600,7 +13644,7 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -13635,10 +13679,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13646,7 +13690,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>48</v>
@@ -13661,17 +13705,15 @@
         <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>569</v>
+        <v>120</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>570</v>
+        <v>121</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>37</v>
@@ -13708,20 +13750,22 @@
         <v>37</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AC97" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>568</v>
+        <v>123</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>48</v>
@@ -13730,7 +13774,7 @@
         <v>37</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>37</v>
@@ -13739,7 +13783,7 @@
         <v>37</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>37</v>
@@ -13753,26 +13797,24 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>37</v>
@@ -13781,16 +13823,16 @@
         <v>37</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>570</v>
+        <v>95</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>571</v>
+        <v>127</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>572</v>
+        <v>97</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13840,19 +13882,19 @@
         <v>37</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>568</v>
+        <v>130</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>37</v>
@@ -13861,7 +13903,7 @@
         <v>37</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>37</v>
@@ -13870,49 +13912,51 @@
         <v>37</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>576</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>569</v>
+        <v>94</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>578</v>
+        <v>424</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>579</v>
+        <v>425</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>37</v>
       </c>
@@ -13960,19 +14004,19 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>577</v>
+        <v>426</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>37</v>
@@ -13993,8 +14037,844 @@
         <v>37</v>
       </c>
     </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AC103" s="2"/>
+      <c r="AD103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AP99">
+  <autoFilter ref="A1:AP106">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14004,7 +14884,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI105">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.immunization</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.immunization</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1684,7 +1684,7 @@
     <t>Immunization.reaction.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.immunizationReaction) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.immunizationReaction) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -2190,7 +2190,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="113.94140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.86328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-5:SHOULD have a translation to the NDC value set {vaccineCode.coding.where(system='http://hl7.org/fhir/sid/ndc').empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2322,16 +2326,16 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>37</v>
@@ -2340,15 +2344,15 @@
         <v>37</v>
       </c>
       <c r="AP1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2359,7 +2363,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -2368,19 +2372,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2430,13 +2434,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -2465,10 +2469,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2479,7 +2483,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -2488,16 +2492,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2548,19 +2552,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2583,10 +2587,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2597,28 +2601,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2668,19 +2672,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2703,10 +2707,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2717,7 +2721,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2729,16 +2733,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2764,13 +2768,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2788,19 +2792,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2823,21 +2827,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2849,16 +2853,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2908,19 +2912,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2929,7 +2933,7 @@
         <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>37</v>
@@ -2943,14 +2947,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2969,16 +2973,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3028,7 +3032,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -3049,7 +3053,7 @@
         <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>37</v>
@@ -3063,14 +3067,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3089,16 +3093,16 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3148,7 +3152,7 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3160,7 +3164,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -3169,7 +3173,7 @@
         <v>37</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>37</v>
@@ -3183,14 +3187,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3203,25 +3207,25 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>37</v>
@@ -3270,7 +3274,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3282,7 +3286,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -3291,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>37</v>
@@ -3305,10 +3309,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3316,13 +3320,13 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>37</v>
@@ -3331,13 +3335,13 @@
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3376,17 +3380,17 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3398,46 +3402,46 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>37</v>
@@ -3449,13 +3453,13 @@
         <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3506,7 +3510,7 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3518,22 +3522,22 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>37</v>
@@ -3541,10 +3545,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3555,7 +3559,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -3567,13 +3571,13 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3624,13 +3628,13 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
@@ -3645,7 +3649,7 @@
         <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>37</v>
@@ -3659,14 +3663,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3685,16 +3689,16 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3732,19 +3736,19 @@
         <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -3756,7 +3760,7 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -3765,7 +3769,7 @@
         <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>37</v>
@@ -3779,10 +3783,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3790,34 +3794,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -3827,7 +3831,7 @@
         <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>37</v>
@@ -3842,13 +3846,13 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -3866,28 +3870,28 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3901,10 +3905,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3915,7 +3919,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -3924,22 +3928,22 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3964,13 +3968,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -3988,28 +3992,28 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -4023,10 +4027,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4037,7 +4041,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -4046,22 +4050,22 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -4074,7 +4078,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -4110,28 +4114,28 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -4145,10 +4149,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4159,7 +4163,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -4168,19 +4172,19 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4194,7 +4198,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -4230,28 +4234,28 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -4265,10 +4269,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4279,7 +4283,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -4288,16 +4292,16 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4348,28 +4352,28 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -4383,10 +4387,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4397,7 +4401,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -4406,19 +4410,19 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4468,28 +4472,28 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4503,10 +4507,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4514,31 +4518,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4549,7 +4553,7 @@
         <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>37</v>
@@ -4564,11 +4568,11 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -4586,45 +4590,45 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4638,7 +4642,7 @@
         <v>38</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>37</v>
@@ -4647,16 +4651,16 @@
         <v>37</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4682,11 +4686,11 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4704,28 +4708,28 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4739,10 +4743,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4750,28 +4754,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4798,11 +4802,11 @@
         <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>37</v>
@@ -4820,34 +4824,34 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>37</v>
@@ -4855,10 +4859,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4869,7 +4873,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
@@ -4881,13 +4885,13 @@
         <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4938,13 +4942,13 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
@@ -4959,7 +4963,7 @@
         <v>37</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4973,14 +4977,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4999,16 +5003,16 @@
         <v>37</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5046,19 +5050,19 @@
         <v>37</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -5070,7 +5074,7 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
@@ -5079,7 +5083,7 @@
         <v>37</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -5093,10 +5097,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5116,22 +5120,22 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -5180,7 +5184,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -5192,16 +5196,16 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -5215,10 +5219,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5229,7 +5233,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -5241,13 +5245,13 @@
         <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5298,13 +5302,13 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
@@ -5319,7 +5323,7 @@
         <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -5333,14 +5337,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5359,16 +5363,16 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5406,19 +5410,19 @@
         <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5430,7 +5434,7 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
@@ -5439,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -5453,10 +5457,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5467,7 +5471,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -5476,22 +5480,22 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
@@ -5540,28 +5544,28 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5575,10 +5579,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5589,7 +5593,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -5598,19 +5602,19 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5660,28 +5664,28 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5695,10 +5699,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5709,7 +5713,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5718,20 +5722,20 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5780,28 +5784,28 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5810,15 +5814,15 @@
         <v>37</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5829,7 +5833,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -5838,20 +5842,20 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5900,28 +5904,28 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5930,15 +5934,15 @@
         <v>37</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5949,7 +5953,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5958,22 +5962,22 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -6022,28 +6026,28 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -6057,10 +6061,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6071,7 +6075,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -6080,22 +6084,22 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -6144,28 +6148,28 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -6174,44 +6178,44 @@
         <v>37</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6262,45 +6266,45 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6323,13 +6327,13 @@
         <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6380,31 +6384,31 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -6415,10 +6419,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6426,31 +6430,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6500,45 +6504,45 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6546,13 +6550,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>37</v>
@@ -6561,13 +6565,13 @@
         <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6618,45 +6622,45 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6664,31 +6668,31 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6738,45 +6742,45 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6799,16 +6803,16 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6834,13 +6838,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6858,31 +6862,31 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6893,10 +6897,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6907,7 +6911,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -6919,13 +6923,13 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6976,31 +6980,31 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -7011,10 +7015,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7025,7 +7029,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>37</v>
@@ -7037,13 +7041,13 @@
         <v>37</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7094,13 +7098,13 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
@@ -7115,7 +7119,7 @@
         <v>37</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
@@ -7129,14 +7133,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7155,16 +7159,16 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7202,19 +7206,19 @@
         <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7226,7 +7230,7 @@
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
@@ -7235,7 +7239,7 @@
         <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
@@ -7249,10 +7253,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7263,7 +7267,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -7272,19 +7276,19 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7334,19 +7338,19 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
@@ -7355,7 +7359,7 @@
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -7369,10 +7373,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7383,7 +7387,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -7392,19 +7396,19 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7430,13 +7434,13 @@
         <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -7454,19 +7458,19 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
@@ -7475,7 +7479,7 @@
         <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -7489,10 +7493,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7503,7 +7507,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -7512,19 +7516,19 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7574,19 +7578,19 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7595,7 +7599,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7609,10 +7613,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7623,28 +7627,28 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7694,19 +7698,19 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -7715,7 +7719,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7724,15 +7728,15 @@
         <v>37</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7743,10 +7747,10 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>37</v>
@@ -7755,13 +7759,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7812,45 +7816,45 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7861,10 +7865,10 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
@@ -7873,13 +7877,13 @@
         <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7930,45 +7934,45 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7991,13 +7995,13 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8048,28 +8052,28 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -8083,10 +8087,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8097,7 +8101,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -8109,13 +8113,13 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8142,13 +8146,13 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
@@ -8166,34 +8170,34 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>37</v>
@@ -8201,10 +8205,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8215,7 +8219,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -8227,13 +8231,13 @@
         <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8284,13 +8288,13 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
@@ -8305,7 +8309,7 @@
         <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -8319,14 +8323,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8345,16 +8349,16 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8392,19 +8396,19 @@
         <v>37</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8416,7 +8420,7 @@
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
@@ -8425,7 +8429,7 @@
         <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8439,10 +8443,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8462,22 +8466,22 @@
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -8526,7 +8530,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8538,16 +8542,16 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8561,10 +8565,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8575,7 +8579,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8584,22 +8588,22 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
@@ -8648,28 +8652,28 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8678,15 +8682,15 @@
         <v>37</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8709,13 +8713,13 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8742,13 +8746,13 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -8766,34 +8770,34 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>37</v>
@@ -8801,10 +8805,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8827,13 +8831,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8884,28 +8888,28 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>37</v>
@@ -8919,10 +8923,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8936,22 +8940,22 @@
         <v>39</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9002,7 +9006,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9014,16 +9018,16 @@
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -9037,10 +9041,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9051,7 +9055,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -9063,13 +9067,13 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9120,13 +9124,13 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>37</v>
@@ -9141,7 +9145,7 @@
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
@@ -9155,14 +9159,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9181,16 +9185,16 @@
         <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9240,7 +9244,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9252,7 +9256,7 @@
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
@@ -9261,7 +9265,7 @@
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -9275,14 +9279,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9295,25 +9299,25 @@
         <v>37</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -9362,7 +9366,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9374,7 +9378,7 @@
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
@@ -9383,7 +9387,7 @@
         <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -9397,10 +9401,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9411,7 +9415,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -9420,16 +9424,16 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9456,13 +9460,13 @@
         <v>37</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
@@ -9480,28 +9484,28 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9515,10 +9519,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9526,10 +9530,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
@@ -9538,19 +9542,19 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9600,45 +9604,45 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9649,25 +9653,25 @@
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9718,7 +9722,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -9730,16 +9734,16 @@
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9753,10 +9757,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9767,7 +9771,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
@@ -9779,13 +9783,13 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9836,13 +9840,13 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>37</v>
@@ -9857,7 +9861,7 @@
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9871,14 +9875,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9897,16 +9901,16 @@
         <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9944,19 +9948,19 @@
         <v>37</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -9968,7 +9972,7 @@
         <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>37</v>
@@ -9977,7 +9981,7 @@
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>37</v>
@@ -9991,10 +9995,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10005,7 +10009,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>37</v>
@@ -10014,19 +10018,19 @@
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10076,28 +10080,28 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>37</v>
@@ -10111,10 +10115,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10125,7 +10129,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -10134,16 +10138,16 @@
         <v>37</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10194,28 +10198,28 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>37</v>
@@ -10229,10 +10233,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10240,10 +10244,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>37</v>
@@ -10252,16 +10256,16 @@
         <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10312,28 +10316,28 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10342,15 +10346,15 @@
         <v>37</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10373,13 +10377,13 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10406,13 +10410,13 @@
         <v>37</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>37</v>
@@ -10430,7 +10434,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10442,16 +10446,16 @@
         <v>37</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10465,10 +10469,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10491,13 +10495,13 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10548,7 +10552,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -10560,16 +10564,16 @@
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>37</v>
@@ -10583,10 +10587,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10603,29 +10607,29 @@
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>37</v>
@@ -10670,28 +10674,28 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -10705,10 +10709,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10731,13 +10735,13 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10764,13 +10768,13 @@
         <v>37</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>37</v>
@@ -10788,7 +10792,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -10800,7 +10804,7 @@
         <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>37</v>
@@ -10809,7 +10813,7 @@
         <v>37</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10823,10 +10827,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10849,13 +10853,13 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10906,7 +10910,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -10918,7 +10922,7 @@
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>37</v>
@@ -10927,7 +10931,7 @@
         <v>37</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>37</v>
@@ -10941,10 +10945,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10955,7 +10959,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>37</v>
@@ -10967,13 +10971,13 @@
         <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11024,13 +11028,13 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>37</v>
@@ -11045,7 +11049,7 @@
         <v>37</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>37</v>
@@ -11059,14 +11063,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11085,16 +11089,16 @@
         <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11144,7 +11148,7 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11156,7 +11160,7 @@
         <v>37</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>37</v>
@@ -11165,7 +11169,7 @@
         <v>37</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>37</v>
@@ -11179,14 +11183,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11199,25 +11203,25 @@
         <v>37</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>37</v>
@@ -11266,7 +11270,7 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11278,7 +11282,7 @@
         <v>37</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>37</v>
@@ -11287,7 +11291,7 @@
         <v>37</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>37</v>
@@ -11301,10 +11305,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11315,7 +11319,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>37</v>
@@ -11327,13 +11331,13 @@
         <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11384,28 +11388,28 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>37</v>
@@ -11419,10 +11423,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11433,7 +11437,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>37</v>
@@ -11445,13 +11449,13 @@
         <v>37</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11502,19 +11506,19 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>37</v>
@@ -11523,7 +11527,7 @@
         <v>37</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>37</v>
@@ -11537,10 +11541,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11551,7 +11555,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>37</v>
@@ -11563,13 +11567,13 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11620,28 +11624,28 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>37</v>
@@ -11655,10 +11659,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11669,7 +11673,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>37</v>
@@ -11681,13 +11685,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11738,28 +11742,28 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>37</v>
@@ -11773,10 +11777,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11799,13 +11803,13 @@
         <v>37</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11832,13 +11836,13 @@
         <v>37</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>37</v>
@@ -11856,7 +11860,7 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -11868,16 +11872,16 @@
         <v>37</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>37</v>
@@ -11891,10 +11895,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11917,13 +11921,13 @@
         <v>37</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11950,13 +11954,13 @@
         <v>37</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>37</v>
@@ -11974,19 +11978,19 @@
         <v>37</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>37</v>
@@ -11995,7 +11999,7 @@
         <v>37</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>37</v>
@@ -12009,10 +12013,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12035,16 +12039,16 @@
         <v>37</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12094,7 +12098,7 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12106,16 +12110,16 @@
         <v>37</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>37</v>
@@ -12129,10 +12133,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12143,7 +12147,7 @@
         <v>38</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>37</v>
@@ -12155,13 +12159,13 @@
         <v>37</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12212,13 +12216,13 @@
         <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>37</v>
@@ -12233,7 +12237,7 @@
         <v>37</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>37</v>
@@ -12247,14 +12251,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12273,16 +12277,16 @@
         <v>37</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12332,7 +12336,7 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -12344,7 +12348,7 @@
         <v>37</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>37</v>
@@ -12353,7 +12357,7 @@
         <v>37</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>37</v>
@@ -12367,14 +12371,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12387,25 +12391,25 @@
         <v>37</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>37</v>
@@ -12454,7 +12458,7 @@
         <v>37</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
@@ -12466,7 +12470,7 @@
         <v>37</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>37</v>
@@ -12475,7 +12479,7 @@
         <v>37</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>37</v>
@@ -12489,10 +12493,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12515,13 +12519,13 @@
         <v>37</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12572,28 +12576,28 @@
         <v>37</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>37</v>
@@ -12607,10 +12611,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12621,7 +12625,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>37</v>
@@ -12633,13 +12637,13 @@
         <v>37</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12690,28 +12694,28 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>37</v>
@@ -12725,10 +12729,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12739,7 +12743,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>37</v>
@@ -12751,13 +12755,13 @@
         <v>37</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12808,13 +12812,13 @@
         <v>37</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>37</v>
@@ -12829,7 +12833,7 @@
         <v>37</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>37</v>
@@ -12843,14 +12847,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12869,16 +12873,16 @@
         <v>37</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12916,19 +12920,19 @@
         <v>37</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
@@ -12940,7 +12944,7 @@
         <v>37</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>37</v>
@@ -12949,7 +12953,7 @@
         <v>37</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>37</v>
@@ -12963,10 +12967,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12977,7 +12981,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>37</v>
@@ -12986,19 +12990,19 @@
         <v>37</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13048,19 +13052,19 @@
         <v>37</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>37</v>
@@ -13069,7 +13073,7 @@
         <v>37</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>37</v>
@@ -13078,15 +13082,15 @@
         <v>37</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13097,7 +13101,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>37</v>
@@ -13106,19 +13110,19 @@
         <v>37</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13144,13 +13148,13 @@
         <v>37</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>37</v>
@@ -13168,19 +13172,19 @@
         <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>37</v>
@@ -13189,7 +13193,7 @@
         <v>37</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>37</v>
@@ -13203,10 +13207,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13226,19 +13230,19 @@
         <v>37</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13288,19 +13292,19 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>37</v>
@@ -13309,7 +13313,7 @@
         <v>37</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>37</v>
@@ -13323,10 +13327,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13337,28 +13341,28 @@
         <v>38</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13408,19 +13412,19 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>37</v>
@@ -13429,7 +13433,7 @@
         <v>37</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>37</v>
@@ -13438,15 +13442,15 @@
         <v>37</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13469,13 +13473,13 @@
         <v>37</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13526,28 +13530,28 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>37</v>
@@ -13561,10 +13565,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13578,7 +13582,7 @@
         <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>37</v>
@@ -13587,13 +13591,13 @@
         <v>37</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13644,7 +13648,7 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -13656,7 +13660,7 @@
         <v>37</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>37</v>
@@ -13665,7 +13669,7 @@
         <v>37</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>37</v>
@@ -13679,10 +13683,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13693,7 +13697,7 @@
         <v>38</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>37</v>
@@ -13705,13 +13709,13 @@
         <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13762,13 +13766,13 @@
         <v>37</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>37</v>
@@ -13783,7 +13787,7 @@
         <v>37</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>37</v>
@@ -13797,14 +13801,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13823,16 +13827,16 @@
         <v>37</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13882,7 +13886,7 @@
         <v>37</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>38</v>
@@ -13894,7 +13898,7 @@
         <v>37</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>37</v>
@@ -13903,7 +13907,7 @@
         <v>37</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>37</v>
@@ -13917,14 +13921,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13937,25 +13941,25 @@
         <v>37</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>37</v>
@@ -14004,7 +14008,7 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>38</v>
@@ -14016,7 +14020,7 @@
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>37</v>
@@ -14025,7 +14029,7 @@
         <v>37</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>37</v>
@@ -14039,10 +14043,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14053,10 +14057,10 @@
         <v>38</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>37</v>
@@ -14065,13 +14069,13 @@
         <v>37</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14122,19 +14126,19 @@
         <v>37</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>37</v>
@@ -14143,7 +14147,7 @@
         <v>37</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>37</v>
@@ -14152,15 +14156,15 @@
         <v>37</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14183,13 +14187,13 @@
         <v>37</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14240,19 +14244,19 @@
         <v>37</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>37</v>
@@ -14261,7 +14265,7 @@
         <v>37</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>37</v>
@@ -14275,10 +14279,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14301,13 +14305,13 @@
         <v>37</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14334,13 +14338,13 @@
         <v>37</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>37</v>
@@ -14358,7 +14362,7 @@
         <v>37</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>38</v>
@@ -14370,7 +14374,7 @@
         <v>37</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>37</v>
@@ -14379,7 +14383,7 @@
         <v>37</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>37</v>
@@ -14393,10 +14397,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14404,10 +14408,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>37</v>
@@ -14419,16 +14423,16 @@
         <v>37</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14466,29 +14470,29 @@
         <v>37</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>37</v>
@@ -14497,7 +14501,7 @@
         <v>37</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>37</v>
@@ -14511,13 +14515,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>37</v>
@@ -14527,10 +14531,10 @@
         <v>38</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>37</v>
@@ -14539,16 +14543,16 @@
         <v>37</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14598,19 +14602,19 @@
         <v>37</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>37</v>
@@ -14619,7 +14623,7 @@
         <v>37</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>37</v>
@@ -14628,18 +14632,18 @@
         <v>37</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>37</v>
@@ -14661,16 +14665,16 @@
         <v>37</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14720,19 +14724,19 @@
         <v>37</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>37</v>
@@ -14741,7 +14745,7 @@
         <v>37</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>37</v>
@@ -14755,10 +14759,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14781,16 +14785,16 @@
         <v>37</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14840,19 +14844,19 @@
         <v>37</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>37</v>
@@ -14861,7 +14865,7 @@
         <v>37</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>37</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="588">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1047,7 +1047,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1069,13 +1069,568 @@
     <t>FiveWs.where[x]</t>
   </si>
   <si>
-    <t>Immunization.location.id</t>
-  </si>
-  <si>
-    <t>Immunization.location.extension</t>
-  </si>
-  <si>
-    <t>Immunization.location.reference</t>
+    <t>GetLocation(ImmunizationTO.encounter.location)</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t>Vaccine manufacturer</t>
+  </si>
+  <si>
+    <t>Name of vaccine manufacturer.</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>ImmunizationTO.manufacture</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
+    <t>Vaccine lot number</t>
+  </si>
+  <si>
+    <t>Lot number of the  vaccine product.</t>
+  </si>
+  <si>
+    <t>RXA-15</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
+  </si>
+  <si>
+    <t>ImmunizationTO.lotNumber</t>
+  </si>
+  <si>
+    <t>Immunization.expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Vaccine expiration date</t>
+  </si>
+  <si>
+    <t>Date vaccine batch expires.</t>
+  </si>
+  <si>
+    <t>RXA-16</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
+  </si>
+  <si>
+    <t>Immunization.site</t>
+  </si>
+  <si>
+    <t>Body site vaccine  was administered</t>
+  </si>
+  <si>
+    <t>Body site where vaccine was administered.</t>
+  </si>
+  <si>
+    <t>The site at which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>observation.targetSiteCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.site.id</t>
+  </si>
+  <si>
+    <t>Immunization.site.extension</t>
+  </si>
+  <si>
+    <t>Immunization.site.coding</t>
+  </si>
+  <si>
+    <t>Immunization.site.text</t>
+  </si>
+  <si>
+    <t>ImmunizationTO.anatomicSurface</t>
+  </si>
+  <si>
+    <t>Immunization.route</t>
+  </si>
+  <si>
+    <t>How vaccine entered body</t>
+  </si>
+  <si>
+    <t>The path by which the vaccine product is taken into the body.</t>
+  </si>
+  <si>
+    <t>The route by which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Amount of vaccine administered</t>
+  </si>
+  <si>
+    <t>The quantity of vaccine product that was administered.</t>
+  </si>
+  <si>
+    <t>RXA-6 / RXA-7</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>Immunization.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who performed event</t>
+  </si>
+  <si>
+    <t>Indicates who performed the immunization event.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>ORC-12 / RXA-10</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>Immunization.performer.id</t>
+  </si>
+  <si>
+    <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.function</t>
+  </si>
+  <si>
+    <t>What type of performance was done</t>
+  </si>
+  <si>
+    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>The role a practitioner or organization plays in the immunization event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.participation.functionCode</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>GetOrganization(ImmunizationTO.encounter.facility)</t>
+  </si>
+  <si>
+    <t>GetOrganization(ImmunizationTO.encounter.facility.name)</t>
+  </si>
+  <si>
+    <t>Immunization.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional immunization notes</t>
+  </si>
+  <si>
+    <t>Extra information about the immunization that is not conveyed by the other attributes.</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 48767-8</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Immunization.note.id</t>
+  </si>
+  <si>
+    <t>Immunization.note.extension</t>
+  </si>
+  <si>
+    <t>Immunization.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>Immunization.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Immunization.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
+    <t>ImmunizationTO.comments</t>
+  </si>
+  <si>
+    <t>Immunization.reasonCode</t>
+  </si>
+  <si>
+    <t>Why immunization occurred</t>
+  </si>
+  <si>
+    <t>Reasons why the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>[actionNegationInd=false].reasonCode</t>
+  </si>
+  <si>
+    <t>Immunization.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+</t>
+  </si>
+  <si>
+    <t>Condition, Observation or DiagnosticReport that supports why the immunization was administered.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>Immunization.isSubpotent</t>
+  </si>
+  <si>
+    <t>Dose potency</t>
+  </si>
+  <si>
+    <t>Indication if a dose is considered to be subpotent. By default, a dose should be considered to be potent.</t>
+  </si>
+  <si>
+    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
+  </si>
+  <si>
+    <t>By default, a dose should be considered to be potent.</t>
+  </si>
+  <si>
+    <t>RXA-20 = PA (partial administration)</t>
+  </si>
+  <si>
+    <t>Immunization.subpotentReason</t>
+  </si>
+  <si>
+    <t>Reason for being subpotent</t>
+  </si>
+  <si>
+    <t>Reason why a dose is considered to be subpotent.</t>
+  </si>
+  <si>
+    <t>The reason why a dose is considered to be subpotent.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+  </si>
+  <si>
+    <t>Immunization.education</t>
+  </si>
+  <si>
+    <t>Educational material presented to patient</t>
+  </si>
+  <si>
+    <t>Educational material presented to the patient (or guardian) at the time of vaccine administration.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
+  </si>
+  <si>
+    <t>Immunization.education.id</t>
+  </si>
+  <si>
+    <t>Immunization.education.extension</t>
+  </si>
+  <si>
+    <t>Immunization.education.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.education.documentType</t>
+  </si>
+  <si>
+    <t>Educational material document identifier</t>
+  </si>
+  <si>
+    <t>Identifier of the material presented to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 69764-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.reference</t>
+  </si>
+  <si>
+    <t>Educational material reference pointer</t>
+  </si>
+  <si>
+    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
+  </si>
+  <si>
+    <t>Immunization.education.publicationDate</t>
+  </si>
+  <si>
+    <t>Educational material publication date</t>
+  </si>
+  <si>
+    <t>Date the educational material was published.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29768-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.presentationDate</t>
+  </si>
+  <si>
+    <t>Educational material presentation date</t>
+  </si>
+  <si>
+    <t>Date the educational material was given to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29769-7</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility</t>
+  </si>
+  <si>
+    <t>Patient eligibility for a vaccination program</t>
+  </si>
+  <si>
+    <t>Indicates a patient's eligibility for a funding program.</t>
+  </si>
+  <si>
+    <t>The patient's eligibility for a vaccation program.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 64994-7</t>
+  </si>
+  <si>
+    <t>Immunization.fundingSource</t>
+  </si>
+  <si>
+    <t>Funding source for the vaccine</t>
+  </si>
+  <si>
+    <t>Indicates the source of the vaccine actually administered. This may be different than the patient eligibility (e.g. the patient may be eligible for a publically purchased vaccine but due to inventory issues, vaccine purchased with private funds was actually administered).</t>
+  </si>
+  <si>
+    <t>The source of funding used to purchase the vaccine administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+  </si>
+  <si>
+    <t>Immunization.reaction</t>
+  </si>
+  <si>
+    <t>Details of a reaction that follows immunization</t>
+  </si>
+  <si>
+    <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
+  </si>
+  <si>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>Observation[classCode=obs].code</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.id</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.date</t>
+  </si>
+  <si>
+    <t>When reaction started</t>
+  </si>
+  <si>
+    <t>Date of reaction to the immunization.</t>
+  </si>
+  <si>
+    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.immunizationReaction) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Additional information on reaction</t>
+  </si>
+  <si>
+    <t>Details of the reaction.</t>
+  </si>
+  <si>
+    <t>OBX-5</t>
+  </si>
+  <si>
+    <t>.value</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.id</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -1094,7 +1649,10 @@
 </t>
   </si>
   <si>
-    <t>Immunization.location.type</t>
+    <t>contained Observation with ImmunizationTO.reaction</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -1116,7 +1674,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Immunization.location.identifier</t>
+    <t>Immunization.reaction.detail.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1137,10 +1695,10 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>Immunization.location.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
+    <t>Immunization.reaction.detail.display</t>
+  </si>
+  <si>
+    <t>may be `YES (DO NOT REPEAT THIS VACCINE)`</t>
   </si>
   <si>
     <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
@@ -1150,582 +1708,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.encounter.location.name</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t>Vaccine manufacturer</t>
-  </si>
-  <si>
-    <t>Name of vaccine manufacturer.</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.manufacture</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
-  </si>
-  <si>
-    <t>Vaccine lot number</t>
-  </si>
-  <si>
-    <t>Lot number of the  vaccine product.</t>
-  </si>
-  <si>
-    <t>RXA-15</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.lotNumber</t>
-  </si>
-  <si>
-    <t>Immunization.expirationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>Vaccine expiration date</t>
-  </si>
-  <si>
-    <t>Date vaccine batch expires.</t>
-  </si>
-  <si>
-    <t>RXA-16</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
-  </si>
-  <si>
-    <t>Immunization.site</t>
-  </si>
-  <si>
-    <t>Body site vaccine  was administered</t>
-  </si>
-  <si>
-    <t>Body site where vaccine was administered.</t>
-  </si>
-  <si>
-    <t>The site at which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>observation.targetSiteCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.site.id</t>
-  </si>
-  <si>
-    <t>Immunization.site.extension</t>
-  </si>
-  <si>
-    <t>Immunization.site.coding</t>
-  </si>
-  <si>
-    <t>Immunization.site.text</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.anatomicSurface</t>
-  </si>
-  <si>
-    <t>Immunization.route</t>
-  </si>
-  <si>
-    <t>How vaccine entered body</t>
-  </si>
-  <si>
-    <t>The path by which the vaccine product is taken into the body.</t>
-  </si>
-  <si>
-    <t>The route by which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Amount of vaccine administered</t>
-  </si>
-  <si>
-    <t>The quantity of vaccine product that was administered.</t>
-  </si>
-  <si>
-    <t>RXA-6 / RXA-7</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>Immunization.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who performed event</t>
-  </si>
-  <si>
-    <t>Indicates who performed the immunization event.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>ORC-12 / RXA-10</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Immunization.performer.id</t>
-  </si>
-  <si>
-    <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.function</t>
-  </si>
-  <si>
-    <t>What type of performance was done</t>
-  </si>
-  <si>
-    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
-  </si>
-  <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.participation.functionCode</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Individual or organization who was performing</t>
-  </si>
-  <si>
-    <t>The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>GetOrganization(ImmunizationTO.encounter.facility.name)</t>
-  </si>
-  <si>
-    <t>Immunization.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Additional immunization notes</t>
-  </si>
-  <si>
-    <t>Extra information about the immunization that is not conveyed by the other attributes.</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 48767-8</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Immunization.note.id</t>
-  </si>
-  <si>
-    <t>Immunization.note.extension</t>
-  </si>
-  <si>
-    <t>Immunization.note.author[x]</t>
-  </si>
-  <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
-string</t>
-  </si>
-  <si>
-    <t>Individual responsible for the annotation</t>
-  </si>
-  <si>
-    <t>The individual responsible for making the annotation.</t>
-  </si>
-  <si>
-    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
-  </si>
-  <si>
-    <t>Annotation.author[x]</t>
-  </si>
-  <si>
-    <t>Act.participant[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>Immunization.note.time</t>
-  </si>
-  <si>
-    <t>When the annotation was made</t>
-  </si>
-  <si>
-    <t>Indicates when this particular annotation was made.</t>
-  </si>
-  <si>
-    <t>Annotation.time</t>
-  </si>
-  <si>
-    <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>Immunization.note.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>The annotation  - text content (as markdown)</t>
-  </si>
-  <si>
-    <t>The text of the annotation in markdown format.</t>
-  </si>
-  <si>
-    <t>Annotation.text</t>
-  </si>
-  <si>
-    <t>Act.text</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.comments</t>
-  </si>
-  <si>
-    <t>Immunization.reasonCode</t>
-  </si>
-  <si>
-    <t>Why immunization occurred</t>
-  </si>
-  <si>
-    <t>Reasons why the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>[actionNegationInd=false].reasonCode</t>
-  </si>
-  <si>
-    <t>Immunization.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
-</t>
-  </si>
-  <si>
-    <t>Condition, Observation or DiagnosticReport that supports why the immunization was administered.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>Immunization.isSubpotent</t>
-  </si>
-  <si>
-    <t>Dose potency</t>
-  </si>
-  <si>
-    <t>Indication if a dose is considered to be subpotent. By default, a dose should be considered to be potent.</t>
-  </si>
-  <si>
-    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
-  </si>
-  <si>
-    <t>By default, a dose should be considered to be potent.</t>
-  </si>
-  <si>
-    <t>RXA-20 = PA (partial administration)</t>
-  </si>
-  <si>
-    <t>Immunization.subpotentReason</t>
-  </si>
-  <si>
-    <t>Reason for being subpotent</t>
-  </si>
-  <si>
-    <t>Reason why a dose is considered to be subpotent.</t>
-  </si>
-  <si>
-    <t>The reason why a dose is considered to be subpotent.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
-  </si>
-  <si>
-    <t>Immunization.education</t>
-  </si>
-  <si>
-    <t>Educational material presented to patient</t>
-  </si>
-  <si>
-    <t>Educational material presented to the patient (or guardian) at the time of vaccine administration.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
-  </si>
-  <si>
-    <t>Immunization.education.id</t>
-  </si>
-  <si>
-    <t>Immunization.education.extension</t>
-  </si>
-  <si>
-    <t>Immunization.education.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.education.documentType</t>
-  </si>
-  <si>
-    <t>Educational material document identifier</t>
-  </si>
-  <si>
-    <t>Identifier of the material presented to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 69764-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.reference</t>
-  </si>
-  <si>
-    <t>Educational material reference pointer</t>
-  </si>
-  <si>
-    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
-  </si>
-  <si>
-    <t>Immunization.education.publicationDate</t>
-  </si>
-  <si>
-    <t>Educational material publication date</t>
-  </si>
-  <si>
-    <t>Date the educational material was published.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29768-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.presentationDate</t>
-  </si>
-  <si>
-    <t>Educational material presentation date</t>
-  </si>
-  <si>
-    <t>Date the educational material was given to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29769-7</t>
-  </si>
-  <si>
-    <t>Immunization.programEligibility</t>
-  </si>
-  <si>
-    <t>Patient eligibility for a vaccination program</t>
-  </si>
-  <si>
-    <t>Indicates a patient's eligibility for a funding program.</t>
-  </si>
-  <si>
-    <t>The patient's eligibility for a vaccation program.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 64994-7</t>
-  </si>
-  <si>
-    <t>Immunization.fundingSource</t>
-  </si>
-  <si>
-    <t>Funding source for the vaccine</t>
-  </si>
-  <si>
-    <t>Indicates the source of the vaccine actually administered. This may be different than the patient eligibility (e.g. the patient may be eligible for a publically purchased vaccine but due to inventory issues, vaccine purchased with private funds was actually administered).</t>
-  </si>
-  <si>
-    <t>The source of funding used to purchase the vaccine administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
-  </si>
-  <si>
-    <t>Immunization.reaction</t>
-  </si>
-  <si>
-    <t>Details of a reaction that follows immunization</t>
-  </si>
-  <si>
-    <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
-  </si>
-  <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>Observation[classCode=obs].code</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.id</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.date</t>
-  </si>
-  <si>
-    <t>When reaction started</t>
-  </si>
-  <si>
-    <t>Date of reaction to the immunization.</t>
-  </si>
-  <si>
-    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.immunizationReaction) &lt;&lt;contained&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>Additional information on reaction</t>
-  </si>
-  <si>
-    <t>Details of the reaction.</t>
-  </si>
-  <si>
-    <t>OBX-5</t>
-  </si>
-  <si>
-    <t>.value</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.id</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.reference</t>
-  </si>
-  <si>
-    <t>contained Observation with ImmunizationTO.reaction</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.type</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.display</t>
-  </si>
-  <si>
-    <t>may be `YES (DO NOT REPEAT THIS VACCINE)`</t>
   </si>
   <si>
     <t>if a ImmunizationTO.contraindicated=1 and no ImmunizationTo.reaction, then `YES (DO NOT REPEAT THIS VACCINE)`</t>
@@ -2176,7 +2158,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP106"/>
+  <dimension ref="A1:AQ100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2225,6 +2207,7 @@
     <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="158.01171875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="105.203125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="53.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2346,6 +2329,9 @@
       <c r="AP1" t="s" s="2">
         <v>47</v>
       </c>
+      <c r="AQ1" t="s" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -2466,6 +2452,9 @@
       <c r="AP2" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ2" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
@@ -2584,6 +2573,9 @@
       <c r="AP3" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ3" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
@@ -2704,6 +2696,9 @@
       <c r="AP4" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ4" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
@@ -2824,6 +2819,9 @@
       <c r="AP5" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ5" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
@@ -2944,6 +2942,9 @@
       <c r="AP6" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ6" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
@@ -3064,6 +3065,9 @@
       <c r="AP7" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ7" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
@@ -3184,6 +3188,9 @@
       <c r="AP8" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ8" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
@@ -3306,6 +3313,9 @@
       <c r="AP9" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ9" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
@@ -3422,6 +3432,9 @@
       <c r="AP10" t="s" s="2">
         <v>116</v>
       </c>
+      <c r="AQ10" t="s" s="2">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
@@ -3542,6 +3555,9 @@
       <c r="AP11" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ11" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
@@ -3660,6 +3676,9 @@
       <c r="AP12" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ12" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
@@ -3780,6 +3799,9 @@
       <c r="AP13" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ13" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
@@ -3902,6 +3924,9 @@
       <c r="AP14" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ14" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
@@ -4024,6 +4049,9 @@
       <c r="AP15" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ15" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
@@ -4146,6 +4174,9 @@
       <c r="AP16" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ16" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
@@ -4266,6 +4297,9 @@
       <c r="AP17" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ17" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
@@ -4384,6 +4418,9 @@
       <c r="AP18" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ18" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
@@ -4504,6 +4541,9 @@
       <c r="AP19" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ19" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
@@ -4622,6 +4662,9 @@
       <c r="AP20" t="s" s="2">
         <v>202</v>
       </c>
+      <c r="AQ20" t="s" s="2">
+        <v>202</v>
+      </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
@@ -4740,6 +4783,9 @@
       <c r="AP21" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ21" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
@@ -4856,6 +4902,9 @@
       <c r="AP22" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ22" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
@@ -4974,6 +5023,9 @@
       <c r="AP23" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ23" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
@@ -5094,6 +5146,9 @@
       <c r="AP24" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ24" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
@@ -5216,6 +5271,9 @@
       <c r="AP25" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ25" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
@@ -5334,6 +5392,9 @@
       <c r="AP26" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ26" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
@@ -5454,6 +5515,9 @@
       <c r="AP27" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ27" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
@@ -5576,6 +5640,9 @@
       <c r="AP28" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ28" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
@@ -5696,6 +5763,9 @@
       <c r="AP29" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ29" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
@@ -5816,6 +5886,9 @@
       <c r="AP30" t="s" s="2">
         <v>256</v>
       </c>
+      <c r="AQ30" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
@@ -5936,6 +6009,9 @@
       <c r="AP31" t="s" s="2">
         <v>264</v>
       </c>
+      <c r="AQ31" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
@@ -6058,6 +6134,9 @@
       <c r="AP32" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ32" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
@@ -6180,6 +6259,9 @@
       <c r="AP33" t="s" s="2">
         <v>282</v>
       </c>
+      <c r="AQ33" t="s" s="2">
+        <v>282</v>
+      </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
@@ -6298,6 +6380,9 @@
       <c r="AP34" t="s" s="2">
         <v>292</v>
       </c>
+      <c r="AQ34" t="s" s="2">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
@@ -6416,6 +6501,9 @@
       <c r="AP35" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ35" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
@@ -6536,6 +6624,9 @@
       <c r="AP36" t="s" s="2">
         <v>311</v>
       </c>
+      <c r="AQ36" t="s" s="2">
+        <v>311</v>
+      </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
@@ -6654,6 +6745,9 @@
       <c r="AP37" t="s" s="2">
         <v>311</v>
       </c>
+      <c r="AQ37" t="s" s="2">
+        <v>311</v>
+      </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
@@ -6774,6 +6868,9 @@
       <c r="AP38" t="s" s="2">
         <v>324</v>
       </c>
+      <c r="AQ38" t="s" s="2">
+        <v>324</v>
+      </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
@@ -6894,6 +6991,9 @@
       <c r="AP39" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ39" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
@@ -6914,7 +7014,7 @@
         <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>37</v>
@@ -7010,15 +7110,18 @@
         <v>37</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>37</v>
+        <v>340</v>
+      </c>
+      <c r="AQ40" t="s" s="2">
+        <v>340</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7032,7 +7135,7 @@
         <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
@@ -7041,13 +7144,13 @@
         <v>37</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>123</v>
+        <v>343</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7098,7 +7201,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>124</v>
+        <v>341</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7110,47 +7213,50 @@
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="AP41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AQ41" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>37</v>
@@ -7159,17 +7265,15 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>96</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -7206,57 +7310,60 @@
         <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="AP42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7267,7 +7374,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -7276,20 +7383,18 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>121</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>37</v>
@@ -7338,7 +7443,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7347,7 +7452,7 @@
         <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>61</v>
@@ -7356,10 +7461,10 @@
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>92</v>
+        <v>360</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -7368,15 +7473,18 @@
         <v>37</v>
       </c>
       <c r="AP43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ43" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7396,20 +7504,18 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -7434,13 +7540,13 @@
         <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -7458,7 +7564,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7476,27 +7582,30 @@
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>92</v>
+        <v>367</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>37</v>
+        <v>368</v>
       </c>
       <c r="AP44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ44" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7516,20 +7625,18 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7578,7 +7685,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>124</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7590,7 +7697,7 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7599,7 +7706,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>125</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7608,47 +7715,50 @@
         <v>37</v>
       </c>
       <c r="AP45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7686,31 +7796,31 @@
         <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -7719,7 +7829,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7728,15 +7838,18 @@
         <v>37</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
+      </c>
+      <c r="AQ46" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7747,28 +7860,32 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
       </c>
@@ -7816,13 +7933,13 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>229</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
@@ -7834,27 +7951,30 @@
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>231</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>372</v>
+        <v>37</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>373</v>
+        <v>37</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7868,25 +7988,29 @@
         <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>37</v>
       </c>
@@ -7934,7 +8058,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>279</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7952,27 +8076,30 @@
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>378</v>
+        <v>281</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>379</v>
+        <v>37</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7995,13 +8122,13 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>146</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8028,13 +8155,13 @@
         <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>37</v>
+        <v>378</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>37</v>
@@ -8052,7 +8179,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8070,27 +8197,30 @@
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="AP49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8101,7 +8231,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -8113,13 +8243,13 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>146</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8146,13 +8276,13 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
@@ -8170,7 +8300,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8188,27 +8318,30 @@
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>394</v>
+        <v>37</v>
       </c>
       <c r="AP50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8219,25 +8352,25 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>121</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>122</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>123</v>
+        <v>391</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8288,28 +8421,28 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>124</v>
+        <v>388</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>37</v>
+        <v>392</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>125</v>
+        <v>394</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -8318,26 +8451,29 @@
         <v>37</v>
       </c>
       <c r="AP51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -8349,17 +8485,15 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8396,31 +8530,31 @@
         <v>37</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
@@ -8438,19 +8572,22 @@
         <v>37</v>
       </c>
       <c r="AP52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8466,23 +8603,21 @@
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
@@ -8530,7 +8665,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8542,16 +8677,16 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8560,50 +8695,53 @@
         <v>37</v>
       </c>
       <c r="AP53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>275</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>276</v>
+        <v>400</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>277</v>
+        <v>98</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
@@ -8652,28 +8790,28 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8682,15 +8820,18 @@
         <v>37</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>399</v>
+        <v>37</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8701,7 +8842,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -8710,16 +8851,16 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8746,13 +8887,13 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -8770,7 +8911,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8785,30 +8926,33 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>405</v>
+        <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>407</v>
+        <v>37</v>
       </c>
       <c r="AP55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8816,10 +8960,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>37</v>
@@ -8828,18 +8972,20 @@
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8888,10 +9034,10 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>49</v>
@@ -8903,30 +9049,33 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>412</v>
+        <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>37</v>
+        <v>417</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
+        <v>418</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8937,7 +9086,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>50</v>
@@ -8949,13 +9098,13 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9006,7 +9155,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9021,13 +9170,13 @@
         <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -9036,15 +9185,18 @@
         <v>37</v>
       </c>
       <c r="AP57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9156,13 +9308,16 @@
       <c r="AP58" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AQ58" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9232,16 +9387,16 @@
         <v>37</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>131</v>
@@ -9274,51 +9429,52 @@
         <v>37</v>
       </c>
       <c r="AP59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>95</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
       </c>
@@ -9366,28 +9522,28 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>92</v>
+        <v>434</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -9396,15 +9552,18 @@
         <v>37</v>
       </c>
       <c r="AP60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9427,13 +9586,13 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9460,13 +9619,13 @@
         <v>37</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>431</v>
+        <v>37</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
@@ -9484,7 +9643,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9499,13 +9658,13 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>433</v>
+        <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9514,15 +9673,18 @@
         <v>37</v>
       </c>
       <c r="AP61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9545,17 +9707,15 @@
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9604,7 +9764,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>49</v>
@@ -9619,30 +9779,33 @@
         <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>442</v>
+        <v>37</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
+        <v>446</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9653,25 +9816,25 @@
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>445</v>
+        <v>146</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9698,13 +9861,13 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>37</v>
+        <v>451</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
@@ -9722,7 +9885,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -9737,13 +9900,13 @@
         <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>449</v>
+        <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9752,15 +9915,18 @@
         <v>37</v>
       </c>
       <c r="AP63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9771,7 +9937,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
@@ -9783,13 +9949,13 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>121</v>
+        <v>455</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>122</v>
+        <v>448</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>123</v>
+        <v>456</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9840,28 +10006,28 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>124</v>
+        <v>454</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>37</v>
+        <v>457</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9870,53 +10036,58 @@
         <v>37</v>
       </c>
       <c r="AP64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>96</v>
+        <v>459</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>128</v>
+        <v>460</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>98</v>
+        <v>461</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="R65" t="s" s="2">
         <v>37</v>
       </c>
@@ -9948,40 +10119,40 @@
         <v>37</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>131</v>
+        <v>458</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>37</v>
+        <v>463</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>37</v>
@@ -9990,15 +10161,18 @@
         <v>37</v>
       </c>
       <c r="AP65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10009,7 +10183,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>37</v>
@@ -10018,20 +10192,18 @@
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>454</v>
+        <v>146</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>37</v>
@@ -10056,13 +10228,13 @@
         <v>37</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>37</v>
+        <v>467</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>37</v>
@@ -10080,13 +10252,13 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>37</v>
@@ -10098,11 +10270,11 @@
         <v>37</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AM66" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AN66" t="s" s="2">
         <v>37</v>
       </c>
@@ -10110,15 +10282,18 @@
         <v>37</v>
       </c>
       <c r="AP66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10129,7 +10304,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -10138,16 +10313,16 @@
         <v>37</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10198,29 +10373,29 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>472</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AM67" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AN67" t="s" s="2">
         <v>37</v>
       </c>
@@ -10228,15 +10403,18 @@
         <v>37</v>
       </c>
       <c r="AP67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10244,7 +10422,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>49</v>
@@ -10256,16 +10434,16 @@
         <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>466</v>
+        <v>121</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>467</v>
+        <v>122</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>468</v>
+        <v>123</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10316,10 +10494,10 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>469</v>
+        <v>124</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>49</v>
@@ -10328,16 +10506,16 @@
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>470</v>
+        <v>125</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10346,26 +10524,29 @@
         <v>37</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>471</v>
+        <v>37</v>
+      </c>
+      <c r="AQ68" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -10377,15 +10558,17 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>473</v>
+        <v>96</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -10410,13 +10593,13 @@
         <v>37</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>475</v>
+        <v>37</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>476</v>
+        <v>37</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>37</v>
@@ -10434,7 +10617,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>472</v>
+        <v>131</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10446,16 +10629,16 @@
         <v>37</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>477</v>
+        <v>37</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>478</v>
+        <v>125</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10464,47 +10647,54 @@
         <v>37</v>
       </c>
       <c r="AP69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ69" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>480</v>
+        <v>95</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>37</v>
       </c>
@@ -10552,7 +10742,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>479</v>
+        <v>401</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -10564,10 +10754,10 @@
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>37</v>
@@ -10582,15 +10772,18 @@
         <v>37</v>
       </c>
       <c r="AP70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ70" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10601,36 +10794,32 @@
         <v>38</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q71" t="s" s="2">
-        <v>487</v>
-      </c>
+      <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
         <v>37</v>
       </c>
@@ -10674,7 +10863,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -10692,7 +10881,7 @@
         <v>37</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>92</v>
@@ -10704,15 +10893,18 @@
         <v>37</v>
       </c>
       <c r="AP71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ71" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10723,7 +10915,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>37</v>
@@ -10735,13 +10927,13 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10768,13 +10960,13 @@
         <v>37</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>492</v>
+        <v>37</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>493</v>
+        <v>37</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>37</v>
@@ -10792,13 +10984,13 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>37</v>
@@ -10822,15 +11014,18 @@
         <v>37</v>
       </c>
       <c r="AP72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ72" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10841,7 +11036,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -10853,13 +11048,13 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>415</v>
+        <v>302</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10910,25 +11105,25 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>497</v>
+        <v>61</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>37</v>
+        <v>486</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>92</v>
@@ -10940,15 +11135,18 @@
         <v>37</v>
       </c>
       <c r="AP73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10971,13 +11169,13 @@
         <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>122</v>
+        <v>488</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>123</v>
+        <v>489</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11028,7 +11226,7 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>124</v>
+        <v>487</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -11040,16 +11238,16 @@
         <v>37</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>37</v>
+        <v>490</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>37</v>
@@ -11058,26 +11256,29 @@
         <v>37</v>
       </c>
       <c r="AP74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>37</v>
@@ -11089,17 +11290,15 @@
         <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>96</v>
+        <v>492</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>37</v>
@@ -11124,13 +11323,13 @@
         <v>37</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>37</v>
+        <v>494</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>37</v>
+        <v>495</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>37</v>
@@ -11148,7 +11347,7 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>131</v>
+        <v>491</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11160,16 +11359,16 @@
         <v>37</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>37</v>
+        <v>496</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>37</v>
@@ -11178,51 +11377,50 @@
         <v>37</v>
       </c>
       <c r="AP75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>37</v>
       </c>
@@ -11246,13 +11444,13 @@
         <v>37</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>37</v>
+        <v>500</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>37</v>
+        <v>501</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>37</v>
@@ -11270,19 +11468,19 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>37</v>
@@ -11300,15 +11498,18 @@
         <v>37</v>
       </c>
       <c r="AP76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ76" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11319,7 +11520,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>37</v>
@@ -11331,15 +11532,17 @@
         <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>121</v>
+        <v>389</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>37</v>
@@ -11388,13 +11591,13 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>37</v>
@@ -11406,10 +11609,10 @@
         <v>37</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>92</v>
+        <v>507</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>37</v>
@@ -11418,15 +11621,18 @@
         <v>37</v>
       </c>
       <c r="AP77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ77" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11449,13 +11655,13 @@
         <v>37</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>506</v>
+        <v>122</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>507</v>
+        <v>123</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11506,7 +11712,7 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>505</v>
+        <v>124</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -11518,7 +11724,7 @@
         <v>37</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>37</v>
@@ -11527,7 +11733,7 @@
         <v>37</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>37</v>
@@ -11536,26 +11742,29 @@
         <v>37</v>
       </c>
       <c r="AP78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ78" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>37</v>
@@ -11567,15 +11776,17 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>509</v>
+        <v>96</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>37</v>
@@ -11624,28 +11835,28 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>508</v>
+        <v>131</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>511</v>
+        <v>37</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>37</v>
@@ -11654,47 +11865,54 @@
         <v>37</v>
       </c>
       <c r="AP79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ79" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>513</v>
+        <v>399</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>37</v>
       </c>
@@ -11742,25 +11960,25 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>512</v>
+        <v>401</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>515</v>
+        <v>37</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>92</v>
@@ -11772,15 +11990,18 @@
         <v>37</v>
       </c>
       <c r="AP80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ80" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11803,13 +12024,13 @@
         <v>37</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11836,13 +12057,13 @@
         <v>37</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>519</v>
+        <v>37</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>520</v>
+        <v>37</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>37</v>
@@ -11860,13 +12081,13 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>37</v>
@@ -11878,10 +12099,10 @@
         <v>37</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>37</v>
@@ -11890,15 +12111,18 @@
         <v>37</v>
       </c>
       <c r="AP81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ81" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11909,7 +12133,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>37</v>
@@ -11921,13 +12145,13 @@
         <v>37</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>146</v>
+        <v>516</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11954,13 +12178,13 @@
         <v>37</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>525</v>
+        <v>37</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>526</v>
+        <v>37</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>37</v>
@@ -11978,7 +12202,7 @@
         <v>37</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -11996,10 +12220,10 @@
         <v>37</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>37</v>
+        <v>519</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>92</v>
+        <v>520</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>37</v>
@@ -12008,15 +12232,18 @@
         <v>37</v>
       </c>
       <c r="AP82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ82" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12027,7 +12254,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>37</v>
@@ -12039,17 +12266,15 @@
         <v>37</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>415</v>
+        <v>121</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>528</v>
+        <v>122</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>37</v>
@@ -12098,28 +12323,28 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>527</v>
+        <v>124</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>531</v>
+        <v>37</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>532</v>
+        <v>125</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>37</v>
@@ -12128,26 +12353,29 @@
         <v>37</v>
       </c>
       <c r="AP83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ83" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>37</v>
@@ -12159,15 +12387,17 @@
         <v>37</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>37</v>
@@ -12204,31 +12434,31 @@
         <v>37</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>37</v>
@@ -12246,26 +12476,29 @@
         <v>37</v>
       </c>
       <c r="AP84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ84" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>37</v>
@@ -12274,19 +12507,19 @@
         <v>37</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>96</v>
+        <v>524</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>128</v>
+        <v>525</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>98</v>
+        <v>526</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12336,19 +12569,19 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>131</v>
+        <v>527</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>37</v>
+        <v>528</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>37</v>
@@ -12357,7 +12590,7 @@
         <v>37</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>37</v>
@@ -12366,51 +12599,52 @@
         <v>37</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>37</v>
+        <v>529</v>
+      </c>
+      <c r="AQ85" t="s" s="2">
+        <v>529</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>425</v>
+        <v>531</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>426</v>
+        <v>532</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>37</v>
       </c>
@@ -12434,13 +12668,13 @@
         <v>37</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>37</v>
+        <v>534</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>37</v>
+        <v>535</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>37</v>
@@ -12458,19 +12692,19 @@
         <v>37</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>427</v>
+        <v>536</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>37</v>
@@ -12488,15 +12722,18 @@
         <v>37</v>
       </c>
       <c r="AP86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ86" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12516,18 +12753,20 @@
         <v>37</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>37</v>
@@ -12576,7 +12815,7 @@
         <v>37</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -12594,10 +12833,10 @@
         <v>37</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>539</v>
+        <v>37</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>308</v>
+        <v>542</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>37</v>
@@ -12606,15 +12845,18 @@
         <v>37</v>
       </c>
       <c r="AP87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ87" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12628,24 +12870,26 @@
         <v>49</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>541</v>
+        <v>121</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>37</v>
@@ -12694,7 +12938,7 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -12712,10 +12956,10 @@
         <v>37</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>544</v>
+        <v>37</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>545</v>
+        <v>92</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>37</v>
@@ -12724,15 +12968,18 @@
         <v>37</v>
       </c>
       <c r="AP88" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AQ88" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12743,7 +12990,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>37</v>
@@ -12755,13 +13002,13 @@
         <v>37</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>122</v>
+        <v>550</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>123</v>
+        <v>551</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12812,7 +13059,7 @@
         <v>37</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>124</v>
+        <v>549</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
@@ -12824,16 +13071,16 @@
         <v>37</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>37</v>
+        <v>552</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>125</v>
+        <v>553</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>37</v>
@@ -12842,19 +13089,22 @@
         <v>37</v>
       </c>
       <c r="AP89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ89" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12864,7 +13114,7 @@
         <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>37</v>
@@ -12873,17 +13123,15 @@
         <v>37</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>95</v>
+        <v>389</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>96</v>
+        <v>555</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>37</v>
@@ -12920,19 +13168,19 @@
         <v>37</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>131</v>
+        <v>554</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
@@ -12944,7 +13192,7 @@
         <v>37</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>37</v>
@@ -12953,7 +13201,7 @@
         <v>37</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>37</v>
@@ -12962,15 +13210,18 @@
         <v>37</v>
       </c>
       <c r="AP90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ90" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12990,20 +13241,18 @@
         <v>37</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>343</v>
+        <v>122</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>37</v>
@@ -13052,7 +13301,7 @@
         <v>37</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>346</v>
+        <v>124</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
@@ -13061,10 +13310,10 @@
         <v>49</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>37</v>
@@ -13073,7 +13322,7 @@
         <v>37</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>37</v>
@@ -13082,26 +13331,29 @@
         <v>37</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>549</v>
+        <v>37</v>
+      </c>
+      <c r="AQ91" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>37</v>
@@ -13110,19 +13362,19 @@
         <v>37</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>349</v>
+        <v>96</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>351</v>
+        <v>98</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13148,13 +13400,13 @@
         <v>37</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>352</v>
+        <v>37</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>37</v>
@@ -13172,19 +13424,19 @@
         <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>37</v>
@@ -13193,7 +13445,7 @@
         <v>37</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>37</v>
@@ -13202,49 +13454,54 @@
         <v>37</v>
       </c>
       <c r="AP92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ92" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>37</v>
       </c>
@@ -13292,19 +13549,19 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>37</v>
@@ -13313,7 +13570,7 @@
         <v>37</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>360</v>
+        <v>92</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>37</v>
@@ -13322,15 +13579,18 @@
         <v>37</v>
       </c>
       <c r="AP93" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ93" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13350,20 +13610,18 @@
         <v>37</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>37</v>
@@ -13412,7 +13670,7 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>365</v>
+        <v>560</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -13442,15 +13700,18 @@
         <v>37</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
+      </c>
+      <c r="AQ94" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13473,13 +13734,13 @@
         <v>37</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13530,7 +13791,7 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
@@ -13548,10 +13809,10 @@
         <v>37</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>558</v>
+        <v>37</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>37</v>
@@ -13560,15 +13821,18 @@
         <v>37</v>
       </c>
       <c r="AP95" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ95" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13579,10 +13843,10 @@
         <v>38</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>37</v>
@@ -13591,13 +13855,13 @@
         <v>37</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>415</v>
+        <v>146</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13624,13 +13888,13 @@
         <v>37</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>37</v>
+        <v>570</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>37</v>
+        <v>571</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>37</v>
@@ -13648,7 +13912,7 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -13678,15 +13942,18 @@
         <v>37</v>
       </c>
       <c r="AP96" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ96" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13694,7 +13961,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>49</v>
@@ -13709,15 +13976,17 @@
         <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>121</v>
+        <v>573</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>122</v>
+        <v>574</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>37</v>
@@ -13754,22 +14023,20 @@
         <v>37</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="AC97" s="2"/>
       <c r="AD97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>37</v>
+        <v>578</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>124</v>
+        <v>572</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>49</v>
@@ -13778,7 +14045,7 @@
         <v>37</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>37</v>
@@ -13787,7 +14054,7 @@
         <v>37</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>37</v>
@@ -13796,29 +14063,34 @@
         <v>37</v>
       </c>
       <c r="AP97" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ97" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="D98" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>37</v>
@@ -13827,16 +14099,16 @@
         <v>37</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>96</v>
+        <v>574</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>128</v>
+        <v>575</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>98</v>
+        <v>576</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13886,19 +14158,19 @@
         <v>37</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>131</v>
+        <v>572</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>37</v>
@@ -13907,7 +14179,7 @@
         <v>37</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>37</v>
@@ -13916,51 +14188,54 @@
         <v>37</v>
       </c>
       <c r="AP98" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AQ98" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="D99" t="s" s="2">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>95</v>
+        <v>584</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>425</v>
+        <v>574</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>426</v>
+        <v>575</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>37</v>
       </c>
@@ -14008,19 +14283,19 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>427</v>
+        <v>572</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>37</v>
@@ -14038,15 +14313,18 @@
         <v>37</v>
       </c>
       <c r="AP99" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ99" t="s" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14057,10 +14335,10 @@
         <v>38</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>37</v>
@@ -14069,15 +14347,17 @@
         <v>37</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>121</v>
+        <v>573</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>37</v>
@@ -14126,7 +14406,7 @@
         <v>37</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>38</v>
@@ -14156,729 +14436,14 @@
         <v>37</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AC103" s="2"/>
-      <c r="AD103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP103" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="D104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ100" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP106">
+  <autoFilter ref="A1:AQ100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14888,7 +14453,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -999,6 +999,9 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
+    <t>ImmunizationTO.timestamp</t>
+  </si>
+  <si>
     <t>Immunization.primarySource</t>
   </si>
   <si>
@@ -1307,9 +1310,6 @@
   </si>
   <si>
     <t>GetOrganization(ImmunizationTO.encounter.facility)</t>
-  </si>
-  <si>
-    <t>GetOrganization(ImmunizationTO.encounter.facility.name)</t>
   </si>
   <si>
     <t>Immunization.note</t>
@@ -2207,7 +2207,7 @@
     <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="158.01171875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="105.203125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="53.82421875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="49.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3433,7 +3433,7 @@
         <v>116</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -6743,18 +6743,18 @@
         <v>37</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>311</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6780,13 +6780,13 @@
         <v>266</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6836,7 +6836,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6854,30 +6854,30 @@
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6903,13 +6903,13 @@
         <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6938,10 +6938,10 @@
         <v>207</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6959,7 +6959,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6977,13 +6977,13 @@
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7023,13 +7023,13 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7080,7 +7080,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -7095,33 +7095,33 @@
         <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7147,10 +7147,10 @@
         <v>186</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7201,7 +7201,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7219,19 +7219,19 @@
         <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>37</v>
@@ -7239,10 +7239,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7268,10 +7268,10 @@
         <v>121</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7322,7 +7322,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7340,19 +7340,19 @@
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>37</v>
@@ -7360,10 +7360,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7386,13 +7386,13 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7443,7 +7443,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7461,10 +7461,10 @@
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -7481,10 +7481,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7510,10 +7510,10 @@
         <v>146</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7543,10 +7543,10 @@
         <v>207</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -7564,7 +7564,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7582,16 +7582,16 @@
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>37</v>
@@ -7602,10 +7602,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7723,10 +7723,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7846,10 +7846,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7971,10 +7971,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8088,7 +8088,7 @@
         <v>37</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>37</v>
@@ -8096,10 +8096,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8125,10 +8125,10 @@
         <v>146</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8158,10 +8158,10 @@
         <v>207</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>37</v>
@@ -8179,7 +8179,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8197,16 +8197,16 @@
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>37</v>
@@ -8217,10 +8217,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8243,13 +8243,13 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8300,7 +8300,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8318,10 +8318,10 @@
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -8338,10 +8338,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8364,13 +8364,13 @@
         <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8421,7 +8421,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8436,13 +8436,13 @@
         <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -8459,10 +8459,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8580,10 +8580,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8703,14 +8703,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8732,10 +8732,10 @@
         <v>95</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>98</v>
@@ -8790,7 +8790,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8828,10 +8828,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8857,10 +8857,10 @@
         <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8890,10 +8890,10 @@
         <v>151</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -8911,7 +8911,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8926,13 +8926,13 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
@@ -8949,10 +8949,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8975,16 +8975,16 @@
         <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9034,7 +9034,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>49</v>
@@ -9049,22 +9049,22 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AQ56" t="s" s="2">
         <v>418</v>
@@ -10316,7 +10316,7 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>470</v>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10684,10 +10684,10 @@
         <v>95</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>98</v>
@@ -10742,7 +10742,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -11532,7 +11532,7 @@
         <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>503</v>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11902,10 +11902,10 @@
         <v>95</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>98</v>
@@ -11960,7 +11960,7 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -13123,7 +13123,7 @@
         <v>37</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>555</v>
@@ -13469,7 +13469,7 @@
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13491,10 +13491,10 @@
         <v>95</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>98</v>
@@ -13549,7 +13549,7 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="623">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1023,7 +1023,117 @@
     <t>FiveWs.source</t>
   </si>
   <si>
-    <t>`false`</t>
+    <t>Data Absent Reason - unknown</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension:dar</t>
+  </si>
+  <si>
+    <t>dar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>unknown | asked | temp | notasked | masked | unsupported | astext | error</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension:dar.id</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension.id</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension:dar.extension</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension.extension</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension:dar.url</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension:dar.value[x]</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Used to specify why the normally expected content of the data element is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource.value</t>
+  </si>
+  <si>
+    <t>Primitive value for boolean</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>boolean.value</t>
   </si>
   <si>
     <t>Immunization.reportOrigin</t>
@@ -1698,7 +1808,7 @@
     <t>Immunization.reaction.detail.display</t>
   </si>
   <si>
-    <t>may be `YES (DO NOT REPEAT THIS VACCINE)`</t>
+    <t>Text alternative for the resource</t>
   </si>
   <si>
     <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
@@ -1708,9 +1818,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>if a ImmunizationTO.contraindicated=1 and no ImmunizationTo.reaction, then `YES (DO NOT REPEAT THIS VACCINE)`</t>
   </si>
   <si>
     <t>Immunization.reaction.reported</t>
@@ -2158,7 +2265,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ100"/>
+  <dimension ref="A1:AQ108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2168,7 +2275,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="64.5078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -2206,7 +2313,7 @@
     <col min="39" max="39" width="227.0390625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="158.01171875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="105.203125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="49.2421875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="49.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -6797,7 +6904,7 @@
         <v>37</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>37</v>
@@ -6869,7 +6976,7 @@
         <v>325</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>325</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -6888,7 +6995,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -6900,7 +7007,7 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>327</v>
@@ -6908,9 +7015,7 @@
       <c r="M39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>37</v>
@@ -6935,13 +7040,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>330</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6959,7 +7064,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>326</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6971,19 +7076,19 @@
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>332</v>
+        <v>37</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6997,10 +7102,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7008,13 +7113,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>37</v>
@@ -7023,13 +7128,13 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>334</v>
+        <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7068,74 +7173,74 @@
         <v>37</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>340</v>
+        <v>37</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
@@ -7144,13 +7249,13 @@
         <v>37</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7201,37 +7306,37 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>37</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>37</v>
@@ -7239,10 +7344,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7256,7 +7361,7 @@
         <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>37</v>
@@ -7268,10 +7373,10 @@
         <v>121</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
+        <v>122</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>351</v>
+        <v>123</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7322,7 +7427,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>124</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7334,25 +7439,25 @@
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>352</v>
+        <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>353</v>
+        <v>125</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>354</v>
+        <v>37</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>355</v>
+        <v>37</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>37</v>
@@ -7360,10 +7465,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7386,13 +7491,13 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>95</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7431,40 +7536,40 @@
         <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>360</v>
+        <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -7481,10 +7586,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7492,7 +7597,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>49</v>
@@ -7507,22 +7612,24 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>37</v>
@@ -7540,13 +7647,13 @@
         <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -7564,10 +7671,10 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>49</v>
@@ -7576,22 +7683,22 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>368</v>
+        <v>92</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>369</v>
+        <v>37</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>37</v>
@@ -7602,10 +7709,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7613,7 +7720,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>49</v>
@@ -7628,13 +7735,13 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>122</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>123</v>
+        <v>353</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7646,7 +7753,7 @@
         <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>37</v>
@@ -7661,13 +7768,13 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>37</v>
@@ -7685,7 +7792,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7697,7 +7804,7 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7706,7 +7813,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7723,21 +7830,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -7749,17 +7856,15 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>96</v>
+        <v>359</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7796,31 +7901,31 @@
         <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -7829,7 +7934,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7846,10 +7951,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7860,7 +7965,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7869,23 +7974,21 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>225</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>226</v>
+        <v>364</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>37</v>
       </c>
@@ -7909,13 +8012,13 @@
         <v>37</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>37</v>
@@ -7933,13 +8036,13 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
@@ -7951,13 +8054,13 @@
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>230</v>
+        <v>322</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>231</v>
+        <v>368</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>37</v>
+        <v>324</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>37</v>
@@ -7971,10 +8074,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7988,29 +8091,25 @@
         <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>121</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
       </c>
@@ -8058,7 +8157,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -8073,33 +8172,33 @@
         <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>37</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8110,10 +8209,10 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
@@ -8122,13 +8221,13 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8155,31 +8254,31 @@
         <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8197,19 +8296,19 @@
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>37</v>
+        <v>384</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>37</v>
@@ -8217,10 +8316,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8231,10 +8330,10 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>37</v>
@@ -8243,13 +8342,13 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>384</v>
+        <v>121</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8300,7 +8399,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8318,19 +8417,19 @@
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>37</v>
+        <v>391</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>37</v>
@@ -8338,10 +8437,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8352,25 +8451,25 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8421,13 +8520,13 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
@@ -8436,13 +8535,13 @@
         <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -8459,10 +8558,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8485,13 +8584,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>122</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>123</v>
+        <v>400</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8518,13 +8617,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -8542,7 +8641,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>124</v>
+        <v>398</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8554,22 +8653,22 @@
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>125</v>
+        <v>404</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>37</v>
@@ -8580,21 +8679,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
@@ -8606,17 +8705,15 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -8665,19 +8762,19 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
@@ -8703,14 +8800,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>399</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8723,26 +8820,24 @@
         <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>96</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>128</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>37</v>
       </c>
@@ -8778,19 +8873,19 @@
         <v>37</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>402</v>
+        <v>131</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8811,7 +8906,7 @@
         <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8828,10 +8923,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8842,7 +8937,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -8854,16 +8949,20 @@
         <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>225</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>37</v>
       </c>
@@ -8887,13 +8986,13 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>406</v>
+        <v>37</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>407</v>
+        <v>37</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -8911,13 +9010,13 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>37</v>
@@ -8926,13 +9025,13 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>408</v>
+        <v>37</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>409</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
@@ -8949,10 +9048,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8960,7 +9059,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>49</v>
@@ -8975,18 +9074,20 @@
         <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>411</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>275</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
+        <v>276</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>37</v>
       </c>
@@ -9034,10 +9135,10 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>279</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>49</v>
@@ -9049,33 +9150,33 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>418</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9086,25 +9187,25 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>420</v>
+        <v>146</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9131,13 +9232,13 @@
         <v>37</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>37</v>
@@ -9155,13 +9256,13 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>37</v>
@@ -9170,19 +9271,19 @@
         <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>37</v>
@@ -9193,10 +9294,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9207,7 +9308,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -9219,13 +9320,13 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>121</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>122</v>
+        <v>421</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>123</v>
+        <v>422</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9276,7 +9377,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>124</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9288,16 +9389,16 @@
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>125</v>
+        <v>424</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
@@ -9314,14 +9415,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9331,26 +9432,24 @@
         <v>39</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>95</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>96</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -9387,19 +9486,19 @@
         <v>37</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>131</v>
+        <v>425</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9411,16 +9510,16 @@
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>37</v>
+        <v>429</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>37</v>
+        <v>430</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>125</v>
+        <v>431</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -9437,10 +9536,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9460,20 +9559,18 @@
         <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>429</v>
+        <v>121</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>122</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -9522,7 +9619,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>124</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9534,16 +9631,16 @@
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>434</v>
+        <v>125</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -9560,21 +9657,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -9583,18 +9680,20 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>96</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -9643,28 +9742,28 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>131</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9681,42 +9780,46 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>95</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>37</v>
       </c>
@@ -9764,29 +9867,29 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
       </c>
@@ -9794,18 +9897,18 @@
         <v>37</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>446</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9816,7 +9919,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9825,16 +9928,16 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9861,13 +9964,13 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
@@ -9885,13 +9988,13 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>37</v>
@@ -9900,13 +10003,13 @@
         <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9923,10 +10026,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9934,10 +10037,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
@@ -9946,18 +10049,20 @@
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>448</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -10006,13 +10111,13 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>37</v>
@@ -10021,33 +10126,33 @@
         <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>92</v>
+        <v>452</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>37</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10058,36 +10163,32 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>266</v>
+        <v>456</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q65" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
         <v>37</v>
       </c>
@@ -10131,13 +10232,13 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>37</v>
@@ -10146,13 +10247,13 @@
         <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>92</v>
+        <v>461</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>37</v>
@@ -10169,10 +10270,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10183,7 +10284,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>37</v>
@@ -10195,13 +10296,13 @@
         <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>465</v>
+        <v>122</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>466</v>
+        <v>123</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10228,13 +10329,13 @@
         <v>37</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>467</v>
+        <v>37</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>37</v>
@@ -10252,19 +10353,19 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>37</v>
@@ -10273,7 +10374,7 @@
         <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>37</v>
@@ -10290,21 +10391,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -10316,15 +10417,17 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>390</v>
+        <v>95</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>96</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>37</v>
@@ -10361,19 +10464,19 @@
         <v>37</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>469</v>
+        <v>131</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10385,7 +10488,7 @@
         <v>37</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>472</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>37</v>
@@ -10394,7 +10497,7 @@
         <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>37</v>
@@ -10411,10 +10514,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10434,18 +10537,20 @@
         <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>121</v>
+        <v>465</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>122</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -10494,7 +10599,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>124</v>
+        <v>469</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10506,16 +10611,16 @@
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>125</v>
+        <v>470</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10532,21 +10637,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -10555,20 +10660,18 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>95</v>
+        <v>302</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>96</v>
+        <v>472</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -10617,28 +10720,28 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>125</v>
+        <v>475</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10655,46 +10758,42 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>399</v>
+        <v>37</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>95</v>
+        <v>477</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>37</v>
       </c>
@@ -10742,28 +10841,28 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>92</v>
+        <v>481</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>37</v>
@@ -10772,18 +10871,18 @@
         <v>37</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>37</v>
+        <v>482</v>
       </c>
       <c r="AQ70" t="s" s="2">
-        <v>37</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10794,7 +10893,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
@@ -10806,13 +10905,13 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10839,13 +10938,13 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>37</v>
+        <v>486</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>37</v>
+        <v>487</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
@@ -10863,13 +10962,13 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>37</v>
@@ -10878,13 +10977,13 @@
         <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>37</v>
+        <v>488</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>479</v>
+        <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>92</v>
+        <v>489</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -10901,10 +11000,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10915,7 +11014,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>37</v>
@@ -10927,13 +11026,13 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>63</v>
+        <v>491</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10984,13 +11083,13 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>37</v>
@@ -10999,7 +11098,7 @@
         <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
@@ -11022,10 +11121,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11036,32 +11135,36 @@
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="R73" t="s" s="2">
         <v>37</v>
       </c>
@@ -11105,7 +11208,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11123,7 +11226,7 @@
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>92</v>
@@ -11143,10 +11246,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11157,7 +11260,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>37</v>
@@ -11169,13 +11272,13 @@
         <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>302</v>
+        <v>146</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11202,13 +11305,13 @@
         <v>37</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>37</v>
+        <v>503</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>37</v>
+        <v>504</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>37</v>
@@ -11226,13 +11329,13 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>37</v>
@@ -11244,7 +11347,7 @@
         <v>37</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>490</v>
+        <v>37</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>92</v>
@@ -11264,10 +11367,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11290,13 +11393,13 @@
         <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>146</v>
+        <v>426</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11323,13 +11426,13 @@
         <v>37</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>494</v>
+        <v>37</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>495</v>
+        <v>37</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>37</v>
@@ -11347,7 +11450,7 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11359,13 +11462,13 @@
         <v>37</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>61</v>
+        <v>508</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>496</v>
+        <v>37</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>92</v>
@@ -11385,10 +11488,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11399,7 +11502,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
@@ -11411,13 +11514,13 @@
         <v>37</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>498</v>
+        <v>122</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>499</v>
+        <v>123</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11444,13 +11547,13 @@
         <v>37</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>500</v>
+        <v>37</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>501</v>
+        <v>37</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>37</v>
@@ -11468,7 +11571,7 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>497</v>
+        <v>124</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11480,7 +11583,7 @@
         <v>37</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>37</v>
@@ -11489,7 +11592,7 @@
         <v>37</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>37</v>
@@ -11506,14 +11609,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11532,16 +11635,16 @@
         <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>390</v>
+        <v>95</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>503</v>
+        <v>96</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>504</v>
+        <v>128</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>505</v>
+        <v>98</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11591,7 +11694,7 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>502</v>
+        <v>131</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11603,16 +11706,16 @@
         <v>37</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>506</v>
+        <v>37</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>507</v>
+        <v>125</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>37</v>
@@ -11629,42 +11732,46 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>122</v>
+        <v>436</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>37</v>
       </c>
@@ -11712,19 +11819,19 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>124</v>
+        <v>438</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>37</v>
@@ -11733,7 +11840,7 @@
         <v>37</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>37</v>
@@ -11750,21 +11857,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>37</v>
@@ -11776,17 +11883,15 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>96</v>
+        <v>513</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>37</v>
@@ -11835,28 +11940,28 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>131</v>
+        <v>512</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>37</v>
+        <v>515</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>37</v>
@@ -11873,46 +11978,42 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>399</v>
+        <v>37</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>400</v>
+        <v>517</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>37</v>
       </c>
@@ -11960,19 +12061,19 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>402</v>
+        <v>516</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>37</v>
@@ -11998,10 +12099,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12012,7 +12113,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>37</v>
@@ -12027,10 +12128,10 @@
         <v>302</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12081,7 +12182,7 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -12099,10 +12200,10 @@
         <v>37</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>308</v>
+        <v>92</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>37</v>
@@ -12119,10 +12220,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12145,13 +12246,13 @@
         <v>37</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>516</v>
+        <v>302</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12202,7 +12303,7 @@
         <v>37</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -12220,10 +12321,10 @@
         <v>37</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>520</v>
+        <v>92</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>37</v>
@@ -12240,10 +12341,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12254,7 +12355,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>37</v>
@@ -12266,13 +12367,13 @@
         <v>37</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>122</v>
+        <v>528</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>123</v>
+        <v>529</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12299,13 +12400,13 @@
         <v>37</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>37</v>
+        <v>530</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>37</v>
+        <v>531</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>37</v>
@@ -12323,28 +12424,28 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>124</v>
+        <v>527</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>37</v>
+        <v>532</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>37</v>
@@ -12361,21 +12462,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>37</v>
@@ -12387,17 +12488,15 @@
         <v>37</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>96</v>
+        <v>534</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>37</v>
@@ -12422,43 +12521,43 @@
         <v>37</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>37</v>
+        <v>536</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>37</v>
+        <v>537</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>131</v>
+        <v>533</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>37</v>
@@ -12467,7 +12566,7 @@
         <v>37</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>37</v>
@@ -12484,10 +12583,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12498,7 +12597,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>37</v>
@@ -12507,19 +12606,19 @@
         <v>37</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>121</v>
+        <v>426</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12569,16 +12668,16 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>528</v>
+        <v>37</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>61</v>
@@ -12587,10 +12686,10 @@
         <v>37</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>37</v>
+        <v>542</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>92</v>
+        <v>543</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>37</v>
@@ -12599,18 +12698,18 @@
         <v>37</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>529</v>
+        <v>37</v>
       </c>
       <c r="AQ85" t="s" s="2">
-        <v>529</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12630,20 +12729,18 @@
         <v>37</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>531</v>
+        <v>122</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>37</v>
@@ -12668,13 +12765,13 @@
         <v>37</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>534</v>
+        <v>37</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>535</v>
+        <v>37</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>37</v>
@@ -12692,7 +12789,7 @@
         <v>37</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>536</v>
+        <v>124</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
@@ -12704,7 +12801,7 @@
         <v>37</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>37</v>
@@ -12713,7 +12810,7 @@
         <v>37</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>37</v>
@@ -12730,21 +12827,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>37</v>
@@ -12753,19 +12850,19 @@
         <v>37</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>538</v>
+        <v>96</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>539</v>
+        <v>128</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>540</v>
+        <v>98</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12815,19 +12912,19 @@
         <v>37</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>541</v>
+        <v>131</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>37</v>
@@ -12836,7 +12933,7 @@
         <v>37</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>542</v>
+        <v>125</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>37</v>
@@ -12853,44 +12950,46 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>544</v>
+        <v>436</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>545</v>
+        <v>437</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>37</v>
       </c>
@@ -12938,19 +13037,19 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>547</v>
+        <v>438</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>37</v>
@@ -12968,7 +13067,7 @@
         <v>37</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>548</v>
+        <v>37</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>37</v>
@@ -12976,10 +13075,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13002,13 +13101,13 @@
         <v>37</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13059,7 +13158,7 @@
         <v>37</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
@@ -13077,10 +13176,10 @@
         <v>37</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>553</v>
+        <v>308</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>37</v>
@@ -13097,10 +13196,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13111,10 +13210,10 @@
         <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>37</v>
@@ -13123,13 +13222,13 @@
         <v>37</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>390</v>
+        <v>552</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13180,13 +13279,13 @@
         <v>37</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>37</v>
@@ -13198,10 +13297,10 @@
         <v>37</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>37</v>
+        <v>555</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>92</v>
+        <v>556</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>37</v>
@@ -13412,16 +13511,16 @@
         <v>37</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>131</v>
@@ -13469,39 +13568,37 @@
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>399</v>
+        <v>37</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>401</v>
+        <v>561</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>37</v>
       </c>
@@ -13549,19 +13646,19 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>402</v>
+        <v>563</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>37</v>
+        <v>564</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>37</v>
@@ -13579,18 +13676,18 @@
         <v>37</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>37</v>
+        <v>565</v>
       </c>
       <c r="AQ93" t="s" s="2">
-        <v>37</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13604,24 +13701,26 @@
         <v>49</v>
       </c>
       <c r="H94" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J94" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K94" t="s" s="2">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>37</v>
@@ -13646,13 +13745,13 @@
         <v>37</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>37</v>
+        <v>570</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>37</v>
+        <v>571</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>37</v>
@@ -13670,7 +13769,7 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -13700,7 +13799,7 @@
         <v>37</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>563</v>
+        <v>37</v>
       </c>
       <c r="AQ94" t="s" s="2">
         <v>37</v>
@@ -13708,10 +13807,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13731,18 +13830,20 @@
         <v>37</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>37</v>
@@ -13791,7 +13892,7 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
@@ -13812,7 +13913,7 @@
         <v>37</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>92</v>
+        <v>578</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>37</v>
@@ -13829,10 +13930,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13852,18 +13953,20 @@
         <v>37</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>37</v>
@@ -13888,13 +13991,13 @@
         <v>37</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>570</v>
+        <v>37</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>571</v>
+        <v>37</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>37</v>
@@ -13912,13 +14015,13 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>37</v>
@@ -13950,10 +14053,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13961,10 +14064,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>37</v>
@@ -13976,17 +14079,15 @@
         <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>573</v>
+        <v>266</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>37</v>
@@ -14023,20 +14124,22 @@
         <v>37</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AC97" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>578</v>
+        <v>37</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>49</v>
@@ -14051,10 +14154,10 @@
         <v>37</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>37</v>
+        <v>587</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>92</v>
+        <v>588</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>37</v>
@@ -14071,14 +14174,12 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
         <v>37</v>
       </c>
@@ -14087,7 +14188,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>50</v>
@@ -14099,17 +14200,15 @@
         <v>37</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>121</v>
+        <v>426</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>37</v>
@@ -14158,13 +14257,13 @@
         <v>37</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>37</v>
@@ -14188,7 +14287,7 @@
         <v>37</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>581</v>
+        <v>37</v>
       </c>
       <c r="AQ98" t="s" s="2">
         <v>37</v>
@@ -14196,14 +14295,12 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>37</v>
       </c>
@@ -14212,7 +14309,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>37</v>
@@ -14224,17 +14321,15 @@
         <v>37</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>584</v>
+        <v>121</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>574</v>
+        <v>122</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>37</v>
@@ -14283,10 +14378,10 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>572</v>
+        <v>124</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>49</v>
@@ -14295,7 +14390,7 @@
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>37</v>
@@ -14304,7 +14399,7 @@
         <v>37</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>37</v>
@@ -14321,21 +14416,21 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>37</v>
@@ -14347,16 +14442,16 @@
         <v>37</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>573</v>
+        <v>95</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>586</v>
+        <v>96</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>587</v>
+        <v>128</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>576</v>
+        <v>98</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14406,44 +14501,1026 @@
         <v>37</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>585</v>
+        <v>131</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ100" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ101" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AK100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AK102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AN100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ100" t="s" s="2">
+      <c r="AN102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AQ102" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ103" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ104" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AC105" s="2"/>
+      <c r="AD105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ105" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AQ106" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ107" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ108" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ100">
+  <autoFilter ref="A1:AQ108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14453,7 +15530,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$120</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="635">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1185,562 +1185,13 @@
     <t>GetLocation(ImmunizationTO.encounter.location)</t>
   </si>
   <si>
-    <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t>Vaccine manufacturer</t>
-  </si>
-  <si>
-    <t>Name of vaccine manufacturer.</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.manufacture</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
-  </si>
-  <si>
-    <t>Vaccine lot number</t>
-  </si>
-  <si>
-    <t>Lot number of the  vaccine product.</t>
-  </si>
-  <si>
-    <t>RXA-15</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.lotNumber</t>
-  </si>
-  <si>
-    <t>Immunization.expirationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>Vaccine expiration date</t>
-  </si>
-  <si>
-    <t>Date vaccine batch expires.</t>
-  </si>
-  <si>
-    <t>RXA-16</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
-  </si>
-  <si>
-    <t>Immunization.site</t>
-  </si>
-  <si>
-    <t>Body site vaccine  was administered</t>
-  </si>
-  <si>
-    <t>Body site where vaccine was administered.</t>
-  </si>
-  <si>
-    <t>The site at which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>observation.targetSiteCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.site.id</t>
-  </si>
-  <si>
-    <t>Immunization.site.extension</t>
-  </si>
-  <si>
-    <t>Immunization.site.coding</t>
-  </si>
-  <si>
-    <t>Immunization.site.text</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.anatomicSurface</t>
-  </si>
-  <si>
-    <t>Immunization.route</t>
-  </si>
-  <si>
-    <t>How vaccine entered body</t>
-  </si>
-  <si>
-    <t>The path by which the vaccine product is taken into the body.</t>
-  </si>
-  <si>
-    <t>The route by which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Amount of vaccine administered</t>
-  </si>
-  <si>
-    <t>The quantity of vaccine product that was administered.</t>
-  </si>
-  <si>
-    <t>RXA-6 / RXA-7</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>Immunization.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who performed event</t>
-  </si>
-  <si>
-    <t>Indicates who performed the immunization event.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>ORC-12 / RXA-10</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Immunization.performer.id</t>
-  </si>
-  <si>
-    <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.function</t>
-  </si>
-  <si>
-    <t>What type of performance was done</t>
-  </si>
-  <si>
-    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
-  </si>
-  <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.participation.functionCode</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Individual or organization who was performing</t>
-  </si>
-  <si>
-    <t>The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>GetOrganization(ImmunizationTO.encounter.facility)</t>
-  </si>
-  <si>
-    <t>Immunization.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Additional immunization notes</t>
-  </si>
-  <si>
-    <t>Extra information about the immunization that is not conveyed by the other attributes.</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 48767-8</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Immunization.note.id</t>
-  </si>
-  <si>
-    <t>Immunization.note.extension</t>
-  </si>
-  <si>
-    <t>Immunization.note.author[x]</t>
-  </si>
-  <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
-string</t>
-  </si>
-  <si>
-    <t>Individual responsible for the annotation</t>
-  </si>
-  <si>
-    <t>The individual responsible for making the annotation.</t>
-  </si>
-  <si>
-    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
-  </si>
-  <si>
-    <t>Annotation.author[x]</t>
-  </si>
-  <si>
-    <t>Act.participant[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>Immunization.note.time</t>
-  </si>
-  <si>
-    <t>When the annotation was made</t>
-  </si>
-  <si>
-    <t>Indicates when this particular annotation was made.</t>
-  </si>
-  <si>
-    <t>Annotation.time</t>
-  </si>
-  <si>
-    <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>Immunization.note.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>The annotation  - text content (as markdown)</t>
-  </si>
-  <si>
-    <t>The text of the annotation in markdown format.</t>
-  </si>
-  <si>
-    <t>Annotation.text</t>
-  </si>
-  <si>
-    <t>Act.text</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.comments</t>
-  </si>
-  <si>
-    <t>Immunization.reasonCode</t>
-  </si>
-  <si>
-    <t>Why immunization occurred</t>
-  </si>
-  <si>
-    <t>Reasons why the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>[actionNegationInd=false].reasonCode</t>
-  </si>
-  <si>
-    <t>Immunization.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
-</t>
-  </si>
-  <si>
-    <t>Condition, Observation or DiagnosticReport that supports why the immunization was administered.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>Immunization.isSubpotent</t>
-  </si>
-  <si>
-    <t>Dose potency</t>
-  </si>
-  <si>
-    <t>Indication if a dose is considered to be subpotent. By default, a dose should be considered to be potent.</t>
-  </si>
-  <si>
-    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
-  </si>
-  <si>
-    <t>By default, a dose should be considered to be potent.</t>
-  </si>
-  <si>
-    <t>RXA-20 = PA (partial administration)</t>
-  </si>
-  <si>
-    <t>Immunization.subpotentReason</t>
-  </si>
-  <si>
-    <t>Reason for being subpotent</t>
-  </si>
-  <si>
-    <t>Reason why a dose is considered to be subpotent.</t>
-  </si>
-  <si>
-    <t>The reason why a dose is considered to be subpotent.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
-  </si>
-  <si>
-    <t>Immunization.education</t>
-  </si>
-  <si>
-    <t>Educational material presented to patient</t>
-  </si>
-  <si>
-    <t>Educational material presented to the patient (or guardian) at the time of vaccine administration.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
-  </si>
-  <si>
-    <t>Immunization.education.id</t>
-  </si>
-  <si>
-    <t>Immunization.education.extension</t>
-  </si>
-  <si>
-    <t>Immunization.education.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.education.documentType</t>
-  </si>
-  <si>
-    <t>Educational material document identifier</t>
-  </si>
-  <si>
-    <t>Identifier of the material presented to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 69764-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.reference</t>
-  </si>
-  <si>
-    <t>Educational material reference pointer</t>
-  </si>
-  <si>
-    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
-  </si>
-  <si>
-    <t>Immunization.education.publicationDate</t>
-  </si>
-  <si>
-    <t>Educational material publication date</t>
-  </si>
-  <si>
-    <t>Date the educational material was published.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29768-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.presentationDate</t>
-  </si>
-  <si>
-    <t>Educational material presentation date</t>
-  </si>
-  <si>
-    <t>Date the educational material was given to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29769-7</t>
-  </si>
-  <si>
-    <t>Immunization.programEligibility</t>
-  </si>
-  <si>
-    <t>Patient eligibility for a vaccination program</t>
-  </si>
-  <si>
-    <t>Indicates a patient's eligibility for a funding program.</t>
-  </si>
-  <si>
-    <t>The patient's eligibility for a vaccation program.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 64994-7</t>
-  </si>
-  <si>
-    <t>Immunization.fundingSource</t>
-  </si>
-  <si>
-    <t>Funding source for the vaccine</t>
-  </si>
-  <si>
-    <t>Indicates the source of the vaccine actually administered. This may be different than the patient eligibility (e.g. the patient may be eligible for a publically purchased vaccine but due to inventory issues, vaccine purchased with private funds was actually administered).</t>
-  </si>
-  <si>
-    <t>The source of funding used to purchase the vaccine administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
-  </si>
-  <si>
-    <t>Immunization.reaction</t>
-  </si>
-  <si>
-    <t>Details of a reaction that follows immunization</t>
-  </si>
-  <si>
-    <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
-  </si>
-  <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>Observation[classCode=obs].code</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.id</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.date</t>
-  </si>
-  <si>
-    <t>When reaction started</t>
-  </si>
-  <si>
-    <t>Date of reaction to the immunization.</t>
-  </si>
-  <si>
-    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.immunizationReaction) &lt;&lt;contained&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>Additional information on reaction</t>
-  </si>
-  <si>
-    <t>Details of the reaction.</t>
-  </si>
-  <si>
-    <t>OBX-5</t>
-  </si>
-  <si>
-    <t>.value</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.id</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.reference</t>
+    <t>Immunization.location.id</t>
+  </si>
+  <si>
+    <t>Immunization.location.extension</t>
+  </si>
+  <si>
+    <t>Immunization.location.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -1759,10 +1210,7 @@
 </t>
   </si>
   <si>
-    <t>contained Observation with ImmunizationTO.reaction</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail.type</t>
+    <t>Immunization.location.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -1784,7 +1232,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Immunization.reaction.detail.identifier</t>
+    <t>Immunization.location.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1805,19 +1253,607 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>Immunization.location.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t>Vaccine manufacturer</t>
+  </si>
+  <si>
+    <t>Name of vaccine manufacturer.</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>ImmunizationTO.manufacture</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
+    <t>Vaccine lot number</t>
+  </si>
+  <si>
+    <t>Lot number of the  vaccine product.</t>
+  </si>
+  <si>
+    <t>RXA-15</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
+  </si>
+  <si>
+    <t>ImmunizationTO.lotNumber</t>
+  </si>
+  <si>
+    <t>Immunization.expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Vaccine expiration date</t>
+  </si>
+  <si>
+    <t>Date vaccine batch expires.</t>
+  </si>
+  <si>
+    <t>RXA-16</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
+  </si>
+  <si>
+    <t>Immunization.site</t>
+  </si>
+  <si>
+    <t>Body site vaccine  was administered</t>
+  </si>
+  <si>
+    <t>Body site where vaccine was administered.</t>
+  </si>
+  <si>
+    <t>The site at which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>observation.targetSiteCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.site.id</t>
+  </si>
+  <si>
+    <t>Immunization.site.extension</t>
+  </si>
+  <si>
+    <t>Immunization.site.coding</t>
+  </si>
+  <si>
+    <t>Immunization.site.text</t>
+  </si>
+  <si>
+    <t>ImmunizationTO.anatomicSurface</t>
+  </si>
+  <si>
+    <t>Immunization.route</t>
+  </si>
+  <si>
+    <t>How vaccine entered body</t>
+  </si>
+  <si>
+    <t>The path by which the vaccine product is taken into the body.</t>
+  </si>
+  <si>
+    <t>The route by which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Amount of vaccine administered</t>
+  </si>
+  <si>
+    <t>The quantity of vaccine product that was administered.</t>
+  </si>
+  <si>
+    <t>RXA-6 / RXA-7</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>Immunization.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who performed event</t>
+  </si>
+  <si>
+    <t>Indicates who performed the immunization event.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>ORC-12 / RXA-10</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>Immunization.performer.id</t>
+  </si>
+  <si>
+    <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.function</t>
+  </si>
+  <si>
+    <t>What type of performance was done</t>
+  </si>
+  <si>
+    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>The role a practitioner or organization plays in the immunization event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.participation.functionCode</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>GetOrganization(ImmunizationTO.encounter.facility)</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.id</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.extension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.reference</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.type</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.identifier</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.display</t>
+  </si>
+  <si>
+    <t>Immunization.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional immunization notes</t>
+  </si>
+  <si>
+    <t>Extra information about the immunization that is not conveyed by the other attributes.</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 48767-8</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Immunization.note.id</t>
+  </si>
+  <si>
+    <t>Immunization.note.extension</t>
+  </si>
+  <si>
+    <t>Immunization.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>Immunization.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Immunization.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
+    <t>ImmunizationTO.comments</t>
+  </si>
+  <si>
+    <t>Immunization.reasonCode</t>
+  </si>
+  <si>
+    <t>Why immunization occurred</t>
+  </si>
+  <si>
+    <t>Reasons why the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>[actionNegationInd=false].reasonCode</t>
+  </si>
+  <si>
+    <t>Immunization.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+</t>
+  </si>
+  <si>
+    <t>Condition, Observation or DiagnosticReport that supports why the immunization was administered.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>Immunization.isSubpotent</t>
+  </si>
+  <si>
+    <t>Dose potency</t>
+  </si>
+  <si>
+    <t>Indication if a dose is considered to be subpotent. By default, a dose should be considered to be potent.</t>
+  </si>
+  <si>
+    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
+  </si>
+  <si>
+    <t>By default, a dose should be considered to be potent.</t>
+  </si>
+  <si>
+    <t>RXA-20 = PA (partial administration)</t>
+  </si>
+  <si>
+    <t>Immunization.subpotentReason</t>
+  </si>
+  <si>
+    <t>Reason for being subpotent</t>
+  </si>
+  <si>
+    <t>Reason why a dose is considered to be subpotent.</t>
+  </si>
+  <si>
+    <t>The reason why a dose is considered to be subpotent.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+  </si>
+  <si>
+    <t>Immunization.education</t>
+  </si>
+  <si>
+    <t>Educational material presented to patient</t>
+  </si>
+  <si>
+    <t>Educational material presented to the patient (or guardian) at the time of vaccine administration.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
+  </si>
+  <si>
+    <t>Immunization.education.id</t>
+  </si>
+  <si>
+    <t>Immunization.education.extension</t>
+  </si>
+  <si>
+    <t>Immunization.education.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.education.documentType</t>
+  </si>
+  <si>
+    <t>Educational material document identifier</t>
+  </si>
+  <si>
+    <t>Identifier of the material presented to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 69764-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.reference</t>
+  </si>
+  <si>
+    <t>Educational material reference pointer</t>
+  </si>
+  <si>
+    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
+  </si>
+  <si>
+    <t>Immunization.education.publicationDate</t>
+  </si>
+  <si>
+    <t>Educational material publication date</t>
+  </si>
+  <si>
+    <t>Date the educational material was published.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29768-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.presentationDate</t>
+  </si>
+  <si>
+    <t>Educational material presentation date</t>
+  </si>
+  <si>
+    <t>Date the educational material was given to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29769-7</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility</t>
+  </si>
+  <si>
+    <t>Patient eligibility for a vaccination program</t>
+  </si>
+  <si>
+    <t>Indicates a patient's eligibility for a funding program.</t>
+  </si>
+  <si>
+    <t>The patient's eligibility for a vaccation program.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 64994-7</t>
+  </si>
+  <si>
+    <t>Immunization.fundingSource</t>
+  </si>
+  <si>
+    <t>Funding source for the vaccine</t>
+  </si>
+  <si>
+    <t>Indicates the source of the vaccine actually administered. This may be different than the patient eligibility (e.g. the patient may be eligible for a publically purchased vaccine but due to inventory issues, vaccine purchased with private funds was actually administered).</t>
+  </si>
+  <si>
+    <t>The source of funding used to purchase the vaccine administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+  </si>
+  <si>
+    <t>Immunization.reaction</t>
+  </si>
+  <si>
+    <t>Details of a reaction that follows immunization</t>
+  </si>
+  <si>
+    <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
+  </si>
+  <si>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>Observation[classCode=obs].code</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.id</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.date</t>
+  </si>
+  <si>
+    <t>When reaction started</t>
+  </si>
+  <si>
+    <t>Date of reaction to the immunization.</t>
+  </si>
+  <si>
+    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.immunizationReaction) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Additional information on reaction</t>
+  </si>
+  <si>
+    <t>Details of the reaction.</t>
+  </si>
+  <si>
+    <t>OBX-5</t>
+  </si>
+  <si>
+    <t>.value</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.id</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.reference</t>
+  </si>
+  <si>
+    <t>contained Observation with ImmunizationTO.reaction</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.type</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail.identifier</t>
+  </si>
+  <si>
     <t>Immunization.reaction.detail.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Immunization.reaction.reported</t>
@@ -2265,7 +2301,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ108"/>
+  <dimension ref="A1:AQ120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8212,7 +8248,7 @@
         <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
@@ -8221,13 +8257,13 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>122</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>380</v>
+        <v>123</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8278,7 +8314,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>124</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8290,25 +8326,25 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>382</v>
+        <v>125</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>37</v>
@@ -8316,24 +8352,24 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>37</v>
@@ -8342,15 +8378,17 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>386</v>
+        <v>96</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -8387,49 +8425,49 @@
         <v>37</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>385</v>
+        <v>131</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>388</v>
+        <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>389</v>
+        <v>125</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>37</v>
@@ -8437,10 +8475,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8451,7 +8489,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -8460,18 +8498,20 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>121</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -8520,7 +8560,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8529,7 +8569,7 @@
         <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>61</v>
@@ -8538,10 +8578,10 @@
         <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>397</v>
+        <v>92</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -8558,10 +8598,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8581,18 +8621,20 @@
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8617,13 +8659,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -8641,7 +8683,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8659,16 +8701,16 @@
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>404</v>
+        <v>92</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>405</v>
+        <v>37</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>37</v>
@@ -8679,10 +8721,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8702,18 +8744,20 @@
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>122</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -8762,7 +8806,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>124</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8774,7 +8818,7 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
@@ -8783,7 +8827,7 @@
         <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8800,21 +8844,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8823,19 +8867,19 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>96</v>
+        <v>400</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>128</v>
+        <v>401</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8873,31 +8917,31 @@
         <v>37</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
@@ -8906,7 +8950,7 @@
         <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8923,10 +8967,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8937,32 +8981,28 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>405</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>37</v>
       </c>
@@ -9010,13 +9050,13 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>404</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>37</v>
@@ -9028,19 +9068,19 @@
         <v>37</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>230</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>231</v>
+        <v>408</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>37</v>
+        <v>409</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>37</v>
@@ -9048,10 +9088,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9065,29 +9105,25 @@
         <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>275</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>37</v>
       </c>
@@ -9135,7 +9171,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -9153,19 +9189,19 @@
         <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>281</v>
+        <v>415</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AQ56" t="s" s="2">
         <v>37</v>
@@ -9173,10 +9209,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9199,13 +9235,13 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>146</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9232,13 +9268,13 @@
         <v>37</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>37</v>
@@ -9256,7 +9292,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9274,16 +9310,16 @@
         <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>37</v>
@@ -9294,10 +9330,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9308,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -9320,13 +9356,13 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>146</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9353,13 +9389,13 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>37</v>
+        <v>427</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>37</v>
+        <v>428</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -9377,7 +9413,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9395,16 +9431,16 @@
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>37</v>
+        <v>431</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>37</v>
@@ -9415,10 +9451,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9429,25 +9465,25 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>121</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>122</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
+        <v>123</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9498,28 +9534,28 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>425</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>430</v>
+        <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>431</v>
+        <v>125</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -9536,21 +9572,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -9562,15 +9598,17 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -9607,31 +9645,31 @@
         <v>37</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
@@ -9657,14 +9695,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9680,21 +9718,23 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>37</v>
       </c>
@@ -9742,7 +9782,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9754,16 +9794,16 @@
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9780,45 +9820,45 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>435</v>
+        <v>37</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>436</v>
+        <v>275</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>437</v>
+        <v>276</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9867,28 +9907,28 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>438</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
@@ -9897,7 +9937,7 @@
         <v>37</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>37</v>
+        <v>436</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>37</v>
@@ -9905,10 +9945,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9919,7 +9959,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9928,16 +9968,16 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9964,13 +10004,13 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
@@ -9988,7 +10028,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -10003,19 +10043,19 @@
         <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>37</v>
@@ -10026,10 +10066,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10037,10 +10077,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
@@ -10049,20 +10089,18 @@
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>450</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -10111,10 +10149,10 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>49</v>
@@ -10126,33 +10164,33 @@
         <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>451</v>
+        <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>453</v>
+        <v>37</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>454</v>
+        <v>37</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>454</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10163,7 +10201,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>50</v>
@@ -10175,13 +10213,13 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10232,7 +10270,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10247,13 +10285,13 @@
         <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>37</v>
@@ -10270,10 +10308,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10391,10 +10429,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10464,16 +10502,16 @@
         <v>37</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>131</v>
@@ -10514,44 +10552,46 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>37</v>
+        <v>461</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>465</v>
+        <v>95</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>37</v>
       </c>
@@ -10599,28 +10639,28 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10637,10 +10677,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10663,13 +10703,13 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>302</v>
+        <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10696,13 +10736,13 @@
         <v>37</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>37</v>
+        <v>469</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>37</v>
@@ -10720,7 +10760,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10735,13 +10775,13 @@
         <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>37</v>
+        <v>470</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10758,10 +10798,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10784,15 +10824,17 @@
         <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>37</v>
@@ -10841,7 +10883,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>49</v>
@@ -10856,33 +10898,33 @@
         <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>37</v>
+        <v>477</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>37</v>
+        <v>479</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AQ70" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10893,7 +10935,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
@@ -10905,13 +10947,13 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>484</v>
+        <v>122</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>485</v>
+        <v>123</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10938,13 +10980,13 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>486</v>
+        <v>37</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>487</v>
+        <v>37</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
@@ -10962,28 +11004,28 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>483</v>
+        <v>124</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>488</v>
+        <v>37</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>489</v>
+        <v>125</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -11000,21 +11042,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>37</v>
@@ -11026,15 +11068,17 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>491</v>
+        <v>95</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>484</v>
+        <v>96</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>37</v>
@@ -11071,19 +11115,19 @@
         <v>37</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>490</v>
+        <v>131</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11095,16 +11139,16 @@
         <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>493</v>
+        <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -11121,10 +11165,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11135,36 +11179,34 @@
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>495</v>
+        <v>381</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>496</v>
+        <v>382</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>497</v>
+        <v>383</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q73" t="s" s="2">
-        <v>498</v>
-      </c>
+      <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
         <v>37</v>
       </c>
@@ -11208,7 +11250,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>494</v>
+        <v>384</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11217,7 +11259,7 @@
         <v>49</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>61</v>
@@ -11226,7 +11268,7 @@
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>499</v>
+        <v>37</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>92</v>
@@ -11246,10 +11288,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11260,7 +11302,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>37</v>
@@ -11269,18 +11311,20 @@
         <v>37</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>501</v>
+        <v>387</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>37</v>
@@ -11305,13 +11349,13 @@
         <v>37</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>503</v>
+        <v>390</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>504</v>
+        <v>391</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>37</v>
@@ -11329,13 +11373,13 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>500</v>
+        <v>392</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>37</v>
@@ -11367,10 +11411,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11381,7 +11425,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>37</v>
@@ -11390,18 +11434,20 @@
         <v>37</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>426</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>394</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>37</v>
@@ -11450,19 +11496,19 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>505</v>
+        <v>397</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>508</v>
+        <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>37</v>
@@ -11471,7 +11517,7 @@
         <v>37</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>92</v>
+        <v>398</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>37</v>
@@ -11488,10 +11534,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11502,7 +11548,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
@@ -11511,18 +11557,20 @@
         <v>37</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>122</v>
+        <v>400</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>37</v>
@@ -11571,7 +11619,7 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>124</v>
+        <v>403</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11583,7 +11631,7 @@
         <v>37</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>37</v>
@@ -11592,7 +11640,7 @@
         <v>37</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>37</v>
@@ -11609,43 +11657,41 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>95</v>
+        <v>488</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>96</v>
+        <v>489</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>37</v>
@@ -11694,7 +11740,7 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>131</v>
+        <v>487</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11706,16 +11752,16 @@
         <v>37</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>37</v>
+        <v>491</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>37</v>
+        <v>492</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>125</v>
+        <v>493</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>37</v>
@@ -11732,46 +11778,42 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>435</v>
+        <v>37</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>436</v>
+        <v>122</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>37</v>
       </c>
@@ -11819,19 +11861,19 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>438</v>
+        <v>124</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>37</v>
@@ -11840,7 +11882,7 @@
         <v>37</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>37</v>
@@ -11857,21 +11899,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>37</v>
@@ -11883,15 +11925,17 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>513</v>
+        <v>96</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>37</v>
@@ -11928,40 +11972,40 @@
         <v>37</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>512</v>
+        <v>131</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>515</v>
+        <v>37</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>37</v>
@@ -11978,10 +12022,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12001,18 +12045,20 @@
         <v>37</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>63</v>
+        <v>497</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>37</v>
@@ -12061,7 +12107,7 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12079,10 +12125,10 @@
         <v>37</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>92</v>
+        <v>502</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>37</v>
@@ -12099,10 +12145,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12122,16 +12168,16 @@
         <v>37</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>302</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12182,7 +12228,7 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -12200,10 +12246,10 @@
         <v>37</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>522</v>
+        <v>92</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>92</v>
+        <v>507</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>37</v>
@@ -12220,10 +12266,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12231,7 +12277,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>49</v>
@@ -12243,16 +12289,16 @@
         <v>37</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>302</v>
+        <v>509</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12303,10 +12349,10 @@
         <v>37</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>49</v>
@@ -12321,10 +12367,10 @@
         <v>37</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>526</v>
+        <v>92</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>92</v>
+        <v>513</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>37</v>
@@ -12333,18 +12379,18 @@
         <v>37</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>37</v>
+        <v>514</v>
       </c>
       <c r="AQ82" t="s" s="2">
-        <v>37</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12370,10 +12416,10 @@
         <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12403,10 +12449,10 @@
         <v>207</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>37</v>
@@ -12424,7 +12470,7 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12439,13 +12485,13 @@
         <v>61</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>37</v>
+        <v>520</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>532</v>
+        <v>37</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>92</v>
+        <v>521</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>37</v>
@@ -12462,10 +12508,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12488,13 +12534,13 @@
         <v>37</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>146</v>
+        <v>523</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12521,13 +12567,13 @@
         <v>37</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>536</v>
+        <v>37</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>537</v>
+        <v>37</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>37</v>
@@ -12545,13 +12591,13 @@
         <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>37</v>
@@ -12560,7 +12606,7 @@
         <v>61</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>37</v>
+        <v>525</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>37</v>
@@ -12583,10 +12629,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12597,34 +12643,36 @@
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="R85" t="s" s="2">
         <v>37</v>
       </c>
@@ -12668,13 +12716,13 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>37</v>
@@ -12686,10 +12734,10 @@
         <v>37</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>543</v>
+        <v>92</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>37</v>
@@ -12706,10 +12754,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12720,7 +12768,7 @@
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>37</v>
@@ -12732,13 +12780,13 @@
         <v>37</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>122</v>
+        <v>533</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>123</v>
+        <v>534</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12765,13 +12813,13 @@
         <v>37</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>37</v>
+        <v>535</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>37</v>
+        <v>536</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>37</v>
@@ -12789,19 +12837,19 @@
         <v>37</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>124</v>
+        <v>532</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>37</v>
@@ -12810,7 +12858,7 @@
         <v>37</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>37</v>
@@ -12827,21 +12875,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>37</v>
@@ -12853,17 +12901,15 @@
         <v>37</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>96</v>
+        <v>538</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>37</v>
@@ -12912,7 +12958,7 @@
         <v>37</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>131</v>
+        <v>537</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -12924,7 +12970,7 @@
         <v>37</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>37</v>
@@ -12933,7 +12979,7 @@
         <v>37</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>37</v>
@@ -12950,46 +12996,42 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>435</v>
+        <v>37</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>436</v>
+        <v>122</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>37</v>
       </c>
@@ -13037,19 +13079,19 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>438</v>
+        <v>124</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>37</v>
@@ -13058,7 +13100,7 @@
         <v>37</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>37</v>
@@ -13075,21 +13117,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>37</v>
@@ -13101,15 +13143,17 @@
         <v>37</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>548</v>
+        <v>96</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>37</v>
@@ -13158,28 +13202,28 @@
         <v>37</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>547</v>
+        <v>131</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>550</v>
+        <v>37</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>37</v>
@@ -13196,42 +13240,46 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>37</v>
+        <v>461</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>552</v>
+        <v>95</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>37</v>
       </c>
@@ -13279,28 +13327,28 @@
         <v>37</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>555</v>
+        <v>37</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>556</v>
+        <v>92</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>37</v>
@@ -13317,10 +13365,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13346,10 +13394,10 @@
         <v>121</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>122</v>
+        <v>545</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>123</v>
+        <v>546</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13400,7 +13448,7 @@
         <v>37</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>124</v>
+        <v>544</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
@@ -13412,16 +13460,16 @@
         <v>37</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>37</v>
+        <v>547</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>37</v>
@@ -13438,21 +13486,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>37</v>
@@ -13464,17 +13512,15 @@
         <v>37</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>96</v>
+        <v>549</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>37</v>
@@ -13511,31 +13557,31 @@
         <v>37</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>131</v>
+        <v>548</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>37</v>
@@ -13544,7 +13590,7 @@
         <v>37</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>37</v>
@@ -13561,10 +13607,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13584,20 +13630,18 @@
         <v>37</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>37</v>
@@ -13646,7 +13690,7 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
@@ -13655,7 +13699,7 @@
         <v>49</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>564</v>
+        <v>37</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>61</v>
@@ -13664,7 +13708,7 @@
         <v>37</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>92</v>
@@ -13676,18 +13720,18 @@
         <v>37</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>565</v>
+        <v>37</v>
       </c>
       <c r="AQ93" t="s" s="2">
-        <v>565</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13707,20 +13751,18 @@
         <v>37</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>63</v>
+        <v>302</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>37</v>
@@ -13745,13 +13787,13 @@
         <v>37</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>570</v>
+        <v>37</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>571</v>
+        <v>37</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>37</v>
@@ -13769,7 +13811,7 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -13787,7 +13829,7 @@
         <v>37</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>37</v>
+        <v>558</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>92</v>
@@ -13807,10 +13849,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13830,20 +13872,18 @@
         <v>37</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>37</v>
@@ -13868,13 +13908,13 @@
         <v>37</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>37</v>
+        <v>562</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>37</v>
+        <v>563</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>37</v>
@@ -13892,13 +13932,13 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>37</v>
@@ -13910,10 +13950,10 @@
         <v>37</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>37</v>
+        <v>564</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>578</v>
+        <v>92</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>37</v>
@@ -13930,10 +13970,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13953,20 +13993,18 @@
         <v>37</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>37</v>
@@ -13991,13 +14029,13 @@
         <v>37</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>37</v>
+        <v>568</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>37</v>
+        <v>569</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>37</v>
@@ -14015,7 +14053,7 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -14053,10 +14091,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14067,7 +14105,7 @@
         <v>38</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>37</v>
@@ -14079,15 +14117,17 @@
         <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>266</v>
+        <v>452</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>37</v>
@@ -14136,13 +14176,13 @@
         <v>37</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>37</v>
@@ -14154,10 +14194,10 @@
         <v>37</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>37</v>
@@ -14174,10 +14214,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14188,10 +14228,10 @@
         <v>38</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>37</v>
@@ -14200,13 +14240,13 @@
         <v>37</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>426</v>
+        <v>121</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>590</v>
+        <v>122</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>591</v>
+        <v>123</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14257,19 +14297,19 @@
         <v>37</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>589</v>
+        <v>124</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>37</v>
@@ -14278,7 +14318,7 @@
         <v>37</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>37</v>
@@ -14295,21 +14335,21 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>37</v>
@@ -14321,15 +14361,17 @@
         <v>37</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>37</v>
@@ -14378,19 +14420,19 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>37</v>
@@ -14416,14 +14458,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>94</v>
+        <v>461</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14436,24 +14478,26 @@
         <v>37</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>128</v>
+        <v>463</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="O100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>37</v>
       </c>
@@ -14501,7 +14545,7 @@
         <v>37</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>131</v>
+        <v>464</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>38</v>
@@ -14522,7 +14566,7 @@
         <v>37</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>37</v>
@@ -14539,46 +14583,42 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>435</v>
+        <v>37</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>95</v>
+        <v>302</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>436</v>
+        <v>580</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>37</v>
       </c>
@@ -14626,28 +14666,28 @@
         <v>37</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>438</v>
+        <v>579</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>37</v>
+        <v>582</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>37</v>
@@ -14664,10 +14704,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14681,7 +14721,7 @@
         <v>49</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>37</v>
@@ -14690,13 +14730,13 @@
         <v>37</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>121</v>
+        <v>584</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14747,7 +14787,7 @@
         <v>37</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>38</v>
@@ -14765,10 +14805,10 @@
         <v>37</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>37</v>
+        <v>587</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>92</v>
+        <v>588</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>37</v>
@@ -14777,7 +14817,7 @@
         <v>37</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>598</v>
+        <v>37</v>
       </c>
       <c r="AQ102" t="s" s="2">
         <v>37</v>
@@ -14785,10 +14825,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14799,7 +14839,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>37</v>
@@ -14811,13 +14851,13 @@
         <v>37</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>600</v>
+        <v>122</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>601</v>
+        <v>123</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14868,7 +14908,7 @@
         <v>37</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>599</v>
+        <v>124</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>38</v>
@@ -14880,7 +14920,7 @@
         <v>37</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>37</v>
@@ -14889,7 +14929,7 @@
         <v>37</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>37</v>
@@ -14906,21 +14946,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>37</v>
@@ -14932,15 +14972,17 @@
         <v>37</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>603</v>
+        <v>96</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>37</v>
@@ -14965,31 +15007,31 @@
         <v>37</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>605</v>
+        <v>37</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>606</v>
+        <v>37</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>602</v>
+        <v>131</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>38</v>
@@ -15001,7 +15043,7 @@
         <v>37</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>37</v>
@@ -15010,7 +15052,7 @@
         <v>37</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>37</v>
@@ -15027,10 +15069,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15038,7 +15080,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>49</v>
@@ -15050,19 +15092,19 @@
         <v>37</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>608</v>
+        <v>121</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>609</v>
+        <v>381</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>610</v>
+        <v>382</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15100,26 +15142,28 @@
         <v>37</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AC105" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD105" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>613</v>
+        <v>37</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>607</v>
+        <v>384</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>61</v>
@@ -15140,22 +15184,20 @@
         <v>37</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>37</v>
+        <v>592</v>
       </c>
       <c r="AQ105" t="s" s="2">
-        <v>37</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>37</v>
       </c>
@@ -15167,25 +15209,25 @@
         <v>49</v>
       </c>
       <c r="H106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J106" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I106" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K106" t="s" s="2">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>609</v>
+        <v>387</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>610</v>
+        <v>388</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15211,13 +15253,13 @@
         <v>37</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>37</v>
+        <v>391</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>37</v>
@@ -15235,10 +15277,10 @@
         <v>37</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>607</v>
+        <v>392</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>49</v>
@@ -15265,7 +15307,7 @@
         <v>37</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>616</v>
+        <v>37</v>
       </c>
       <c r="AQ106" t="s" s="2">
         <v>37</v>
@@ -15273,14 +15315,12 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
         <v>37</v>
       </c>
@@ -15298,19 +15338,19 @@
         <v>37</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>619</v>
+        <v>107</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>609</v>
+        <v>394</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>610</v>
+        <v>395</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>611</v>
+        <v>396</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15360,10 +15400,10 @@
         <v>37</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>607</v>
+        <v>397</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>49</v>
@@ -15381,7 +15421,7 @@
         <v>37</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>92</v>
+        <v>398</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>37</v>
@@ -15398,10 +15438,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15421,19 +15461,19 @@
         <v>37</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>608</v>
+        <v>121</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>621</v>
+        <v>400</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>622</v>
+        <v>401</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>611</v>
+        <v>402</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15483,7 +15523,7 @@
         <v>37</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>620</v>
+        <v>403</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>38</v>
@@ -15519,8 +15559,1476 @@
         <v>37</v>
       </c>
     </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ109" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ110" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ111" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP112" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ112" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP113" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ113" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP114" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AQ114" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ115" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP116" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ116" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AC117" s="2"/>
+      <c r="AD117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ117" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP118" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AQ118" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ119" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ120" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ108">
+  <autoFilter ref="A1:AQ120">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15530,7 +17038,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI107">
+  <conditionalFormatting sqref="A2:AI119">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -752,7 +752,7 @@
     <t>Immunization.status</t>
   </si>
   <si>
-    <t>completed | entered-in-error | not-done</t>
+    <t>May indicate entered-in-error</t>
   </si>
   <si>
     <t>Indicates the current status of the immunization event.</t>
@@ -761,9 +761,6 @@
     <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
   <si>
@@ -774,6 +771,9 @@
   </si>
   <si>
     <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>`completed` if not `entered-in-error`</t>
   </si>
   <si>
     <t>`completed`</t>
@@ -5038,7 +5038,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>80</v>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -5090,22 +5090,22 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>245</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8528,7 +8528,7 @@
         <v>420</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -10109,7 +10109,7 @@
         <v>496</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -17566,7 +17566,7 @@
         <v>665</v>
       </c>
       <c r="AQ123" t="s" s="2">
-        <v>80</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" hidden="true">

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: eVault-PHR to MHV-PHR</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -250,12 +256,6 @@
   </si>
   <si>
     <t>Mapping: CDA (R2)</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
-  </si>
-  <si>
-    <t>Mapping: eVault-PHR to MHV-PHR</t>
   </si>
   <si>
     <t/>
@@ -281,6 +281,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-5:SHOULD have a translation to the NDC value set {vaccineCode.coding.where(system='http://hl7.org/fhir/sid/ndc').empty()}</t>
   </si>
   <si>
+    <t>ImmunizationTO</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -288,9 +291,6 @@
   </si>
   <si>
     <t>SubstanceAdministration</t>
-  </si>
-  <si>
-    <t>ImmunizationTO</t>
   </si>
   <si>
     <t>Immunization.id</t>
@@ -500,6 +500,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>{StationNbr} and {ImmunizationTO.id}</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -510,9 +513,6 @@
   </si>
   <si>
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {ImmunizationTO.id}</t>
   </si>
   <si>
     <t>Immunization.identifier:TOid</t>
@@ -764,6 +764,12 @@
     <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
   <si>
+    <t>`completed` if not `entered-in-error`</t>
+  </si>
+  <si>
+    <t>`completed`</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -771,12 +777,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`completed` if not `entered-in-error`</t>
-  </si>
-  <si>
-    <t>`completed`</t>
   </si>
   <si>
     <t>Immunization.statusReason</t>
@@ -934,15 +934,15 @@
     <t>Coding.code</t>
   </si>
   <si>
+    <t>ImmunizationTO.cptCode.id</t>
+  </si>
+  <si>
     <t>C*E.1</t>
   </si>
   <si>
     <t>./code</t>
   </si>
   <si>
-    <t>ImmunizationTO.cptCode.id</t>
-  </si>
-  <si>
     <t>Immunization.vaccineCode.coding.display</t>
   </si>
   <si>
@@ -958,13 +958,13 @@
     <t>Coding.display</t>
   </si>
   <si>
+    <t>ImmunizationTO.cptCode.name</t>
+  </si>
+  <si>
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
     <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.cptCode.name</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.coding.userSelected</t>
@@ -1013,13 +1013,13 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>ImmunizationTO.name</t>
+  </si>
+  <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.name</t>
   </si>
   <si>
     <t>Immunization.patient</t>
@@ -1039,6 +1039,9 @@
     <t>The patient who either received or did not receive the immunization.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1049,9 +1052,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>Immunization.encounter</t>
@@ -1095,6 +1095,9 @@
     <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
   </si>
   <si>
+    <t>ImmunizationTO.administeredDate</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1110,9 +1113,6 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
   </si>
   <si>
-    <t>ImmunizationTO.administeredDate</t>
-  </si>
-  <si>
     <t>Immunization.recorded</t>
   </si>
   <si>
@@ -1122,15 +1122,15 @@
     <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
   </si>
   <si>
+    <t>ImmunizationTO.dateTime</t>
+  </si>
+  <si>
     <t>.participation[typeCode=AUT].time</t>
   </si>
   <si>
     <t>FiveWs.recorded</t>
   </si>
   <si>
-    <t>ImmunizationTO.dateTime</t>
-  </si>
-  <si>
     <t>Immunization.primarySource</t>
   </si>
   <si>
@@ -1143,6 +1143,9 @@
     <t>Reflects the “reliability” of the content.</t>
   </si>
   <si>
+    <t>Data Absent Reason - unknown</t>
+  </si>
+  <si>
     <t>RXA-9</t>
   </si>
   <si>
@@ -1150,9 +1153,6 @@
   </si>
   <si>
     <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Data Absent Reason - unknown</t>
   </si>
   <si>
     <t>Immunization.primarySource.id</t>
@@ -1299,6 +1299,9 @@
     <t>The service delivery location where the vaccine administration occurred.</t>
   </si>
   <si>
+    <t>GetLocation(ImmunizationTO.encounter.location)</t>
+  </si>
+  <si>
     <t>Event.location</t>
   </si>
   <si>
@@ -1309,9 +1312,6 @@
   </si>
   <si>
     <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>GetLocation(ImmunizationTO.encounter.location)</t>
   </si>
   <si>
     <t>Immunization.location.id</t>
@@ -1539,6 +1539,9 @@
     <t>closed</t>
   </si>
   <si>
+    <t>GetOrganization(ImmunizationTO.encounter.facility)</t>
+  </si>
+  <si>
     <t>Event.performer</t>
   </si>
   <si>
@@ -1546,9 +1549,6 @@
   </si>
   <si>
     <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>GetOrganization(ImmunizationTO.encounter.facility)</t>
   </si>
   <si>
     <t>Immunization.performer.id</t>
@@ -1777,10 +1777,10 @@
     <t>Annotation.text</t>
   </si>
   <si>
+    <t>ImmunizationTO.comments</t>
+  </si>
+  <si>
     <t>Act.text</t>
-  </si>
-  <si>
-    <t>ImmunizationTO.comments</t>
   </si>
   <si>
     <t>Immunization.reasonCode</t>
@@ -2515,13 +2515,13 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="142.6484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="227.0390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="158.01171875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="49.2421875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="49.2421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="49.2421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.2421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="142.6484375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="227.0390625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="158.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2760,22 +2760,22 @@
         <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AN2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3376,13 +3376,13 @@
         <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO7" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>80</v>
@@ -3499,13 +3499,13 @@
         <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO8" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>80</v>
@@ -3622,13 +3622,13 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>80</v>
@@ -3747,13 +3747,13 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>80</v>
@@ -3869,16 +3869,16 @@
         <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AP11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3983,7 +3983,7 @@
         <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -3992,16 +3992,16 @@
         <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AO12" t="s" s="2">
+      <c r="AP12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AP12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AQ12" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -4110,13 +4110,13 @@
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>80</v>
@@ -4233,13 +4233,13 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -4355,16 +4355,16 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -4480,16 +4480,16 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>80</v>
@@ -4605,16 +4605,16 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>80</v>
@@ -4728,16 +4728,16 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -4849,16 +4849,16 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -4972,16 +4972,16 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -5093,22 +5093,22 @@
         <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -5211,19 +5211,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -5330,25 +5330,25 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AO23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -5457,13 +5457,13 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -5580,13 +5580,13 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -5702,16 +5702,16 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5826,13 +5826,13 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -5949,13 +5949,13 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -6071,16 +6071,16 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -6194,16 +6194,16 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -6314,22 +6314,22 @@
         <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AN31" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>80</v>
@@ -6437,22 +6437,22 @@
         <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AN32" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>80</v>
@@ -6565,16 +6565,16 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -6687,25 +6687,25 @@
         <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -6811,22 +6811,22 @@
         <v>331</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>335</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -6929,22 +6929,22 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>80</v>
@@ -7055,19 +7055,19 @@
         <v>349</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>354</v>
@@ -7173,19 +7173,19 @@
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>360</v>
@@ -7296,19 +7296,19 @@
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>368</v>
@@ -7665,13 +7665,13 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -7786,13 +7786,13 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -8030,13 +8030,13 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -8151,13 +8151,13 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -8392,19 +8392,19 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AN48" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AP48" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>80</v>
@@ -8513,16 +8513,16 @@
         <v>416</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>420</v>
@@ -8637,13 +8637,13 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8760,13 +8760,13 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8883,13 +8883,13 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -9006,13 +9006,13 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -9129,13 +9129,13 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -9252,13 +9252,13 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9370,22 +9370,22 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO56" t="s" s="2">
+      <c r="AP56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ56" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -9491,22 +9491,22 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AN57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO57" t="s" s="2">
+      <c r="AP57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ57" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -9612,16 +9612,16 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9733,22 +9733,22 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO59" t="s" s="2">
+      <c r="AP59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -9854,22 +9854,22 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AN60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO60" t="s" s="2">
+      <c r="AP60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -9975,16 +9975,16 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -10094,19 +10094,19 @@
         <v>493</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO62" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>80</v>
@@ -10218,13 +10218,13 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -10341,13 +10341,13 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -10466,13 +10466,13 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>80</v>
@@ -10581,19 +10581,19 @@
         <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -10704,22 +10704,22 @@
         <v>104</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AP67" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>80</v>
@@ -10831,13 +10831,13 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>80</v>
@@ -10954,13 +10954,13 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -11077,13 +11077,13 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>80</v>
@@ -11200,13 +11200,13 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>80</v>
@@ -11323,13 +11323,13 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>80</v>
@@ -11446,13 +11446,13 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>80</v>
@@ -11563,19 +11563,19 @@
         <v>104</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AN74" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO74" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>80</v>
@@ -11690,13 +11690,13 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>80</v>
@@ -11813,13 +11813,13 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>80</v>
@@ -11938,13 +11938,13 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>80</v>
@@ -12053,19 +12053,19 @@
         <v>104</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>80</v>
@@ -12176,22 +12176,22 @@
         <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AP79" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AQ79" t="s" s="2">
         <v>80</v>
@@ -12299,19 +12299,19 @@
         <v>104</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AN80" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO80" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>80</v>
@@ -12426,13 +12426,13 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>80</v>
@@ -12549,13 +12549,13 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>80</v>
@@ -12674,13 +12674,13 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -12789,19 +12789,19 @@
         <v>104</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AL84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>80</v>
@@ -12912,22 +12912,22 @@
         <v>104</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AP85" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>80</v>
@@ -13033,19 +13033,19 @@
         <v>104</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>80</v>
@@ -13160,13 +13160,13 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO87" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>80</v>
@@ -13283,13 +13283,13 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>80</v>
@@ -13403,16 +13403,16 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AO89" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>80</v>
@@ -13524,16 +13524,16 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>80</v>
@@ -13642,25 +13642,25 @@
         <v>104</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>568</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AM91" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO91" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>569</v>
+        <v>80</v>
       </c>
       <c r="AQ91" t="s" s="2">
-        <v>569</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" hidden="true">
@@ -13763,19 +13763,19 @@
         <v>104</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>80</v>
@@ -13884,19 +13884,19 @@
         <v>104</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>80</v>
@@ -14012,16 +14012,16 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AO94" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>80</v>
@@ -14136,13 +14136,13 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO95" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>80</v>
@@ -14257,13 +14257,13 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO96" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>80</v>
@@ -14378,13 +14378,13 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO97" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>80</v>
@@ -14501,13 +14501,13 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>80</v>
@@ -14626,13 +14626,13 @@
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>80</v>
@@ -14744,16 +14744,16 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AO100" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>80</v>
@@ -14868,13 +14868,13 @@
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>80</v>
@@ -14986,16 +14986,16 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>80</v>
@@ -15107,16 +15107,16 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AO103" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>80</v>
@@ -15228,16 +15228,16 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>80</v>
@@ -15352,13 +15352,13 @@
         <v>80</v>
       </c>
       <c r="AM105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO105" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>80</v>
@@ -15472,16 +15472,16 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>80</v>
@@ -15596,13 +15596,13 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>80</v>
@@ -15719,13 +15719,13 @@
         <v>80</v>
       </c>
       <c r="AM108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO108" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>80</v>
@@ -15844,13 +15844,13 @@
         <v>80</v>
       </c>
       <c r="AM109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO109" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>80</v>
@@ -15962,16 +15962,16 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="AM110" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO110" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>80</v>
@@ -16083,16 +16083,16 @@
         <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="AM111" t="s" s="2">
+      <c r="AO111" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>80</v>
@@ -16207,13 +16207,13 @@
         <v>80</v>
       </c>
       <c r="AM112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>80</v>
@@ -16330,13 +16330,13 @@
         <v>80</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>80</v>
@@ -16447,25 +16447,25 @@
         <v>104</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>80</v>
+        <v>647</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>80</v>
+        <v>647</v>
       </c>
       <c r="AM114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO114" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AN114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AP114" t="s" s="2">
-        <v>647</v>
+        <v>80</v>
       </c>
       <c r="AQ114" t="s" s="2">
-        <v>647</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" hidden="true">
@@ -16576,13 +16576,13 @@
         <v>80</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO115" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>80</v>
@@ -16699,13 +16699,13 @@
         <v>80</v>
       </c>
       <c r="AM116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO116" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>80</v>
@@ -16822,13 +16822,13 @@
         <v>80</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>80</v>
@@ -16940,16 +16940,16 @@
         <v>80</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AO118" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>80</v>
@@ -17064,13 +17064,13 @@
         <v>80</v>
       </c>
       <c r="AM119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO119" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>80</v>
@@ -17185,13 +17185,13 @@
         <v>80</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO120" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>80</v>
@@ -17308,13 +17308,13 @@
         <v>80</v>
       </c>
       <c r="AM121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO121" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>80</v>
@@ -17433,13 +17433,13 @@
         <v>80</v>
       </c>
       <c r="AM122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>80</v>
@@ -17548,25 +17548,25 @@
         <v>104</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>80</v>
+        <v>665</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>80</v>
+        <v>665</v>
       </c>
       <c r="AM123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO123" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AN123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AP123" t="s" s="2">
-        <v>665</v>
+        <v>80</v>
       </c>
       <c r="AQ123" t="s" s="2">
-        <v>665</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" hidden="true">
@@ -17675,13 +17675,13 @@
         <v>80</v>
       </c>
       <c r="AM124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO124" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>80</v>
@@ -17796,13 +17796,13 @@
         <v>80</v>
       </c>
       <c r="AM125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO125" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP125" t="s" s="2">
         <v>80</v>
@@ -17917,13 +17917,13 @@
         <v>80</v>
       </c>
       <c r="AM126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO126" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>80</v>
@@ -18036,22 +18036,22 @@
         <v>104</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>80</v>
+        <v>682</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO127" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AN127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AP127" t="s" s="2">
-        <v>682</v>
+        <v>80</v>
       </c>
       <c r="AQ127" t="s" s="2">
         <v>80</v>
@@ -18167,13 +18167,13 @@
         <v>80</v>
       </c>
       <c r="AM128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO128" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP128" t="s" s="2">
         <v>80</v>
@@ -18290,13 +18290,13 @@
         <v>80</v>
       </c>
       <c r="AM129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
